--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -11394,6 +11394,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11420,9 +11423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -26906,7 +26906,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="343" t="s">
+      <c r="N3" s="344" t="s">
         <v>2991</v>
       </c>
       <c r="O3" s="51"/>
@@ -26935,7 +26935,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="344"/>
+      <c r="N4" s="345"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -26961,7 +26961,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="344"/>
+      <c r="N5" s="345"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -26983,7 +26983,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="345"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -27001,7 +27001,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="344"/>
+      <c r="N7" s="345"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -27021,7 +27021,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="344"/>
+      <c r="N8" s="345"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -27039,7 +27039,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="344"/>
+      <c r="N9" s="345"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -27056,7 +27056,7 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="344"/>
+      <c r="N10" s="345"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -27076,7 +27076,7 @@
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="345"/>
+      <c r="N11" s="346"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -39406,24 +39406,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="346" t="s">
+      <c r="B22" s="347" t="s">
         <v>1251</v>
       </c>
-      <c r="C22" s="346"/>
+      <c r="C22" s="347"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="346" t="s">
+      <c r="F22" s="347" t="s">
         <v>1355</v>
       </c>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="347"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="346" t="s">
+      <c r="K22" s="347" t="s">
         <v>1253</v>
       </c>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
+      <c r="L22" s="347"/>
+      <c r="M22" s="347"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -41981,35 +41981,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="348" t="s">
+      <c r="B8" s="349" t="s">
         <v>3081</v>
       </c>
-      <c r="C8" s="348"/>
-      <c r="F8" s="348" t="s">
+      <c r="C8" s="349"/>
+      <c r="F8" s="349" t="s">
         <v>3082</v>
       </c>
-      <c r="G8" s="348"/>
-      <c r="I8" s="348" t="s">
+      <c r="G8" s="349"/>
+      <c r="I8" s="349" t="s">
         <v>3082</v>
       </c>
-      <c r="J8" s="348"/>
+      <c r="J8" s="349"/>
       <c r="M8" s="249" t="s">
         <v>3139</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="348" t="s">
+      <c r="F9" s="349" t="s">
         <v>3083</v>
       </c>
-      <c r="G9" s="348"/>
-      <c r="I9" s="348" t="s">
+      <c r="G9" s="349"/>
+      <c r="I9" s="349" t="s">
         <v>3084</v>
       </c>
-      <c r="J9" s="348"/>
-      <c r="M9" s="349" t="s">
+      <c r="J9" s="349"/>
+      <c r="M9" s="350" t="s">
         <v>3082</v>
       </c>
-      <c r="N9" s="349"/>
+      <c r="N9" s="350"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="316" t="s">
@@ -42018,19 +42018,19 @@
       <c r="N10" s="316"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="347" t="s">
+      <c r="E11" s="348" t="s">
         <v>3086</v>
       </c>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="347"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="347"/>
+      <c r="F11" s="348"/>
+      <c r="G11" s="348"/>
+      <c r="H11" s="348"/>
+      <c r="I11" s="348"/>
+      <c r="J11" s="348"/>
+      <c r="K11" s="348"/>
+      <c r="L11" s="348"/>
+      <c r="M11" s="348"/>
+      <c r="N11" s="348"/>
+      <c r="O11" s="348"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -45790,11 +45790,11 @@
       <c r="L6" s="43" t="s">
         <v>1527</v>
       </c>
-      <c r="M6" s="350" t="s">
+      <c r="M6" s="351" t="s">
         <v>1528</v>
       </c>
-      <c r="N6" s="350"/>
-      <c r="O6" s="350"/>
+      <c r="N6" s="351"/>
+      <c r="O6" s="351"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -51304,8 +51304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51323,23 +51323,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="343" t="s">
         <v>2826</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="I1" s="342" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="I1" s="343" t="s">
         <v>2838</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51498,24 +51498,24 @@
       <c r="A12" s="335" t="s">
         <v>2840</v>
       </c>
-      <c r="B12" s="341"/>
-      <c r="C12" s="341"/>
-      <c r="D12" s="341"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="341"/>
+      <c r="B12" s="342"/>
+      <c r="C12" s="342"/>
+      <c r="D12" s="342"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="342"/>
       <c r="H12" s="336"/>
       <c r="I12" s="335" t="s">
         <v>2840</v>
       </c>
-      <c r="J12" s="341"/>
-      <c r="K12" s="341"/>
-      <c r="L12" s="341"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="341"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
+      <c r="J12" s="342"/>
+      <c r="K12" s="342"/>
+      <c r="L12" s="342"/>
+      <c r="M12" s="342"/>
+      <c r="N12" s="342"/>
+      <c r="O12" s="342"/>
+      <c r="P12" s="342"/>
+      <c r="Q12" s="342"/>
       <c r="R12" s="336"/>
     </row>
     <row r="13" spans="1:18">
@@ -51744,14 +51744,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="342" t="s">
+      <c r="A24" s="343" t="s">
         <v>2826</v>
       </c>
-      <c r="B24" s="342"/>
-      <c r="C24" s="342"/>
-      <c r="D24" s="342"/>
-      <c r="E24" s="342"/>
-      <c r="F24" s="342"/>
+      <c r="B24" s="343"/>
+      <c r="C24" s="343"/>
+      <c r="D24" s="343"/>
+      <c r="E24" s="343"/>
+      <c r="F24" s="343"/>
       <c r="H24" s="273" t="s">
         <v>2838</v>
       </c>
@@ -51761,11 +51761,11 @@
       <c r="L24" s="273"/>
       <c r="M24" s="273"/>
       <c r="N24" s="273"/>
-      <c r="P24" s="342" t="s">
+      <c r="P24" s="343" t="s">
         <v>2879</v>
       </c>
-      <c r="Q24" s="342"/>
-      <c r="R24" s="342"/>
+      <c r="Q24" s="343"/>
+      <c r="R24" s="343"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -52008,24 +52008,24 @@
       <c r="A35" s="335" t="s">
         <v>2880</v>
       </c>
-      <c r="B35" s="341"/>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
-      <c r="F35" s="341"/>
-      <c r="G35" s="341"/>
+      <c r="B35" s="342"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="342"/>
+      <c r="E35" s="342"/>
+      <c r="F35" s="342"/>
+      <c r="G35" s="342"/>
       <c r="H35" s="336"/>
       <c r="I35" s="335" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="341"/>
-      <c r="K35" s="341"/>
-      <c r="L35" s="341"/>
-      <c r="M35" s="341"/>
-      <c r="N35" s="341"/>
-      <c r="O35" s="341"/>
-      <c r="P35" s="341"/>
-      <c r="Q35" s="341"/>
+      <c r="J35" s="342"/>
+      <c r="K35" s="342"/>
+      <c r="L35" s="342"/>
+      <c r="M35" s="342"/>
+      <c r="N35" s="342"/>
+      <c r="O35" s="342"/>
+      <c r="P35" s="342"/>
+      <c r="Q35" s="342"/>
       <c r="R35" s="336"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
@@ -52906,7 +52906,7 @@
       <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="351" t="s">
+      <c r="F76" s="341" t="s">
         <v>2110</v>
       </c>
       <c r="G76" s="327"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6223" uniqueCount="3265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="3266">
   <si>
     <t>USER</t>
   </si>
@@ -10101,6 +10101,9 @@
   </si>
   <si>
     <t>method2 : 80</t>
+  </si>
+  <si>
+    <t>7 ^ 8</t>
   </si>
 </sst>
 </file>
@@ -10694,7 +10697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10954,9 +10957,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11319,9 +11319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -11350,6 +11347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11779,11 +11779,11 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="175" t="s">
+      <c r="J3" s="174" t="s">
         <v>413</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="178"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13">
@@ -11796,11 +11796,11 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="215" t="s">
+      <c r="J4" s="174"/>
+      <c r="K4" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="216" t="s">
+      <c r="L4" s="215" t="s">
         <v>412</v>
       </c>
       <c r="M4" s="34"/>
@@ -11818,11 +11818,11 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="180" t="s">
+      <c r="J5" s="174"/>
+      <c r="K5" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="L5" s="181">
+      <c r="L5" s="180">
         <v>0</v>
       </c>
       <c r="M5" s="34"/>
@@ -11853,11 +11853,11 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="320" t="s">
+      <c r="J7" s="318" t="s">
         <v>1952</v>
       </c>
-      <c r="K7" s="321"/>
-      <c r="L7" s="322"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="320"/>
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
@@ -11869,11 +11869,11 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="320"/>
-      <c r="K8" s="323" t="s">
+      <c r="J8" s="318"/>
+      <c r="K8" s="321" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="324" t="s">
+      <c r="L8" s="322" t="s">
         <v>524</v>
       </c>
       <c r="M8" s="34"/>
@@ -11882,16 +11882,16 @@
       <c r="A9" t="s">
         <v>1907</v>
       </c>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="325" t="s">
+      <c r="J9" s="318"/>
+      <c r="K9" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="L9" s="326">
+      <c r="L9" s="324">
         <v>0</v>
       </c>
       <c r="M9" s="34"/>
@@ -11900,54 +11900,54 @@
       <c r="A10" t="s">
         <v>2795</v>
       </c>
-      <c r="E10" s="215" t="s">
+      <c r="E10" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="216" t="s">
+      <c r="F10" s="215" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>3240</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="181">
+      <c r="F11" s="180">
         <v>0</v>
       </c>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="320" t="s">
+      <c r="J11" s="318" t="s">
         <v>2632</v>
       </c>
-      <c r="K11" s="321"/>
-      <c r="L11" s="322"/>
+      <c r="K11" s="319"/>
+      <c r="L11" s="320"/>
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>2797</v>
       </c>
-      <c r="E12" s="206"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="320"/>
-      <c r="K12" s="323" t="s">
+      <c r="J12" s="318"/>
+      <c r="K12" s="321" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="324" t="s">
+      <c r="L12" s="322" t="s">
         <v>559</v>
       </c>
       <c r="M12" s="34"/>
@@ -11956,16 +11956,16 @@
       <c r="A13" t="s">
         <v>3246</v>
       </c>
-      <c r="E13" s="206"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="320"/>
-      <c r="K13" s="325" t="s">
+      <c r="J13" s="318"/>
+      <c r="K13" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="326">
+      <c r="L13" s="324">
         <v>0</v>
       </c>
       <c r="M13" s="34"/>
@@ -11974,12 +11974,12 @@
       <c r="A14" t="s">
         <v>3239</v>
       </c>
-      <c r="E14" s="206"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="215" t="s">
+      <c r="E14" s="205"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="216" t="s">
+      <c r="H14" s="215" t="s">
         <v>412</v>
       </c>
       <c r="I14" s="27"/>
@@ -11995,18 +11995,18 @@
       <c r="D15" t="s">
         <v>559</v>
       </c>
-      <c r="E15" s="206"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="180" t="s">
+      <c r="E15" s="205"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="181">
+      <c r="H15" s="180">
         <v>0</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="178"/>
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13">
@@ -12016,7 +12016,7 @@
       <c r="D16" t="s">
         <v>524</v>
       </c>
-      <c r="E16" s="225" t="s">
+      <c r="E16" s="224" t="s">
         <v>2767</v>
       </c>
       <c r="F16" s="27" t="s">
@@ -12026,10 +12026,10 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="215" t="s">
+      <c r="K16" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="216" t="s">
+      <c r="L16" s="215" t="s">
         <v>412</v>
       </c>
       <c r="M16" s="34"/>
@@ -12041,7 +12041,7 @@
       <c r="D17" t="s">
         <v>559</v>
       </c>
-      <c r="E17" s="225" t="s">
+      <c r="E17" s="224" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -12051,10 +12051,10 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="180" t="s">
+      <c r="K17" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="181">
+      <c r="L17" s="180">
         <v>0</v>
       </c>
       <c r="M17" s="34"/>
@@ -12641,7 +12641,7 @@
       <c r="B171" t="s">
         <v>2763</v>
       </c>
-      <c r="F171" s="260" t="s">
+      <c r="F171" s="259" t="s">
         <v>1621</v>
       </c>
       <c r="G171" s="104" t="s">
@@ -12675,10 +12675,10 @@
       <c r="H172" s="117"/>
       <c r="I172" s="51"/>
       <c r="J172" s="74"/>
-      <c r="K172" s="261" t="s">
+      <c r="K172" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="L172" s="231" t="s">
+      <c r="L172" s="230" t="s">
         <v>412</v>
       </c>
       <c r="M172" s="52"/>
@@ -12702,10 +12702,10 @@
       <c r="H173" s="51"/>
       <c r="I173" s="51"/>
       <c r="J173" s="74"/>
-      <c r="K173" s="262" t="s">
+      <c r="K173" s="261" t="s">
         <v>178</v>
       </c>
-      <c r="L173" s="263">
+      <c r="L173" s="262">
         <v>5</v>
       </c>
       <c r="M173" s="52"/>
@@ -12751,10 +12751,10 @@
       <c r="H176" s="51"/>
       <c r="I176" s="51"/>
       <c r="J176" s="51"/>
-      <c r="K176" s="261" t="s">
+      <c r="K176" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="L176" s="231" t="s">
+      <c r="L176" s="230" t="s">
         <v>524</v>
       </c>
       <c r="M176" s="52"/>
@@ -12768,10 +12768,10 @@
       <c r="H177" s="51"/>
       <c r="I177" s="51"/>
       <c r="J177" s="51"/>
-      <c r="K177" s="262" t="s">
+      <c r="K177" s="261" t="s">
         <v>178</v>
       </c>
-      <c r="L177" s="263">
+      <c r="L177" s="262">
         <v>10</v>
       </c>
       <c r="M177" s="52"/>
@@ -12813,10 +12813,10 @@
       <c r="H180" s="51"/>
       <c r="I180" s="51"/>
       <c r="J180" s="51"/>
-      <c r="K180" s="261" t="s">
+      <c r="K180" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="L180" s="231" t="s">
+      <c r="L180" s="230" t="s">
         <v>559</v>
       </c>
       <c r="M180" s="52"/>
@@ -12830,10 +12830,10 @@
       <c r="H181" s="51"/>
       <c r="I181" s="51"/>
       <c r="J181" s="51"/>
-      <c r="K181" s="262" t="s">
+      <c r="K181" s="261" t="s">
         <v>178</v>
       </c>
-      <c r="L181" s="263">
+      <c r="L181" s="262">
         <v>5</v>
       </c>
       <c r="M181" s="52"/>
@@ -12914,13 +12914,13 @@
       <c r="F188" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="G188" s="256" t="s">
+      <c r="G188" s="255" t="s">
         <v>1433</v>
       </c>
-      <c r="H188" s="256"/>
-      <c r="I188" s="256"/>
-      <c r="J188" s="256"/>
-      <c r="K188" s="256" t="s">
+      <c r="H188" s="255"/>
+      <c r="I188" s="255"/>
+      <c r="J188" s="255"/>
+      <c r="K188" s="255" t="s">
         <v>2783</v>
       </c>
       <c r="L188" s="121" t="s">
@@ -12934,7 +12934,7 @@
       <c r="B189" t="s">
         <v>2773</v>
       </c>
-      <c r="F189" s="186" t="s">
+      <c r="F189" s="185" t="s">
         <v>2793</v>
       </c>
       <c r="G189" s="27" t="s">
@@ -12951,7 +12951,7 @@
       <c r="B190" t="s">
         <v>2794</v>
       </c>
-      <c r="F190" s="186"/>
+      <c r="F190" s="185"/>
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
@@ -12964,7 +12964,7 @@
       <c r="A191" t="s">
         <v>144</v>
       </c>
-      <c r="F191" s="186"/>
+      <c r="F191" s="185"/>
       <c r="G191" s="27"/>
       <c r="H191" s="30"/>
       <c r="I191" s="32"/>
@@ -12983,13 +12983,13 @@
       <c r="A192" t="s">
         <v>2774</v>
       </c>
-      <c r="F192" s="186"/>
+      <c r="F192" s="185"/>
       <c r="G192" s="27"/>
       <c r="H192" s="35"/>
       <c r="I192" s="37"/>
       <c r="J192" s="27"/>
       <c r="K192" s="27"/>
-      <c r="L192" s="186" t="s">
+      <c r="L192" s="185" t="s">
         <v>2786</v>
       </c>
       <c r="M192" s="76" t="s">
@@ -13000,7 +13000,7 @@
       <c r="B193" t="s">
         <v>2775</v>
       </c>
-      <c r="F193" s="186"/>
+      <c r="F193" s="185"/>
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="76"/>
@@ -13017,7 +13017,7 @@
       <c r="A194" t="s">
         <v>144</v>
       </c>
-      <c r="F194" s="186"/>
+      <c r="F194" s="185"/>
       <c r="G194" s="27"/>
       <c r="H194" s="121"/>
       <c r="I194" s="122"/>
@@ -13030,9 +13030,9 @@
       <c r="A195" t="s">
         <v>2776</v>
       </c>
-      <c r="F195" s="186"/>
+      <c r="F195" s="185"/>
       <c r="G195" s="27"/>
-      <c r="H195" s="186"/>
+      <c r="H195" s="185"/>
       <c r="I195" s="76"/>
       <c r="J195" s="27"/>
       <c r="K195" s="27" t="s">
@@ -13049,7 +13049,7 @@
       <c r="B196" t="s">
         <v>2777</v>
       </c>
-      <c r="F196" s="186"/>
+      <c r="F196" s="185"/>
       <c r="G196" s="27"/>
       <c r="H196" s="123"/>
       <c r="I196" s="124"/>
@@ -13066,7 +13066,7 @@
       <c r="B197" t="s">
         <v>2778</v>
       </c>
-      <c r="F197" s="186"/>
+      <c r="F197" s="185"/>
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="76"/>
@@ -13079,7 +13079,7 @@
       <c r="B198" t="s">
         <v>2779</v>
       </c>
-      <c r="F198" s="186"/>
+      <c r="F198" s="185"/>
       <c r="G198" s="27"/>
       <c r="H198" s="121"/>
       <c r="I198" s="122"/>
@@ -13090,7 +13090,7 @@
       <c r="L198" s="121" t="s">
         <v>2791</v>
       </c>
-      <c r="M198" s="264">
+      <c r="M198" s="263">
         <v>44542</v>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="A199" t="s">
         <v>144</v>
       </c>
-      <c r="F199" s="186"/>
+      <c r="F199" s="185"/>
       <c r="G199" s="27"/>
       <c r="H199" s="123"/>
       <c r="I199" s="124"/>
@@ -13115,7 +13115,7 @@
       <c r="A200" t="s">
         <v>2780</v>
       </c>
-      <c r="F200" s="186"/>
+      <c r="F200" s="185"/>
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="76"/>
@@ -13131,10 +13131,10 @@
       <c r="C201" t="s">
         <v>2781</v>
       </c>
-      <c r="F201" s="186"/>
+      <c r="F201" s="185"/>
       <c r="G201" s="27"/>
       <c r="H201" s="121"/>
-      <c r="I201" s="264"/>
+      <c r="I201" s="263"/>
       <c r="J201" s="27"/>
       <c r="K201" s="27"/>
       <c r="L201" s="27"/>
@@ -13149,11 +13149,11 @@
       </c>
       <c r="F202" s="123"/>
       <c r="G202" s="36"/>
-      <c r="H202" s="265"/>
+      <c r="H202" s="264"/>
       <c r="I202" s="120"/>
-      <c r="J202" s="257"/>
-      <c r="K202" s="257"/>
-      <c r="L202" s="257"/>
+      <c r="J202" s="256"/>
+      <c r="K202" s="256"/>
+      <c r="L202" s="256"/>
       <c r="M202" s="124"/>
     </row>
     <row r="203" spans="1:13">
@@ -13706,10 +13706,10 @@
       <c r="M282" s="34"/>
     </row>
     <row r="283" spans="1:13">
-      <c r="A283" s="146" t="s">
+      <c r="A283" s="145" t="s">
         <v>1654</v>
       </c>
-      <c r="B283" s="146"/>
+      <c r="B283" s="145"/>
       <c r="C283" s="56" t="s">
         <v>1653</v>
       </c>
@@ -13726,10 +13726,10 @@
       <c r="M283" s="34"/>
     </row>
     <row r="284" spans="1:13">
-      <c r="A284" s="146" t="s">
+      <c r="A284" s="145" t="s">
         <v>1655</v>
       </c>
-      <c r="B284" s="146"/>
+      <c r="B284" s="145"/>
       <c r="C284" t="s">
         <v>1656</v>
       </c>
@@ -13890,20 +13890,20 @@
       <c r="A299" t="s">
         <v>2284</v>
       </c>
-      <c r="E299" s="214" t="s">
+      <c r="E299" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="F299" s="161" t="s">
+      <c r="F299" s="160" t="s">
         <v>1433</v>
       </c>
       <c r="G299" s="51"/>
       <c r="H299" s="51"/>
-      <c r="I299" s="157"/>
-      <c r="J299" s="157" t="s">
+      <c r="I299" s="156"/>
+      <c r="J299" s="156" t="s">
         <v>2291</v>
       </c>
-      <c r="K299" s="157"/>
-      <c r="L299" s="157"/>
+      <c r="K299" s="156"/>
+      <c r="L299" s="156"/>
       <c r="M299" s="52"/>
     </row>
     <row r="300" spans="1:13">
@@ -13918,12 +13918,12 @@
       </c>
       <c r="G300" s="51"/>
       <c r="H300" s="51"/>
-      <c r="I300" s="157" t="s">
+      <c r="I300" s="156" t="s">
         <v>413</v>
       </c>
-      <c r="J300" s="178"/>
-      <c r="K300" s="179"/>
-      <c r="L300" s="157"/>
+      <c r="J300" s="177"/>
+      <c r="K300" s="178"/>
+      <c r="L300" s="156"/>
       <c r="M300" s="52"/>
     </row>
     <row r="301" spans="1:13">
@@ -13938,14 +13938,14 @@
       </c>
       <c r="G301" s="51"/>
       <c r="H301" s="51"/>
-      <c r="I301" s="157"/>
-      <c r="J301" s="215" t="s">
+      <c r="I301" s="156"/>
+      <c r="J301" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="K301" s="216" t="s">
+      <c r="K301" s="215" t="s">
         <v>412</v>
       </c>
-      <c r="L301" s="157"/>
+      <c r="L301" s="156"/>
       <c r="M301" s="52"/>
     </row>
     <row r="302" spans="1:13" ht="15.75" thickBot="1">
@@ -13960,14 +13960,14 @@
       </c>
       <c r="G302" s="51"/>
       <c r="H302" s="51"/>
-      <c r="I302" s="157"/>
-      <c r="J302" s="180" t="s">
+      <c r="I302" s="156"/>
+      <c r="J302" s="179" t="s">
         <v>2279</v>
       </c>
-      <c r="K302" s="181">
+      <c r="K302" s="180">
         <v>12</v>
       </c>
-      <c r="L302" s="157"/>
+      <c r="L302" s="156"/>
       <c r="M302" s="52"/>
     </row>
     <row r="303" spans="1:13" ht="15.75" thickBot="1">
@@ -14215,20 +14215,20 @@
       <c r="A324" t="s">
         <v>2281</v>
       </c>
-      <c r="E324" s="214" t="s">
+      <c r="E324" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="F324" s="161" t="s">
+      <c r="F324" s="160" t="s">
         <v>1433</v>
       </c>
       <c r="G324" s="51"/>
       <c r="H324" s="51"/>
-      <c r="I324" s="217" t="s">
+      <c r="I324" s="216" t="s">
         <v>413</v>
       </c>
-      <c r="J324" s="218"/>
-      <c r="K324" s="219"/>
-      <c r="L324" s="157"/>
+      <c r="J324" s="217"/>
+      <c r="K324" s="218"/>
+      <c r="L324" s="156"/>
       <c r="M324" s="52"/>
     </row>
     <row r="325" spans="1:13">
@@ -14243,14 +14243,14 @@
       </c>
       <c r="G325" s="51"/>
       <c r="H325" s="51"/>
-      <c r="I325" s="217"/>
-      <c r="J325" s="220" t="s">
+      <c r="I325" s="216"/>
+      <c r="J325" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="K325" s="221" t="s">
+      <c r="K325" s="220" t="s">
         <v>412</v>
       </c>
-      <c r="L325" s="157"/>
+      <c r="L325" s="156"/>
       <c r="M325" s="52"/>
     </row>
     <row r="326" spans="1:13" ht="15.75" thickBot="1">
@@ -14265,14 +14265,14 @@
       </c>
       <c r="G326" s="51"/>
       <c r="H326" s="51"/>
-      <c r="I326" s="217"/>
-      <c r="J326" s="222" t="s">
+      <c r="I326" s="216"/>
+      <c r="J326" s="221" t="s">
         <v>2279</v>
       </c>
-      <c r="K326" s="223">
+      <c r="K326" s="222">
         <v>12</v>
       </c>
-      <c r="L326" s="157"/>
+      <c r="L326" s="156"/>
       <c r="M326" s="52"/>
     </row>
     <row r="327" spans="1:13" ht="15.75" thickBot="1">
@@ -14286,7 +14286,7 @@
       <c r="I327" s="51"/>
       <c r="J327" s="51"/>
       <c r="K327" s="51"/>
-      <c r="L327" s="157"/>
+      <c r="L327" s="156"/>
       <c r="M327" s="52"/>
     </row>
     <row r="328" spans="1:13">
@@ -15741,7 +15741,7 @@
       <c r="L125" s="51"/>
       <c r="M125" s="51"/>
       <c r="N125" s="51"/>
-      <c r="O125" s="161" t="s">
+      <c r="O125" s="160" t="s">
         <v>1787</v>
       </c>
       <c r="P125" s="51"/>
@@ -16196,7 +16196,7 @@
       <c r="L155" s="51"/>
       <c r="M155" s="51"/>
       <c r="N155" s="51"/>
-      <c r="O155" s="161" t="s">
+      <c r="O155" s="160" t="s">
         <v>1787</v>
       </c>
       <c r="P155" s="51"/>
@@ -18424,7 +18424,7 @@
       <c r="J117" s="27"/>
       <c r="K117" s="27"/>
       <c r="L117" s="27"/>
-      <c r="M117" s="186" t="s">
+      <c r="M117" s="185" t="s">
         <v>178</v>
       </c>
       <c r="N117" s="27">
@@ -18910,7 +18910,7 @@
         <v>144</v>
       </c>
       <c r="D145" s="106"/>
-      <c r="E145" s="187"/>
+      <c r="E145" s="186"/>
       <c r="G145" s="33"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
@@ -18928,7 +18928,7 @@
         <v>2035</v>
       </c>
       <c r="C146" s="106"/>
-      <c r="D146" s="187"/>
+      <c r="D146" s="186"/>
       <c r="G146" s="33"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
@@ -18946,7 +18946,7 @@
       <c r="C147" s="106" t="s">
         <v>1776</v>
       </c>
-      <c r="D147" s="187"/>
+      <c r="D147" s="186"/>
       <c r="G147" s="33"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
@@ -18964,7 +18964,7 @@
       <c r="C148" s="107" t="s">
         <v>1615</v>
       </c>
-      <c r="D148" s="187"/>
+      <c r="D148" s="186"/>
       <c r="G148" s="33"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
@@ -18982,7 +18982,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="107"/>
-      <c r="D149" s="187"/>
+      <c r="D149" s="186"/>
       <c r="G149" s="33"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
@@ -19001,7 +19001,7 @@
       <c r="B150" s="106"/>
       <c r="C150" s="106"/>
       <c r="D150" s="107"/>
-      <c r="E150" s="187"/>
+      <c r="E150" s="186"/>
       <c r="G150" s="35"/>
       <c r="H150" s="36"/>
       <c r="I150" s="36"/>
@@ -19431,7 +19431,7 @@
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
       <c r="D5" s="65"/>
-      <c r="E5" s="151" t="b">
+      <c r="E5" s="150" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="59" t="s">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
-      <c r="M5" s="165" t="s">
+      <c r="M5" s="164" t="s">
         <v>1814</v>
       </c>
       <c r="N5" s="57"/>
@@ -19485,12 +19485,12 @@
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="65"/>
-      <c r="J7" s="165" t="s">
+      <c r="J7" s="164" t="s">
         <v>1815</v>
       </c>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="165" t="s">
+      <c r="M7" s="164" t="s">
         <v>1816</v>
       </c>
       <c r="N7" s="57"/>
@@ -19523,17 +19523,17 @@
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="285"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="284"/>
       <c r="G9" s="57"/>
       <c r="H9" s="65"/>
       <c r="I9" s="57"/>
-      <c r="J9" s="165" t="s">
+      <c r="J9" s="164" t="s">
         <v>1817</v>
       </c>
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="165" t="s">
+      <c r="M9" s="164" t="s">
         <v>1818</v>
       </c>
       <c r="N9" s="57"/>
@@ -19613,7 +19613,7 @@
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="65"/>
-      <c r="E13" s="151"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
       <c r="H13" s="63" t="s">
@@ -19741,11 +19741,11 @@
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="125"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="150" t="s">
+      <c r="G18" s="147"/>
+      <c r="H18" s="149" t="s">
         <v>1658</v>
       </c>
-      <c r="I18" s="289" t="s">
+      <c r="I18" s="288" t="s">
         <v>2945</v>
       </c>
       <c r="J18" s="57"/>
@@ -19771,9 +19771,9 @@
         <v>584</v>
       </c>
       <c r="F19" s="96"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="289" t="s">
+      <c r="G19" s="146"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="288" t="s">
         <v>2944</v>
       </c>
       <c r="J19" s="57"/>
@@ -19792,7 +19792,7 @@
       <c r="C20" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="229" t="s">
+      <c r="D20" s="228" t="s">
         <v>2364</v>
       </c>
       <c r="E20" s="64" t="s">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="149"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="65" t="s">
         <v>586</v>
       </c>
@@ -19846,7 +19846,7 @@
       <c r="C22" s="65" t="s">
         <v>586</v>
       </c>
-      <c r="D22" s="288" t="s">
+      <c r="D22" s="287" t="s">
         <v>2942</v>
       </c>
       <c r="E22" s="57" t="s">
@@ -21128,7 +21128,7 @@
       <c r="B130" t="s">
         <v>144</v>
       </c>
-      <c r="F130" s="192" t="s">
+      <c r="F130" s="191" t="s">
         <v>519</v>
       </c>
       <c r="G130" s="47" t="s">
@@ -21152,7 +21152,7 @@
       <c r="A131" t="s">
         <v>144</v>
       </c>
-      <c r="F131" s="192"/>
+      <c r="F131" s="191"/>
       <c r="G131" s="50" t="s">
         <v>1699</v>
       </c>
@@ -21172,7 +21172,7 @@
       <c r="A132" t="s">
         <v>2055</v>
       </c>
-      <c r="F132" s="192"/>
+      <c r="F132" s="191"/>
       <c r="G132" s="50" t="s">
         <v>2050</v>
       </c>
@@ -21192,7 +21192,7 @@
       <c r="A133" t="s">
         <v>2063</v>
       </c>
-      <c r="F133" s="192"/>
+      <c r="F133" s="191"/>
       <c r="G133" s="53" t="s">
         <v>1698</v>
       </c>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="G215" s="33"/>
       <c r="H215" s="131"/>
-      <c r="I215" s="167" t="s">
+      <c r="I215" s="166" t="s">
         <v>21</v>
       </c>
       <c r="J215" s="27"/>
@@ -22091,7 +22091,7 @@
       </c>
       <c r="G218" s="33"/>
       <c r="H218" s="131"/>
-      <c r="I218" s="167" t="s">
+      <c r="I218" s="166" t="s">
         <v>1878</v>
       </c>
       <c r="J218" s="27"/>
@@ -22105,7 +22105,7 @@
       </c>
       <c r="G219" s="33"/>
       <c r="H219" s="131"/>
-      <c r="I219" s="167" t="s">
+      <c r="I219" s="166" t="s">
         <v>1880</v>
       </c>
       <c r="J219" s="27"/>
@@ -22220,7 +22220,7 @@
       <c r="M228" s="37"/>
     </row>
     <row r="229" spans="1:13">
-      <c r="A229" s="166" t="s">
+      <c r="A229" s="165" t="s">
         <v>1876</v>
       </c>
       <c r="B229" s="29"/>
@@ -22272,19 +22272,19 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:13">
-      <c r="B9" s="297"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="299"/>
+      <c r="B9" s="296"/>
+      <c r="C9" s="297"/>
+      <c r="D9" s="298"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
         <v>2954</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="300" t="s">
+      <c r="K9" s="296"/>
+      <c r="L9" s="299" t="s">
         <v>2954</v>
       </c>
-      <c r="M9" s="299"/>
+      <c r="M9" s="298"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="33"/>
@@ -22329,7 +22329,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
-      <c r="J13" s="290" t="s">
+      <c r="J13" s="289" t="s">
         <v>2964</v>
       </c>
       <c r="K13" s="33"/>
@@ -22388,26 +22388,26 @@
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="291"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="293"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="292"/>
       <c r="F17" s="33"/>
       <c r="G17" s="27"/>
       <c r="H17" s="34"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
-      <c r="M17" s="293"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="292"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B18" s="294"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="296"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="294"/>
+      <c r="D18" s="295"/>
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
       <c r="H18" s="37"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="295"/>
-      <c r="M18" s="296"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="295"/>
     </row>
     <row r="19" spans="2:13">
       <c r="C19" t="s">
@@ -23378,7 +23378,7 @@
       <c r="M180" s="34"/>
     </row>
     <row r="181" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B181" s="193"/>
+      <c r="B181" s="192"/>
       <c r="C181" s="33" t="s">
         <v>759</v>
       </c>
@@ -25187,10 +25187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD162"/>
+  <dimension ref="A1:XFD164"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25221,13 +25221,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="332" t="s">
+      <c r="H3" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="334"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="333"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -25251,20 +25251,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="334" t="s">
         <v>1590</v>
       </c>
-      <c r="H6" s="336"/>
+      <c r="H6" s="335"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="335" t="s">
+      <c r="J6" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="336"/>
+      <c r="K6" s="335"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="335" t="s">
+      <c r="M6" s="334" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="336"/>
+      <c r="N6" s="335"/>
       <c r="P6" t="s">
         <v>411</v>
       </c>
@@ -25294,20 +25294,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="337" t="s">
+      <c r="G8" s="336" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="338"/>
+      <c r="H8" s="337"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="337" t="s">
+      <c r="J8" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="338"/>
+      <c r="K8" s="337"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="337" t="s">
+      <c r="M8" s="336" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="338"/>
+      <c r="N8" s="337"/>
       <c r="P8" t="s">
         <v>3155</v>
       </c>
@@ -25320,14 +25320,14 @@
         <v>3148</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="254"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
       <c r="P9" t="s">
         <v>177</v>
       </c>
@@ -25337,14 +25337,14 @@
     </row>
     <row r="10" spans="1:18">
       <c r="F10" s="4"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="253"/>
       <c r="P10" t="s">
         <v>3153</v>
       </c>
@@ -25354,43 +25354,43 @@
     </row>
     <row r="11" spans="1:18">
       <c r="F11" s="4"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="253"/>
       <c r="Q11" s="142"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>3149</v>
       </c>
-      <c r="F12" s="328" t="s">
+      <c r="F12" s="327" t="s">
         <v>2662</v>
       </c>
-      <c r="G12" s="329"/>
-      <c r="H12" s="329"/>
-      <c r="I12" s="329"/>
-      <c r="J12" s="329"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329"/>
-      <c r="N12" s="329"/>
+      <c r="G12" s="328"/>
+      <c r="H12" s="328"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
       <c r="Q12" s="142"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="330"/>
-      <c r="G13" s="331"/>
-      <c r="H13" s="331"/>
-      <c r="I13" s="331"/>
-      <c r="J13" s="331"/>
-      <c r="K13" s="331"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="330"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="330"/>
+      <c r="J13" s="330"/>
+      <c r="K13" s="330"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
       <c r="P13" t="s">
         <v>3156</v>
       </c>
@@ -25534,7 +25534,7 @@
       <c r="E21" t="s">
         <v>1593</v>
       </c>
-      <c r="F21" s="317" t="s">
+      <c r="F21" s="315" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="17"/>
@@ -25602,7 +25602,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="319"/>
+      <c r="J25" s="317"/>
       <c r="K25" s="22" t="s">
         <v>3190</v>
       </c>
@@ -25647,16 +25647,16 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="G31" s="327" t="s">
+      <c r="G31" s="326" t="s">
         <v>3157</v>
       </c>
-      <c r="H31" s="327"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="327"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="327"/>
-      <c r="N31" s="327"/>
+      <c r="H31" s="326"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="326"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="326"/>
+      <c r="M31" s="326"/>
+      <c r="N31" s="326"/>
       <c r="P31" t="s">
         <v>3161</v>
       </c>
@@ -25732,7 +25732,7 @@
       </c>
     </row>
     <row r="34" spans="1:17 16384:16384">
-      <c r="A34" s="251" t="s">
+      <c r="A34" s="250" t="s">
         <v>2683</v>
       </c>
       <c r="B34" s="132"/>
@@ -25756,227 +25756,246 @@
       <c r="N34" s="132" t="s">
         <v>2647</v>
       </c>
-      <c r="P34" s="163"/>
+      <c r="P34" s="162"/>
     </row>
     <row r="35" spans="1:17 16384:16384">
-      <c r="G35" s="145">
+      <c r="G35" s="325">
         <v>0</v>
       </c>
-      <c r="H35" s="145">
+      <c r="H35" s="325">
         <v>0</v>
       </c>
-      <c r="I35" s="145">
+      <c r="I35" s="325">
         <v>0</v>
       </c>
-      <c r="J35" s="145">
+      <c r="J35" s="325">
         <v>0</v>
       </c>
-      <c r="K35" s="145">
+      <c r="K35" s="325">
+        <v>0</v>
+      </c>
+      <c r="L35" s="325">
         <v>1</v>
       </c>
-      <c r="L35" s="145">
+      <c r="M35" s="325">
+        <v>1</v>
+      </c>
+      <c r="N35" s="325">
+        <v>1</v>
+      </c>
+      <c r="O35" s="57">
+        <v>7</v>
+      </c>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:17 16384:16384">
+      <c r="G36" s="325">
         <v>0</v>
       </c>
-      <c r="M35" s="145">
+      <c r="H36" s="325">
+        <v>0</v>
+      </c>
+      <c r="I36" s="325">
+        <v>0</v>
+      </c>
+      <c r="J36" s="325">
+        <v>0</v>
+      </c>
+      <c r="K36" s="325">
         <v>1</v>
       </c>
-      <c r="N35" s="314">
+      <c r="L36" s="325">
         <v>0</v>
       </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="P35" s="57"/>
-    </row>
-    <row r="36" spans="1:17 16384:16384">
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="190"/>
+      <c r="M36" s="325">
+        <v>0</v>
+      </c>
+      <c r="N36" s="325">
+        <v>0</v>
+      </c>
+      <c r="O36" s="57">
+        <v>8</v>
+      </c>
+      <c r="P36" s="57"/>
     </row>
     <row r="37" spans="1:17 16384:16384">
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="191"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51">
+        <v>1</v>
+      </c>
+      <c r="L37" s="51">
+        <v>1</v>
+      </c>
+      <c r="M37" s="51">
+        <v>1</v>
+      </c>
+      <c r="N37" s="51">
+        <v>1</v>
+      </c>
+      <c r="O37" s="57" t="s">
+        <v>3265</v>
+      </c>
+      <c r="P37" s="57">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:17 16384:16384">
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="191"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
     </row>
     <row r="39" spans="1:17 16384:16384">
-      <c r="C39">
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="190"/>
+    </row>
+    <row r="40" spans="1:17 16384:16384">
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="190"/>
+    </row>
+    <row r="41" spans="1:17 16384:16384">
+      <c r="C41">
         <v>1024</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E41" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F41" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G41" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H41" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I41" s="39" t="s">
         <v>1594</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="XFD39" s="39" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17 16384:16384">
-      <c r="B40" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17 16384:16384">
-      <c r="B41" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
       <c r="M41" s="39"/>
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" t="s">
-        <v>3164</v>
+      <c r="XFD41" s="39" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="42" spans="1:17 16384:16384">
+      <c r="B42" t="s">
+        <v>1596</v>
+      </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="143"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
+      <c r="P42" t="s">
+        <v>3165</v>
+      </c>
     </row>
     <row r="43" spans="1:17 16384:16384">
+      <c r="B43" t="s">
+        <v>1595</v>
+      </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
       <c r="K43" s="39"/>
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
+      <c r="P43" t="s">
+        <v>3164</v>
+      </c>
     </row>
     <row r="44" spans="1:17 16384:16384">
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:17 16384:16384">
-      <c r="B45" t="s">
-        <v>2649</v>
-      </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="143"/>
       <c r="I45" s="143"/>
       <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="O45" s="39"/>
-      <c r="P45">
-        <v>1024</v>
-      </c>
     </row>
     <row r="46" spans="1:17 16384:16384">
-      <c r="B46" t="s">
-        <v>2650</v>
-      </c>
       <c r="E46" s="39"/>
-      <c r="F46" s="143"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="143"/>
       <c r="H46" s="143"/>
       <c r="I46" s="143"/>
       <c r="J46" s="143"/>
       <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
+      <c r="L46" s="39"/>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
       <c r="O46" s="39"/>
-      <c r="P46">
-        <v>768</v>
-      </c>
     </row>
     <row r="47" spans="1:17 16384:16384">
-      <c r="A47" t="s">
-        <v>1811</v>
-      </c>
       <c r="B47" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="143"/>
@@ -25989,26 +26008,41 @@
       <c r="M47" s="39"/>
       <c r="N47" s="39"/>
       <c r="O47" s="39"/>
+      <c r="P47">
+        <v>1024</v>
+      </c>
     </row>
     <row r="48" spans="1:17 16384:16384">
+      <c r="B48" t="s">
+        <v>2650</v>
+      </c>
       <c r="E48" s="39"/>
       <c r="F48" s="143"/>
       <c r="G48" s="143"/>
       <c r="H48" s="143"/>
-      <c r="I48" s="144"/>
+      <c r="I48" s="143"/>
       <c r="J48" s="143"/>
       <c r="K48" s="143"/>
       <c r="L48" s="143"/>
       <c r="M48" s="39"/>
       <c r="N48" s="39"/>
       <c r="O48" s="39"/>
+      <c r="P48">
+        <v>768</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2651</v>
+      </c>
       <c r="E49" s="39"/>
       <c r="F49" s="143"/>
       <c r="G49" s="143"/>
       <c r="H49" s="143"/>
-      <c r="I49" s="144"/>
+      <c r="I49" s="143"/>
       <c r="J49" s="143"/>
       <c r="K49" s="143"/>
       <c r="L49" s="143"/>
@@ -26057,60 +26091,60 @@
     </row>
     <row r="53" spans="1:15">
       <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="143"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="143"/>
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
     </row>
     <row r="54" spans="1:15">
       <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="143"/>
+      <c r="L54" s="143"/>
       <c r="M54" s="39"/>
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="E55" s="38">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="E57" s="38">
         <v>768</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
@@ -26123,16 +26157,8 @@
       <c r="O57" s="38"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="164" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D58" s="164" t="s">
-        <v>1812</v>
-      </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="164" t="s">
-        <v>1812</v>
-      </c>
+      <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -26157,216 +26183,225 @@
       <c r="O59" s="38"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
+      <c r="A60" s="163" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D60" s="163" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="163" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="G61">
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="L62" s="151"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="151"/>
+      <c r="O62" s="151"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="G63">
         <v>11111111</v>
       </c>
-      <c r="H61">
+      <c r="H63">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I63">
         <v>1101010101</v>
       </c>
-      <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="152"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="L62" s="152"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="152"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
+      <c r="L63" s="151"/>
+      <c r="M63" s="151"/>
+      <c r="N63" s="151"/>
+      <c r="O63" s="151"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="L64" s="152"/>
+      <c r="L64" s="151"/>
       <c r="M64" s="152"/>
       <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-    </row>
-    <row r="90" spans="2:17">
-      <c r="E90" t="s">
+      <c r="O64" s="151"/>
+    </row>
+    <row r="65" spans="12:15">
+      <c r="L65" s="151"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="151"/>
+    </row>
+    <row r="66" spans="12:15">
+      <c r="L66" s="151"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="151"/>
+      <c r="O66" s="151"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="E92" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="91" spans="2:17">
-      <c r="E91" s="51">
+    <row r="93" spans="2:14">
+      <c r="E93" s="51">
         <v>128</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F93" s="57">
         <v>64</v>
       </c>
-      <c r="G91" s="57">
+      <c r="G93" s="57">
         <v>32</v>
       </c>
-      <c r="H91" s="57">
+      <c r="H93" s="57">
         <v>16</v>
       </c>
-      <c r="I91" s="57">
+      <c r="I93" s="57">
         <v>8</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J93" s="57">
         <v>4</v>
       </c>
-      <c r="K91" s="57">
+      <c r="K93" s="57">
         <v>2</v>
       </c>
-      <c r="L91" s="57">
+      <c r="L93" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:17">
-      <c r="E92" s="27" t="s">
+    <row r="94" spans="2:14">
+      <c r="E94" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" t="s">
         <v>34</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G94" t="s">
         <v>33</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H94" t="s">
         <v>32</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I94" t="s">
         <v>31</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J94" t="s">
         <v>30</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K94" t="s">
         <v>29</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L94" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="2:17">
-      <c r="B93" t="s">
+    <row r="95" spans="2:14">
+      <c r="B95" t="s">
         <v>177</v>
       </c>
-      <c r="E93" s="211"/>
-      <c r="F93" s="132">
+      <c r="E95" s="210"/>
+      <c r="F95" s="132">
         <v>0</v>
       </c>
-      <c r="G93" s="132">
+      <c r="G95" s="132">
         <v>0</v>
       </c>
-      <c r="H93" s="132">
+      <c r="H95" s="132">
         <v>0</v>
       </c>
-      <c r="I93" s="132">
+      <c r="I95" s="132">
         <v>1</v>
       </c>
-      <c r="J93" s="132">
+      <c r="J95" s="132">
         <v>0</v>
       </c>
-      <c r="K93" s="132">
+      <c r="K95" s="132">
         <v>1</v>
       </c>
-      <c r="L93" s="132">
+      <c r="L95" s="132">
         <v>0</v>
       </c>
-      <c r="M93" s="212">
+      <c r="M95" s="211">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:17">
-      <c r="E94" s="211"/>
-      <c r="F94" s="132">
+    <row r="96" spans="2:14">
+      <c r="E96" s="210"/>
+      <c r="F96" s="132">
         <v>0</v>
       </c>
-      <c r="G94" s="132">
+      <c r="G96" s="132">
         <v>0</v>
       </c>
-      <c r="H94" s="132">
+      <c r="H96" s="132">
         <v>0</v>
       </c>
-      <c r="I94" s="132">
+      <c r="I96" s="132">
         <v>0</v>
       </c>
-      <c r="J94" s="132">
+      <c r="J96" s="132">
         <v>0</v>
       </c>
-      <c r="K94" s="132">
+      <c r="K96" s="132">
         <v>1</v>
       </c>
-      <c r="L94" s="132">
+      <c r="L96" s="132">
         <v>1</v>
       </c>
-      <c r="M94" s="57">
+      <c r="M96" s="57">
         <v>3</v>
       </c>
-      <c r="N94" s="163"/>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57">
+      <c r="N96" s="162"/>
+    </row>
+    <row r="97" spans="5:17">
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57">
         <v>1</v>
       </c>
-      <c r="J95" s="57">
+      <c r="J97" s="57">
         <v>0</v>
       </c>
-      <c r="K95" s="57">
+      <c r="K97" s="57">
         <v>0</v>
       </c>
-      <c r="L95" s="57">
+      <c r="L97" s="57">
         <v>1</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M97" t="s">
         <v>2348</v>
       </c>
-      <c r="N95" s="57">
+      <c r="N97" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:17">
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="5:17">
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-    </row>
     <row r="98" spans="5:17">
-      <c r="E98" t="s">
-        <v>2226</v>
-      </c>
       <c r="O98">
         <v>1</v>
       </c>
       <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="5:17">
@@ -26374,138 +26409,124 @@
         <v>0</v>
       </c>
       <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:17">
+      <c r="E100" t="s">
+        <v>2226</v>
+      </c>
+      <c r="O100">
         <v>1</v>
       </c>
-      <c r="Q99">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="5:17">
-      <c r="H101" t="s">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:17">
+      <c r="H103" t="s">
         <v>2227</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I103" t="s">
         <v>2228</v>
       </c>
-      <c r="J101">
+      <c r="J103">
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="5:17">
-      <c r="H102" t="s">
+    <row r="104" spans="5:17">
+      <c r="H104" t="s">
         <v>2229</v>
       </c>
     </row>
-    <row r="124" spans="6:10">
-      <c r="F124" t="s">
+    <row r="126" spans="6:10">
+      <c r="F126" t="s">
         <v>1819</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H126" t="s">
         <v>47</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J126" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="127" spans="6:10">
-      <c r="F127" t="s">
+    <row r="129" spans="1:18">
+      <c r="F129" t="s">
         <v>1820</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J129" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="131" spans="1:18">
-      <c r="F131" s="30" t="s">
+    <row r="132" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="133" spans="1:18">
+      <c r="F133" s="30" t="s">
         <v>3175</v>
       </c>
-      <c r="G131" s="31"/>
-      <c r="H131" s="32"/>
-      <c r="J131" s="30"/>
-      <c r="K131" s="31" t="s">
+      <c r="G133" s="31"/>
+      <c r="H133" s="32"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="31" t="s">
         <v>2552</v>
       </c>
-      <c r="L131" s="31"/>
-      <c r="M131" s="32"/>
-      <c r="O131" s="30" t="s">
+      <c r="L133" s="31"/>
+      <c r="M133" s="32"/>
+      <c r="O133" s="30" t="s">
         <v>2552</v>
       </c>
-      <c r="P131" s="31"/>
-      <c r="Q131" s="31"/>
-      <c r="R131" s="32"/>
-    </row>
-    <row r="132" spans="1:18">
-      <c r="F132" s="33" t="s">
+      <c r="P133" s="31"/>
+      <c r="Q133" s="31"/>
+      <c r="R133" s="32"/>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="F134" s="33" t="s">
         <v>2654</v>
       </c>
-      <c r="G132" s="27" t="s">
+      <c r="G134" s="27" t="s">
         <v>3185</v>
       </c>
-      <c r="H132" s="34"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="27" t="s">
-        <v>2215</v>
-      </c>
-      <c r="L132" s="27" t="s">
-        <v>3187</v>
-      </c>
-      <c r="M132" s="34"/>
-      <c r="O132" s="33" t="s">
-        <v>1584</v>
-      </c>
-      <c r="P132" s="27" t="s">
-        <v>3188</v>
-      </c>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="34"/>
-    </row>
-    <row r="133" spans="1:18">
-      <c r="A133" t="s">
-        <v>3191</v>
-      </c>
-      <c r="F133" s="33"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="34"/>
-      <c r="J133" s="33"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="34"/>
-      <c r="O133" s="33"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="34"/>
-    </row>
-    <row r="134" spans="1:18">
-      <c r="A134" t="s">
-        <v>2690</v>
-      </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="27"/>
       <c r="H134" s="34"/>
       <c r="J134" s="33"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
+      <c r="K134" s="27" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L134" s="27" t="s">
+        <v>3187</v>
+      </c>
       <c r="M134" s="34"/>
-      <c r="O134" s="33"/>
-      <c r="P134" s="27"/>
+      <c r="O134" s="33" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P134" s="27" t="s">
+        <v>3188</v>
+      </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="34"/>
     </row>
     <row r="135" spans="1:18">
       <c r="A135" t="s">
-        <v>3192</v>
-      </c>
-      <c r="E135" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>3176</v>
-      </c>
+        <v>3191</v>
+      </c>
+      <c r="F135" s="33"/>
       <c r="G135" s="27"/>
-      <c r="H135" s="34" t="s">
-        <v>1837</v>
-      </c>
+      <c r="H135" s="34"/>
       <c r="J135" s="33"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
@@ -26516,6 +26537,9 @@
       <c r="R135" s="34"/>
     </row>
     <row r="136" spans="1:18">
+      <c r="A136" t="s">
+        <v>2690</v>
+      </c>
       <c r="F136" s="33"/>
       <c r="G136" s="27"/>
       <c r="H136" s="34"/>
@@ -26529,9 +26553,19 @@
       <c r="R136" s="34"/>
     </row>
     <row r="137" spans="1:18">
-      <c r="F137" s="33"/>
+      <c r="A137" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>3176</v>
+      </c>
       <c r="G137" s="27"/>
-      <c r="H137" s="34"/>
+      <c r="H137" s="34" t="s">
+        <v>1837</v>
+      </c>
       <c r="J137" s="33"/>
       <c r="K137" s="27"/>
       <c r="L137" s="27"/>
@@ -26542,9 +26576,7 @@
       <c r="R137" s="34"/>
     </row>
     <row r="138" spans="1:18">
-      <c r="F138" s="80" t="s">
-        <v>47</v>
-      </c>
+      <c r="F138" s="33"/>
       <c r="G138" s="27"/>
       <c r="H138" s="34"/>
       <c r="J138" s="33"/>
@@ -26570,112 +26602,108 @@
       <c r="R139" s="34"/>
     </row>
     <row r="140" spans="1:18">
-      <c r="E140" t="s">
-        <v>3180</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>3178</v>
+      <c r="F140" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G140" s="27"/>
-      <c r="H140" s="34" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J140" s="33" t="s">
-        <v>3180</v>
-      </c>
-      <c r="K140" s="27" t="s">
-        <v>3178</v>
-      </c>
+      <c r="H140" s="34"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="27"/>
       <c r="L140" s="27"/>
-      <c r="M140" s="34" t="s">
-        <v>1604</v>
-      </c>
-      <c r="O140" s="33" t="s">
-        <v>3180</v>
-      </c>
-      <c r="P140" s="27" t="s">
-        <v>3178</v>
-      </c>
+      <c r="M140" s="34"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="27"/>
       <c r="Q140" s="27"/>
-      <c r="R140" s="34" t="s">
-        <v>1604</v>
-      </c>
+      <c r="R140" s="34"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="E141" t="s">
-        <v>3181</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>3179</v>
-      </c>
+      <c r="F141" s="33"/>
       <c r="G141" s="27"/>
       <c r="H141" s="34"/>
-      <c r="J141" s="33" t="s">
-        <v>3181</v>
-      </c>
-      <c r="K141" s="27" t="s">
-        <v>3179</v>
-      </c>
+      <c r="J141" s="33"/>
+      <c r="K141" s="27"/>
       <c r="L141" s="27"/>
       <c r="M141" s="34"/>
-      <c r="O141" s="33" t="s">
-        <v>3181</v>
-      </c>
-      <c r="P141" s="27" t="s">
-        <v>3179</v>
-      </c>
+      <c r="O141" s="33"/>
+      <c r="P141" s="27"/>
       <c r="Q141" s="27"/>
       <c r="R141" s="34"/>
     </row>
     <row r="142" spans="1:18">
       <c r="E142" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F142" s="33" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G142" s="27"/>
+      <c r="H142" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J142" s="33" t="s">
+        <v>3180</v>
+      </c>
+      <c r="K142" s="27" t="s">
+        <v>3178</v>
+      </c>
+      <c r="L142" s="27"/>
+      <c r="M142" s="34" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O142" s="33" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P142" s="27" t="s">
+        <v>3178</v>
+      </c>
+      <c r="Q142" s="27"/>
+      <c r="R142" s="34" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="E143" t="s">
+        <v>3181</v>
+      </c>
+      <c r="F143" s="33" t="s">
         <v>3179</v>
       </c>
-      <c r="F142" s="33"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="34"/>
-      <c r="J142" s="33" t="s">
-        <v>3179</v>
-      </c>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="34"/>
-      <c r="O142" s="33" t="s">
-        <v>3179</v>
-      </c>
-      <c r="P142" s="27"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="34"/>
-    </row>
-    <row r="143" spans="1:18">
-      <c r="F143" s="33"/>
       <c r="G143" s="27"/>
       <c r="H143" s="34"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="27"/>
+      <c r="J143" s="33" t="s">
+        <v>3181</v>
+      </c>
+      <c r="K143" s="27" t="s">
+        <v>3179</v>
+      </c>
       <c r="L143" s="27"/>
       <c r="M143" s="34"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="27"/>
+      <c r="O143" s="33" t="s">
+        <v>3181</v>
+      </c>
+      <c r="P143" s="27" t="s">
+        <v>3179</v>
+      </c>
       <c r="Q143" s="27"/>
       <c r="R143" s="34"/>
     </row>
     <row r="144" spans="1:18">
-      <c r="F144" s="80" t="s">
-        <v>3174</v>
-      </c>
+      <c r="E144" t="s">
+        <v>3179</v>
+      </c>
+      <c r="F144" s="33"/>
       <c r="G144" s="27"/>
       <c r="H144" s="34"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="39" t="s">
-        <v>3194</v>
-      </c>
+      <c r="J144" s="33" t="s">
+        <v>3179</v>
+      </c>
+      <c r="K144" s="27"/>
       <c r="L144" s="27"/>
       <c r="M144" s="34"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="39" t="s">
-        <v>3194</v>
-      </c>
+      <c r="O144" s="33" t="s">
+        <v>3179</v>
+      </c>
+      <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
       <c r="R144" s="34"/>
     </row>
@@ -26693,27 +26721,20 @@
       <c r="R145" s="34"/>
     </row>
     <row r="146" spans="5:18">
-      <c r="E146" t="s">
-        <v>3184</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>3183</v>
+      <c r="F146" s="80" t="s">
+        <v>3174</v>
       </c>
       <c r="G146" s="27"/>
       <c r="H146" s="34"/>
-      <c r="J146" s="33" t="s">
-        <v>3184</v>
-      </c>
-      <c r="K146" s="27" t="s">
-        <v>3183</v>
+      <c r="J146" s="33"/>
+      <c r="K146" s="39" t="s">
+        <v>3194</v>
       </c>
       <c r="L146" s="27"/>
       <c r="M146" s="34"/>
-      <c r="O146" s="33" t="s">
-        <v>3184</v>
-      </c>
-      <c r="P146" s="27" t="s">
-        <v>3183</v>
+      <c r="O146" s="33"/>
+      <c r="P146" s="39" t="s">
+        <v>3194</v>
       </c>
       <c r="Q146" s="27"/>
       <c r="R146" s="34"/>
@@ -26732,89 +26753,128 @@
       <c r="R147" s="34"/>
     </row>
     <row r="148" spans="5:18">
-      <c r="F148" s="33"/>
+      <c r="E148" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>3183</v>
+      </c>
       <c r="G148" s="27"/>
       <c r="H148" s="34"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="27"/>
+      <c r="J148" s="33" t="s">
+        <v>3184</v>
+      </c>
+      <c r="K148" s="27" t="s">
+        <v>3183</v>
+      </c>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="27"/>
+      <c r="O148" s="33" t="s">
+        <v>3184</v>
+      </c>
+      <c r="P148" s="27" t="s">
+        <v>3183</v>
+      </c>
       <c r="Q148" s="27"/>
       <c r="R148" s="34"/>
     </row>
     <row r="149" spans="5:18">
-      <c r="F149" s="33" t="s">
-        <v>3182</v>
-      </c>
+      <c r="F149" s="33"/>
       <c r="G149" s="27"/>
       <c r="H149" s="34"/>
       <c r="J149" s="33"/>
-      <c r="K149" s="27" t="s">
-        <v>3186</v>
-      </c>
+      <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
       <c r="O149" s="33"/>
-      <c r="P149" s="27" t="s">
-        <v>3193</v>
-      </c>
+      <c r="P149" s="27"/>
       <c r="Q149" s="27"/>
       <c r="R149" s="34"/>
     </row>
-    <row r="150" spans="5:18" ht="15.75" thickBot="1">
-      <c r="F150" s="35"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="37"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="36"/>
-      <c r="M150" s="37"/>
-      <c r="O150" s="35"/>
-      <c r="P150" s="36"/>
-      <c r="Q150" s="36"/>
-      <c r="R150" s="37"/>
-    </row>
-    <row r="153" spans="5:18">
-      <c r="I153" t="s">
+    <row r="150" spans="5:18">
+      <c r="F150" s="33"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="34"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="34"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="27"/>
+      <c r="Q150" s="27"/>
+      <c r="R150" s="34"/>
+    </row>
+    <row r="151" spans="5:18">
+      <c r="F151" s="33" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G151" s="27"/>
+      <c r="H151" s="34"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="27" t="s">
+        <v>3186</v>
+      </c>
+      <c r="L151" s="27"/>
+      <c r="M151" s="34"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="27" t="s">
+        <v>3193</v>
+      </c>
+      <c r="Q151" s="27"/>
+      <c r="R151" s="34"/>
+    </row>
+    <row r="152" spans="5:18" ht="15.75" thickBot="1">
+      <c r="F152" s="35"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="37"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="37"/>
+      <c r="O152" s="35"/>
+      <c r="P152" s="36"/>
+      <c r="Q152" s="36"/>
+      <c r="R152" s="37"/>
+    </row>
+    <row r="155" spans="5:18">
+      <c r="I155" t="s">
         <v>2552</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L155" t="s">
         <v>2552</v>
       </c>
     </row>
-    <row r="155" spans="5:18">
-      <c r="F155" t="s">
+    <row r="157" spans="5:18">
+      <c r="F157" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="5:18">
-      <c r="F158" t="s">
+    <row r="160" spans="5:18">
+      <c r="F160" t="s">
         <v>3195</v>
-      </c>
-    </row>
-    <row r="160" spans="5:18">
-      <c r="I160" t="s">
-        <v>37</v>
-      </c>
-      <c r="L160" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="9:12">
-      <c r="I161" t="s">
-        <v>3198</v>
-      </c>
-      <c r="L161" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="162" spans="9:12">
       <c r="I162" t="s">
+        <v>37</v>
+      </c>
+      <c r="L162" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="9:12">
+      <c r="I163" t="s">
+        <v>3198</v>
+      </c>
+      <c r="L163" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="164" spans="9:12">
+      <c r="I164" t="s">
         <v>3196</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L164" t="s">
         <v>3197</v>
       </c>
     </row>
@@ -26906,7 +26966,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="344" t="s">
+      <c r="N3" s="343" t="s">
         <v>2991</v>
       </c>
       <c r="O3" s="51"/>
@@ -26935,7 +26995,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="345"/>
+      <c r="N4" s="344"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -26961,7 +27021,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="345"/>
+      <c r="N5" s="344"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -26983,7 +27043,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="345"/>
+      <c r="N6" s="344"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -27001,7 +27061,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="345"/>
+      <c r="N7" s="344"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -27021,7 +27081,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="345"/>
+      <c r="N8" s="344"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -27039,7 +27099,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="345"/>
+      <c r="N9" s="344"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -27056,7 +27116,7 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="345"/>
+      <c r="N10" s="344"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -27076,7 +27136,7 @@
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="346"/>
+      <c r="N11" s="345"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -28321,7 +28381,7 @@
       <c r="J151" s="51"/>
       <c r="K151" s="51"/>
       <c r="L151" s="51"/>
-      <c r="M151" s="159"/>
+      <c r="M151" s="158"/>
       <c r="N151" s="54"/>
       <c r="O151" s="55"/>
       <c r="P151" s="104"/>
@@ -28441,7 +28501,7 @@
       <c r="J158" s="51"/>
       <c r="K158" s="51"/>
       <c r="L158" s="51"/>
-      <c r="M158" s="159"/>
+      <c r="M158" s="158"/>
       <c r="N158" s="54"/>
       <c r="O158" s="55"/>
       <c r="P158" s="104"/>
@@ -29317,7 +29377,7 @@
       <c r="M226" s="51"/>
       <c r="N226" s="50"/>
       <c r="O226" s="52"/>
-      <c r="P226" s="189" t="s">
+      <c r="P226" s="188" t="s">
         <v>2075</v>
       </c>
       <c r="Q226" s="52"/>
@@ -29485,13 +29545,13 @@
       <c r="Q242" s="49"/>
     </row>
     <row r="243" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A243" s="232" t="s">
+      <c r="A243" s="231" t="s">
         <v>2408</v>
       </c>
-      <c r="B243" s="232" t="s">
+      <c r="B243" s="231" t="s">
         <v>2400</v>
       </c>
-      <c r="C243" s="232"/>
+      <c r="C243" s="231"/>
       <c r="D243" s="59"/>
       <c r="E243" s="59"/>
       <c r="G243" s="50"/>
@@ -29534,7 +29594,7 @@
         <v>412</v>
       </c>
       <c r="P244" s="74"/>
-      <c r="Q244" s="231"/>
+      <c r="Q244" s="230"/>
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="96" t="s">
@@ -29562,7 +29622,7 @@
         <v>2409</v>
       </c>
       <c r="P245" s="74"/>
-      <c r="Q245" s="231"/>
+      <c r="Q245" s="230"/>
     </row>
     <row r="246" spans="1:17" ht="15.75" thickBot="1">
       <c r="A246" s="96"/>
@@ -29588,7 +29648,7 @@
         <v>1234</v>
       </c>
       <c r="P246" s="74"/>
-      <c r="Q246" s="231"/>
+      <c r="Q246" s="230"/>
     </row>
     <row r="247" spans="1:17" ht="15.75" thickBot="1">
       <c r="A247" s="96"/>
@@ -29606,7 +29666,7 @@
       <c r="N247" s="51"/>
       <c r="O247" s="51"/>
       <c r="P247" s="74"/>
-      <c r="Q247" s="231"/>
+      <c r="Q247" s="230"/>
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="96"/>
@@ -29630,7 +29690,7 @@
         <v>524</v>
       </c>
       <c r="P248" s="74"/>
-      <c r="Q248" s="231"/>
+      <c r="Q248" s="230"/>
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="96"/>
@@ -29652,7 +29712,7 @@
         <v>2409</v>
       </c>
       <c r="P249" s="118"/>
-      <c r="Q249" s="231"/>
+      <c r="Q249" s="230"/>
     </row>
     <row r="250" spans="1:17" ht="15.75" thickBot="1">
       <c r="A250" s="96" t="s">
@@ -29674,7 +29734,7 @@
         <v>2345</v>
       </c>
       <c r="P250" s="74"/>
-      <c r="Q250" s="231"/>
+      <c r="Q250" s="230"/>
     </row>
     <row r="251" spans="1:17" ht="15.75" thickBot="1">
       <c r="A251" s="96" t="s">
@@ -29690,7 +29750,7 @@
       <c r="N251" s="51"/>
       <c r="O251" s="51"/>
       <c r="P251" s="74"/>
-      <c r="Q251" s="231"/>
+      <c r="Q251" s="230"/>
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="96" t="s">
@@ -29712,7 +29772,7 @@
         <v>559</v>
       </c>
       <c r="P252" s="74"/>
-      <c r="Q252" s="231"/>
+      <c r="Q252" s="230"/>
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="96" t="s">
@@ -29732,7 +29792,7 @@
         <v>2409</v>
       </c>
       <c r="P253" s="74"/>
-      <c r="Q253" s="231"/>
+      <c r="Q253" s="230"/>
     </row>
     <row r="254" spans="1:17" ht="15.75" thickBot="1">
       <c r="G254" s="50"/>
@@ -29749,7 +29809,7 @@
         <v>6789</v>
       </c>
       <c r="P254" s="74"/>
-      <c r="Q254" s="231"/>
+      <c r="Q254" s="230"/>
     </row>
     <row r="255" spans="1:17">
       <c r="G255" s="50"/>
@@ -29836,13 +29896,13 @@
       <c r="Q263" s="49"/>
     </row>
     <row r="264" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A264" s="232" t="s">
+      <c r="A264" s="231" t="s">
         <v>2408</v>
       </c>
-      <c r="B264" s="232" t="s">
+      <c r="B264" s="231" t="s">
         <v>2410</v>
       </c>
-      <c r="C264" s="232"/>
+      <c r="C264" s="231"/>
       <c r="D264" s="59"/>
       <c r="E264" s="59"/>
       <c r="G264" s="50"/>
@@ -29887,7 +29947,7 @@
         <v>412</v>
       </c>
       <c r="P265" s="104"/>
-      <c r="Q265" s="231"/>
+      <c r="Q265" s="230"/>
     </row>
     <row r="266" spans="1:17">
       <c r="A266" s="96" t="s">
@@ -29911,7 +29971,7 @@
       <c r="N266" s="50"/>
       <c r="O266" s="52"/>
       <c r="P266" s="104"/>
-      <c r="Q266" s="231"/>
+      <c r="Q266" s="230"/>
     </row>
     <row r="267" spans="1:17" ht="15.75" thickBot="1">
       <c r="A267" s="96"/>
@@ -29937,7 +29997,7 @@
         <v>1234</v>
       </c>
       <c r="P267" s="104"/>
-      <c r="Q267" s="231"/>
+      <c r="Q267" s="230"/>
     </row>
     <row r="268" spans="1:17" ht="15.75" thickBot="1">
       <c r="A268" s="96"/>
@@ -29955,7 +30015,7 @@
       <c r="N268" s="51"/>
       <c r="O268" s="51"/>
       <c r="P268" s="104"/>
-      <c r="Q268" s="231"/>
+      <c r="Q268" s="230"/>
     </row>
     <row r="269" spans="1:17">
       <c r="A269" s="96"/>
@@ -29978,10 +30038,10 @@
       <c r="O269" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="P269" s="189" t="s">
+      <c r="P269" s="188" t="s">
         <v>2412</v>
       </c>
-      <c r="Q269" s="231"/>
+      <c r="Q269" s="230"/>
     </row>
     <row r="270" spans="1:17">
       <c r="A270" s="96"/>
@@ -29998,10 +30058,10 @@
       <c r="M270" s="51"/>
       <c r="N270" s="50"/>
       <c r="O270" s="52"/>
-      <c r="P270" s="189" t="s">
+      <c r="P270" s="188" t="s">
         <v>2411</v>
       </c>
-      <c r="Q270" s="231"/>
+      <c r="Q270" s="230"/>
     </row>
     <row r="271" spans="1:17" ht="15.75" thickBot="1">
       <c r="A271" s="96" t="s">
@@ -30023,7 +30083,7 @@
         <v>2345</v>
       </c>
       <c r="P271" s="104"/>
-      <c r="Q271" s="231"/>
+      <c r="Q271" s="230"/>
     </row>
     <row r="272" spans="1:17" ht="15.75" thickBot="1">
       <c r="A272" s="96" t="s">
@@ -30039,7 +30099,7 @@
       <c r="N272" s="51"/>
       <c r="O272" s="51"/>
       <c r="P272" s="104"/>
-      <c r="Q272" s="231"/>
+      <c r="Q272" s="230"/>
     </row>
     <row r="273" spans="1:17">
       <c r="A273" s="96" t="s">
@@ -30061,7 +30121,7 @@
         <v>559</v>
       </c>
       <c r="P273" s="104"/>
-      <c r="Q273" s="231"/>
+      <c r="Q273" s="230"/>
     </row>
     <row r="274" spans="1:17">
       <c r="A274" s="96" t="s">
@@ -30077,7 +30137,7 @@
       <c r="N274" s="50"/>
       <c r="O274" s="52"/>
       <c r="P274" s="104"/>
-      <c r="Q274" s="231"/>
+      <c r="Q274" s="230"/>
     </row>
     <row r="275" spans="1:17" ht="15.75" thickBot="1">
       <c r="A275" s="57" t="s">
@@ -30097,7 +30157,7 @@
         <v>6789</v>
       </c>
       <c r="P275" s="104"/>
-      <c r="Q275" s="231"/>
+      <c r="Q275" s="230"/>
     </row>
     <row r="276" spans="1:17">
       <c r="A276" s="96" t="s">
@@ -30206,7 +30266,7 @@
       <c r="N284" s="49">
         <v>10</v>
       </c>
-      <c r="O284" s="301" t="s">
+      <c r="O284" s="300" t="s">
         <v>2635</v>
       </c>
       <c r="P284" s="51"/>
@@ -30231,7 +30291,7 @@
       <c r="L285" s="51"/>
       <c r="M285" s="53"/>
       <c r="N285" s="55"/>
-      <c r="O285" s="301"/>
+      <c r="O285" s="300"/>
       <c r="P285" s="51"/>
       <c r="Q285" s="52"/>
     </row>
@@ -30254,7 +30314,7 @@
       <c r="L286" s="51"/>
       <c r="M286" s="51"/>
       <c r="N286" s="51"/>
-      <c r="O286" s="301"/>
+      <c r="O286" s="300"/>
       <c r="P286" s="51"/>
       <c r="Q286" s="52"/>
     </row>
@@ -30277,7 +30337,7 @@
       <c r="N287" s="49">
         <v>10</v>
       </c>
-      <c r="O287" s="301"/>
+      <c r="O287" s="300"/>
       <c r="P287" s="51"/>
       <c r="Q287" s="52"/>
     </row>
@@ -30294,7 +30354,7 @@
       <c r="L288" s="51"/>
       <c r="M288" s="53"/>
       <c r="N288" s="55"/>
-      <c r="O288" s="301"/>
+      <c r="O288" s="300"/>
       <c r="P288" s="51"/>
       <c r="Q288" s="52"/>
     </row>
@@ -30313,7 +30373,7 @@
       <c r="L289" s="51"/>
       <c r="M289" s="51"/>
       <c r="N289" s="51"/>
-      <c r="O289" s="301"/>
+      <c r="O289" s="300"/>
       <c r="P289" s="51"/>
       <c r="Q289" s="52"/>
     </row>
@@ -30338,7 +30398,7 @@
       <c r="N290" s="49">
         <v>10</v>
       </c>
-      <c r="O290" s="301"/>
+      <c r="O290" s="300"/>
       <c r="P290" s="51"/>
       <c r="Q290" s="52"/>
     </row>
@@ -30357,7 +30417,7 @@
       <c r="L291" s="51"/>
       <c r="M291" s="53"/>
       <c r="N291" s="55"/>
-      <c r="O291" s="301"/>
+      <c r="O291" s="300"/>
       <c r="P291" s="51"/>
       <c r="Q291" s="52"/>
     </row>
@@ -30374,7 +30434,7 @@
       <c r="L292" s="51"/>
       <c r="M292" s="51"/>
       <c r="N292" s="51"/>
-      <c r="O292" s="250"/>
+      <c r="O292" s="249"/>
       <c r="P292" s="51"/>
       <c r="Q292" s="52"/>
     </row>
@@ -30500,7 +30560,7 @@
       <c r="G6" s="33" t="s">
         <v>3003</v>
       </c>
-      <c r="H6" s="302">
+      <c r="H6" s="301">
         <v>0</v>
       </c>
       <c r="I6" s="27" t="s">
@@ -30516,7 +30576,7 @@
         <v>2999</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="302">
+      <c r="H7" s="301">
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
@@ -30537,7 +30597,7 @@
         <v>3012</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="302">
+      <c r="H8" s="301">
         <v>2</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -30557,7 +30617,7 @@
         <v>3007</v>
       </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="302">
+      <c r="H9" s="301">
         <v>3</v>
       </c>
       <c r="I9" s="27" t="s">
@@ -30573,7 +30633,7 @@
         <v>3008</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="302">
+      <c r="H10" s="301">
         <v>4</v>
       </c>
       <c r="I10" s="27" t="s">
@@ -30692,14 +30752,14 @@
       <c r="E24" s="57">
         <v>0</v>
       </c>
-      <c r="F24" s="302"/>
-      <c r="G24" s="302"/>
+      <c r="F24" s="301"/>
+      <c r="G24" s="301"/>
     </row>
     <row r="25" spans="1:13">
       <c r="E25" s="57">
         <v>1</v>
       </c>
-      <c r="F25" s="302"/>
+      <c r="F25" s="301"/>
       <c r="G25" s="132">
         <v>234</v>
       </c>
@@ -30708,15 +30768,15 @@
       <c r="E26" s="57">
         <v>2</v>
       </c>
-      <c r="F26" s="302"/>
-      <c r="G26" s="302"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
     </row>
     <row r="27" spans="1:13">
       <c r="E27" s="57">
         <v>3</v>
       </c>
-      <c r="F27" s="302"/>
-      <c r="G27" s="302"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
@@ -30728,7 +30788,7 @@
       <c r="E29" s="129">
         <v>0</v>
       </c>
-      <c r="F29" s="302">
+      <c r="F29" s="301">
         <v>10</v>
       </c>
       <c r="H29" t="s">
@@ -30737,7 +30797,7 @@
       <c r="I29" s="129">
         <v>0</v>
       </c>
-      <c r="J29" s="302">
+      <c r="J29" s="301">
         <v>0</v>
       </c>
     </row>
@@ -30748,13 +30808,13 @@
       <c r="E30" s="129">
         <v>1</v>
       </c>
-      <c r="F30" s="302">
+      <c r="F30" s="301">
         <v>20</v>
       </c>
       <c r="I30" s="129">
         <v>1</v>
       </c>
-      <c r="J30" s="302">
+      <c r="J30" s="301">
         <v>0</v>
       </c>
     </row>
@@ -30765,13 +30825,13 @@
       <c r="E31" s="129">
         <v>2</v>
       </c>
-      <c r="F31" s="302">
+      <c r="F31" s="301">
         <v>30</v>
       </c>
       <c r="I31" s="129">
         <v>2</v>
       </c>
-      <c r="J31" s="302">
+      <c r="J31" s="301">
         <v>20</v>
       </c>
     </row>
@@ -30782,13 +30842,13 @@
       <c r="E32" s="129">
         <v>3</v>
       </c>
-      <c r="F32" s="302">
+      <c r="F32" s="301">
         <v>40</v>
       </c>
       <c r="I32" s="129">
         <v>3</v>
       </c>
-      <c r="J32" s="302">
+      <c r="J32" s="301">
         <v>30</v>
       </c>
     </row>
@@ -30799,13 +30859,13 @@
       <c r="E33" s="129">
         <v>4</v>
       </c>
-      <c r="F33" s="302">
+      <c r="F33" s="301">
         <v>50</v>
       </c>
       <c r="I33" s="129">
         <v>4</v>
       </c>
-      <c r="J33" s="302">
+      <c r="J33" s="301">
         <v>40</v>
       </c>
     </row>
@@ -31895,7 +31955,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" s="160">
+      <c r="H160" s="159">
         <v>345</v>
       </c>
       <c r="K160" t="s">
@@ -31906,13 +31966,13 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" s="160">
+      <c r="F161" s="159">
         <v>345</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
-      <c r="H161" s="160">
+      <c r="H161" s="159">
         <v>0</v>
       </c>
       <c r="K161" t="s">
@@ -31923,13 +31983,13 @@
       <c r="E162">
         <v>2</v>
       </c>
-      <c r="F162" s="160">
+      <c r="F162" s="159">
         <v>0</v>
       </c>
       <c r="G162">
         <v>2</v>
       </c>
-      <c r="H162" s="160">
+      <c r="H162" s="159">
         <v>0</v>
       </c>
     </row>
@@ -31937,7 +31997,7 @@
       <c r="E163">
         <v>3</v>
       </c>
-      <c r="F163" s="160">
+      <c r="F163" s="159">
         <v>0</v>
       </c>
       <c r="G163">
@@ -32071,7 +32131,7 @@
       <c r="E176" s="50" t="s">
         <v>1908</v>
       </c>
-      <c r="F176" s="168" t="s">
+      <c r="F176" s="167" t="s">
         <v>1748</v>
       </c>
       <c r="G176" s="51" t="s">
@@ -32092,7 +32152,7 @@
     </row>
     <row r="177" spans="1:15" ht="15.75" thickBot="1">
       <c r="E177" s="50"/>
-      <c r="F177" s="168" t="s">
+      <c r="F177" s="167" t="s">
         <v>1749</v>
       </c>
       <c r="G177" s="51" t="s">
@@ -32112,7 +32172,7 @@
         <v>1513</v>
       </c>
       <c r="E178" s="50"/>
-      <c r="F178" s="168" t="s">
+      <c r="F178" s="167" t="s">
         <v>1750</v>
       </c>
       <c r="G178" s="51" t="s">
@@ -32178,11 +32238,11 @@
         <v>567</v>
       </c>
       <c r="E181" s="50"/>
-      <c r="F181" s="169"/>
-      <c r="G181" s="169" t="s">
+      <c r="F181" s="168"/>
+      <c r="G181" s="168" t="s">
         <v>1062</v>
       </c>
-      <c r="H181" s="169"/>
+      <c r="H181" s="168"/>
       <c r="I181" s="51"/>
       <c r="J181" s="51"/>
       <c r="K181" s="51"/>
@@ -32193,9 +32253,9 @@
     </row>
     <row r="182" spans="1:15">
       <c r="E182" s="50"/>
-      <c r="F182" s="169"/>
-      <c r="G182" s="169"/>
-      <c r="H182" s="169" t="s">
+      <c r="F182" s="168"/>
+      <c r="G182" s="168"/>
+      <c r="H182" s="168" t="s">
         <v>1911</v>
       </c>
       <c r="I182" s="51"/>
@@ -32217,9 +32277,9 @@
         <v>1913</v>
       </c>
       <c r="E183" s="50"/>
-      <c r="F183" s="168"/>
-      <c r="G183" s="168"/>
-      <c r="H183" s="168" t="s">
+      <c r="F183" s="167"/>
+      <c r="G183" s="167"/>
+      <c r="H183" s="167" t="s">
         <v>1912</v>
       </c>
       <c r="I183" s="51"/>
@@ -32238,7 +32298,7 @@
       <c r="A184" t="s">
         <v>1914</v>
       </c>
-      <c r="C184" s="170"/>
+      <c r="C184" s="169"/>
       <c r="E184" s="50"/>
       <c r="F184" t="s">
         <v>1910</v>
@@ -32277,13 +32337,13 @@
       <c r="J186" s="51">
         <v>0</v>
       </c>
-      <c r="K186" s="171">
+      <c r="K186" s="170">
         <v>1</v>
       </c>
       <c r="L186" s="51">
         <v>0</v>
       </c>
-      <c r="M186" s="168">
+      <c r="M186" s="167">
         <v>0</v>
       </c>
       <c r="N186" s="51"/>
@@ -32300,13 +32360,13 @@
       <c r="J187" s="51">
         <v>1</v>
       </c>
-      <c r="K187" s="168">
+      <c r="K187" s="167">
         <v>123</v>
       </c>
       <c r="L187" s="51">
         <v>1</v>
       </c>
-      <c r="M187" s="171">
+      <c r="M187" s="170">
         <v>1</v>
       </c>
       <c r="N187" s="51"/>
@@ -32323,20 +32383,20 @@
       <c r="J188" s="51">
         <v>2</v>
       </c>
-      <c r="K188" s="168">
+      <c r="K188" s="167">
         <v>345</v>
       </c>
       <c r="L188" s="51">
         <v>2</v>
       </c>
-      <c r="M188" s="168">
+      <c r="M188" s="167">
         <v>123</v>
       </c>
       <c r="N188" s="51"/>
       <c r="O188" s="52"/>
     </row>
     <row r="189" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E189" s="159" t="s">
+      <c r="E189" s="158" t="s">
         <v>1764</v>
       </c>
       <c r="F189" s="54"/>
@@ -32346,20 +32406,20 @@
       <c r="J189" s="54">
         <v>3</v>
       </c>
-      <c r="K189" s="168">
+      <c r="K189" s="167">
         <v>123</v>
       </c>
       <c r="L189" s="54">
         <v>3</v>
       </c>
-      <c r="M189" s="168">
+      <c r="M189" s="167">
         <v>345</v>
       </c>
       <c r="N189" s="54"/>
       <c r="O189" s="55"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="M190" s="168"/>
+      <c r="M190" s="167"/>
     </row>
     <row r="192" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="193" spans="1:15" ht="15.75" thickBot="1">
@@ -32810,10 +32870,10 @@
       </c>
     </row>
     <row r="225" spans="3:12">
-      <c r="H225" s="194" t="s">
+      <c r="H225" s="193" t="s">
         <v>2097</v>
       </c>
-      <c r="I225" s="194"/>
+      <c r="I225" s="193"/>
     </row>
     <row r="226" spans="3:12">
       <c r="H226" t="s">
@@ -32949,7 +33009,7 @@
       <c r="E242" s="33" t="s">
         <v>1747</v>
       </c>
-      <c r="F242" s="230">
+      <c r="F242" s="229">
         <v>0</v>
       </c>
       <c r="G242" s="27" t="s">
@@ -32970,7 +33030,7 @@
         <v>460</v>
       </c>
       <c r="E243" s="33"/>
-      <c r="F243" s="230">
+      <c r="F243" s="229">
         <v>1</v>
       </c>
       <c r="G243" s="27" t="s">
@@ -32991,7 +33051,7 @@
         <v>1532</v>
       </c>
       <c r="E244" s="33"/>
-      <c r="F244" s="230">
+      <c r="F244" s="229">
         <v>2</v>
       </c>
       <c r="G244" s="27" t="s">
@@ -33326,13 +33386,13 @@
       <c r="F277" s="57">
         <v>0</v>
       </c>
-      <c r="G277" s="230">
+      <c r="G277" s="229">
         <v>12</v>
       </c>
       <c r="I277" s="57">
         <v>0</v>
       </c>
-      <c r="J277" s="230">
+      <c r="J277" s="229">
         <v>0</v>
       </c>
     </row>
@@ -33349,7 +33409,7 @@
       <c r="I278" s="57">
         <v>1</v>
       </c>
-      <c r="J278" s="230">
+      <c r="J278" s="229">
         <v>0</v>
       </c>
     </row>
@@ -33357,7 +33417,7 @@
       <c r="F279" s="57">
         <v>2</v>
       </c>
-      <c r="G279" s="230">
+      <c r="G279" s="229">
         <v>78</v>
       </c>
       <c r="I279" s="57">
@@ -33371,13 +33431,13 @@
       <c r="F280" s="57">
         <v>3</v>
       </c>
-      <c r="G280" s="230">
+      <c r="G280" s="229">
         <v>99</v>
       </c>
       <c r="I280" s="57">
         <v>3</v>
       </c>
-      <c r="J280" s="230">
+      <c r="J280" s="229">
         <v>78</v>
       </c>
     </row>
@@ -33385,13 +33445,13 @@
       <c r="F281" s="57">
         <v>4</v>
       </c>
-      <c r="G281" s="230">
+      <c r="G281" s="229">
         <v>125</v>
       </c>
       <c r="I281" s="57">
         <v>4</v>
       </c>
-      <c r="J281" s="230">
+      <c r="J281" s="229">
         <v>99</v>
       </c>
     </row>
@@ -33451,7 +33511,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="304" t="s">
+      <c r="K3" s="303" t="s">
         <v>1132</v>
       </c>
       <c r="L3" s="31"/>
@@ -33490,7 +33550,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="246" t="s">
+      <c r="L5" s="245" t="s">
         <v>412</v>
       </c>
       <c r="M5" s="34"/>
@@ -33545,7 +33605,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="246" t="s">
+      <c r="L8" s="245" t="s">
         <v>524</v>
       </c>
       <c r="M8" s="34"/>
@@ -33701,7 +33761,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="304" t="s">
+      <c r="H22" s="303" t="s">
         <v>3047</v>
       </c>
       <c r="I22" s="31"/>
@@ -33721,10 +33781,10 @@
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="305" t="s">
+      <c r="H23" s="304" t="s">
         <v>1909</v>
       </c>
-      <c r="I23" s="248" t="s">
+      <c r="I23" s="247" t="s">
         <v>3042</v>
       </c>
       <c r="J23" s="34"/>
@@ -33743,10 +33803,10 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="305" t="s">
+      <c r="H24" s="304" t="s">
         <v>2508</v>
       </c>
-      <c r="I24" s="248" t="s">
+      <c r="I24" s="247" t="s">
         <v>2590</v>
       </c>
       <c r="J24" s="34"/>
@@ -33761,10 +33821,10 @@
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="305" t="s">
+      <c r="H25" s="304" t="s">
         <v>2509</v>
       </c>
-      <c r="I25" s="248" t="s">
+      <c r="I25" s="247" t="s">
         <v>2161</v>
       </c>
       <c r="J25" s="34"/>
@@ -33776,14 +33836,14 @@
       <c r="E26" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="F26" s="308" t="s">
+      <c r="F26" s="307" t="s">
         <v>3050</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="305" t="s">
+      <c r="H26" s="304" t="s">
         <v>2524</v>
       </c>
-      <c r="I26" s="247" t="s">
+      <c r="I26" s="246" t="s">
         <v>2160</v>
       </c>
       <c r="J26" s="34"/>
@@ -33795,10 +33855,10 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="305" t="s">
+      <c r="H27" s="304" t="s">
         <v>2634</v>
       </c>
-      <c r="I27" s="248" t="s">
+      <c r="I27" s="247" t="s">
         <v>3048</v>
       </c>
       <c r="J27" s="34"/>
@@ -33813,10 +33873,10 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="305" t="s">
+      <c r="H28" s="304" t="s">
         <v>3043</v>
       </c>
-      <c r="I28" s="247" t="s">
+      <c r="I28" s="246" t="s">
         <v>3049</v>
       </c>
       <c r="J28" s="34"/>
@@ -33830,10 +33890,10 @@
       <c r="D29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="305" t="s">
+      <c r="H29" s="304" t="s">
         <v>3044</v>
       </c>
-      <c r="I29" s="248" t="s">
+      <c r="I29" s="247" t="s">
         <v>3050</v>
       </c>
       <c r="J29" s="34"/>
@@ -33848,10 +33908,10 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="305" t="s">
+      <c r="H30" s="304" t="s">
         <v>3045</v>
       </c>
-      <c r="I30" s="248"/>
+      <c r="I30" s="247"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
@@ -33862,10 +33922,10 @@
       <c r="C31" s="50"/>
       <c r="F31" s="38"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="305" t="s">
+      <c r="H31" s="304" t="s">
         <v>3046</v>
       </c>
-      <c r="I31" s="247"/>
+      <c r="I31" s="246"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
     </row>
@@ -33875,8 +33935,8 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="306"/>
-      <c r="I32" s="307"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="306"/>
       <c r="J32" s="37"/>
       <c r="K32" s="34"/>
     </row>
@@ -35297,7 +35357,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="I240" s="177">
+      <c r="I240" s="176">
         <v>4</v>
       </c>
     </row>
@@ -37219,13 +37279,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="L19" s="106"/>
-      <c r="M19" s="162"/>
+      <c r="M19" s="161"/>
       <c r="N19" s="106"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
     </row>
     <row r="21" spans="1:23">
       <c r="D21" s="106"/>
@@ -37235,9 +37295,9 @@
       <c r="H21" s="106"/>
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
-      <c r="K21" s="153"/>
+      <c r="K21" s="152"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="153"/>
+      <c r="M21" s="152"/>
       <c r="N21" s="29"/>
       <c r="P21" s="106"/>
       <c r="Q21" s="106"/>
@@ -37248,9 +37308,9 @@
       <c r="E22" s="106"/>
       <c r="F22" s="106"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="153"/>
+      <c r="K22" s="152"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="153"/>
+      <c r="M22" s="152"/>
       <c r="N22" s="29"/>
       <c r="P22" s="29"/>
       <c r="R22" s="106"/>
@@ -37261,7 +37321,7 @@
       <c r="D23" s="106"/>
       <c r="F23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="153"/>
+      <c r="K23" s="152"/>
       <c r="L23" s="29"/>
       <c r="M23" s="59" t="s">
         <v>1810</v>
@@ -37278,7 +37338,7 @@
       <c r="D24" s="29"/>
       <c r="F24" s="29"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="153"/>
+      <c r="K24" s="152"/>
       <c r="P24" s="29"/>
       <c r="R24" s="29"/>
       <c r="T24" s="29"/>
@@ -38594,55 +38654,55 @@
       <c r="M251" s="37"/>
     </row>
     <row r="253" spans="2:13">
-      <c r="E253" s="195"/>
-      <c r="F253" s="195"/>
-      <c r="G253" s="195"/>
-      <c r="H253" s="195"/>
+      <c r="E253" s="194"/>
+      <c r="F253" s="194"/>
+      <c r="G253" s="194"/>
+      <c r="H253" s="194"/>
     </row>
     <row r="254" spans="2:13">
-      <c r="H254" s="195"/>
+      <c r="H254" s="194"/>
     </row>
     <row r="255" spans="2:13">
-      <c r="H255" s="195"/>
+      <c r="H255" s="194"/>
     </row>
     <row r="256" spans="2:13">
-      <c r="H256" s="195"/>
+      <c r="H256" s="194"/>
     </row>
     <row r="257" spans="2:13">
-      <c r="D257" s="195"/>
-      <c r="E257" s="195"/>
-      <c r="F257" s="195"/>
-      <c r="H257" s="195"/>
+      <c r="D257" s="194"/>
+      <c r="E257" s="194"/>
+      <c r="F257" s="194"/>
+      <c r="H257" s="194"/>
     </row>
     <row r="258" spans="2:13">
-      <c r="D258" s="195"/>
+      <c r="D258" s="194"/>
       <c r="E258" s="29"/>
-      <c r="F258" s="195"/>
-      <c r="G258" s="195"/>
-      <c r="H258" s="195"/>
-      <c r="I258" s="195"/>
-      <c r="J258" s="195"/>
-      <c r="K258" s="195"/>
-      <c r="L258" s="195"/>
+      <c r="F258" s="194"/>
+      <c r="G258" s="194"/>
+      <c r="H258" s="194"/>
+      <c r="I258" s="194"/>
+      <c r="J258" s="194"/>
+      <c r="K258" s="194"/>
+      <c r="L258" s="194"/>
       <c r="M258" s="29"/>
     </row>
     <row r="259" spans="2:13">
-      <c r="D259" s="195"/>
+      <c r="D259" s="194"/>
       <c r="E259" s="29"/>
-      <c r="F259" s="195"/>
-      <c r="G259" s="195"/>
-      <c r="H259" s="195"/>
-      <c r="I259" s="195"/>
-      <c r="J259" s="195"/>
-      <c r="K259" s="195"/>
-      <c r="L259" s="195"/>
+      <c r="F259" s="194"/>
+      <c r="G259" s="194"/>
+      <c r="H259" s="194"/>
+      <c r="I259" s="194"/>
+      <c r="J259" s="194"/>
+      <c r="K259" s="194"/>
+      <c r="L259" s="194"/>
       <c r="M259" s="29"/>
     </row>
     <row r="260" spans="2:13">
       <c r="B260" t="s">
         <v>2131</v>
       </c>
-      <c r="D260" s="195"/>
+      <c r="D260" s="194"/>
       <c r="E260" s="29"/>
       <c r="F260" s="29"/>
       <c r="G260" s="29"/>
@@ -38656,20 +38716,20 @@
       <c r="M260" s="29"/>
     </row>
     <row r="261" spans="2:13">
-      <c r="D261" s="195"/>
+      <c r="D261" s="194"/>
     </row>
     <row r="262" spans="2:13">
-      <c r="D262" s="195"/>
+      <c r="D262" s="194"/>
       <c r="F262" s="29"/>
       <c r="L262" s="29"/>
     </row>
     <row r="263" spans="2:13">
-      <c r="D263" s="195"/>
+      <c r="D263" s="194"/>
       <c r="F263" s="29"/>
       <c r="L263" s="29"/>
     </row>
     <row r="264" spans="2:13">
-      <c r="D264" s="195"/>
+      <c r="D264" s="194"/>
       <c r="F264" s="29"/>
       <c r="G264" s="29"/>
       <c r="H264" s="29"/>
@@ -38681,24 +38741,24 @@
       <c r="L264" s="29"/>
     </row>
     <row r="265" spans="2:13">
-      <c r="D265" s="195"/>
+      <c r="D265" s="194"/>
     </row>
     <row r="266" spans="2:13">
-      <c r="D266" s="195"/>
+      <c r="D266" s="194"/>
       <c r="G266" s="29"/>
       <c r="H266" s="106"/>
       <c r="I266" s="106"/>
       <c r="K266" s="29"/>
     </row>
     <row r="267" spans="2:13">
-      <c r="D267" s="195"/>
+      <c r="D267" s="194"/>
       <c r="G267" s="29"/>
       <c r="H267" s="106"/>
       <c r="I267" s="106"/>
       <c r="K267" s="29"/>
     </row>
     <row r="268" spans="2:13">
-      <c r="D268" s="195"/>
+      <c r="D268" s="194"/>
       <c r="G268" s="29"/>
       <c r="H268" s="29"/>
       <c r="I268" s="29" t="s">
@@ -38708,20 +38768,20 @@
       <c r="K268" s="29"/>
     </row>
     <row r="269" spans="2:13">
-      <c r="D269" s="195"/>
+      <c r="D269" s="194"/>
     </row>
     <row r="270" spans="2:13">
-      <c r="D270" s="195"/>
+      <c r="D270" s="194"/>
       <c r="H270" s="29"/>
       <c r="J270" s="29"/>
     </row>
     <row r="271" spans="2:13">
-      <c r="D271" s="195"/>
+      <c r="D271" s="194"/>
       <c r="H271" s="29"/>
       <c r="J271" s="29"/>
     </row>
     <row r="272" spans="2:13">
-      <c r="D272" s="195"/>
+      <c r="D272" s="194"/>
       <c r="H272" s="29"/>
       <c r="I272" s="29" t="s">
         <v>2132</v>
@@ -38729,39 +38789,39 @@
       <c r="J272" s="29"/>
     </row>
     <row r="273" spans="4:11">
-      <c r="D273" s="195"/>
+      <c r="D273" s="194"/>
     </row>
     <row r="277" spans="4:11">
-      <c r="E277" s="195"/>
-      <c r="F277" s="195"/>
-      <c r="G277" s="195"/>
-      <c r="H277" s="195"/>
+      <c r="E277" s="194"/>
+      <c r="F277" s="194"/>
+      <c r="G277" s="194"/>
+      <c r="H277" s="194"/>
     </row>
     <row r="278" spans="4:11">
-      <c r="H278" s="195"/>
+      <c r="H278" s="194"/>
     </row>
     <row r="279" spans="4:11">
-      <c r="H279" s="195"/>
+      <c r="H279" s="194"/>
     </row>
     <row r="280" spans="4:11">
-      <c r="F280" s="195"/>
-      <c r="G280" s="195"/>
-      <c r="H280" s="195"/>
+      <c r="F280" s="194"/>
+      <c r="G280" s="194"/>
+      <c r="H280" s="194"/>
     </row>
     <row r="281" spans="4:11">
-      <c r="F281" s="195"/>
+      <c r="F281" s="194"/>
       <c r="G281" s="29"/>
-      <c r="H281" s="195"/>
+      <c r="H281" s="194"/>
       <c r="I281" s="29"/>
     </row>
     <row r="282" spans="4:11">
-      <c r="F282" s="195"/>
+      <c r="F282" s="194"/>
       <c r="G282" s="29"/>
-      <c r="H282" s="195"/>
+      <c r="H282" s="194"/>
       <c r="I282" s="29"/>
     </row>
     <row r="283" spans="4:11">
-      <c r="F283" s="195"/>
+      <c r="F283" s="194"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29" t="s">
         <v>2132</v>
@@ -38769,23 +38829,23 @@
       <c r="I283" s="29"/>
     </row>
     <row r="284" spans="4:11">
-      <c r="F284" s="195"/>
+      <c r="F284" s="194"/>
     </row>
     <row r="285" spans="4:11">
       <c r="F285" s="29"/>
-      <c r="G285" s="195"/>
-      <c r="H285" s="195"/>
-      <c r="I285" s="195"/>
+      <c r="G285" s="194"/>
+      <c r="H285" s="194"/>
+      <c r="I285" s="194"/>
       <c r="J285" s="29"/>
-      <c r="K285" s="195"/>
+      <c r="K285" s="194"/>
     </row>
     <row r="286" spans="4:11">
       <c r="F286" s="29"/>
-      <c r="G286" s="195"/>
-      <c r="H286" s="195"/>
-      <c r="I286" s="195"/>
+      <c r="G286" s="194"/>
+      <c r="H286" s="194"/>
+      <c r="I286" s="194"/>
       <c r="J286" s="29"/>
-      <c r="K286" s="195"/>
+      <c r="K286" s="194"/>
     </row>
     <row r="287" spans="4:11">
       <c r="F287" s="29"/>
@@ -38795,27 +38855,27 @@
       </c>
       <c r="I287" s="29"/>
       <c r="J287" s="29"/>
-      <c r="K287" s="195"/>
+      <c r="K287" s="194"/>
     </row>
     <row r="288" spans="4:11">
-      <c r="K288" s="195"/>
+      <c r="K288" s="194"/>
     </row>
     <row r="289" spans="4:12">
       <c r="E289" s="29"/>
-      <c r="F289" s="195"/>
-      <c r="G289" s="195"/>
-      <c r="H289" s="195"/>
-      <c r="I289" s="195"/>
-      <c r="J289" s="195"/>
+      <c r="F289" s="194"/>
+      <c r="G289" s="194"/>
+      <c r="H289" s="194"/>
+      <c r="I289" s="194"/>
+      <c r="J289" s="194"/>
       <c r="K289" s="29"/>
     </row>
     <row r="290" spans="4:12">
       <c r="E290" s="29"/>
-      <c r="F290" s="195"/>
-      <c r="G290" s="195"/>
-      <c r="H290" s="195"/>
-      <c r="I290" s="195"/>
-      <c r="J290" s="195"/>
+      <c r="F290" s="194"/>
+      <c r="G290" s="194"/>
+      <c r="H290" s="194"/>
+      <c r="I290" s="194"/>
+      <c r="J290" s="194"/>
       <c r="K290" s="29"/>
     </row>
     <row r="291" spans="4:12">
@@ -39406,24 +39466,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="347" t="s">
+      <c r="B22" s="346" t="s">
         <v>1251</v>
       </c>
-      <c r="C22" s="347"/>
+      <c r="C22" s="346"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="347" t="s">
+      <c r="F22" s="346" t="s">
         <v>1355</v>
       </c>
-      <c r="G22" s="347"/>
-      <c r="H22" s="347"/>
+      <c r="G22" s="346"/>
+      <c r="H22" s="346"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="347" t="s">
+      <c r="K22" s="346" t="s">
         <v>1253</v>
       </c>
-      <c r="L22" s="347"/>
-      <c r="M22" s="347"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -39502,7 +39562,7 @@
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
       <c r="K26" s="84"/>
-      <c r="L26" s="176" t="s">
+      <c r="L26" s="175" t="s">
         <v>3074</v>
       </c>
       <c r="M26" s="75"/>
@@ -39524,7 +39584,7 @@
       <c r="I27" s="106"/>
       <c r="J27" s="106"/>
       <c r="K27" s="84"/>
-      <c r="L27" s="176" t="s">
+      <c r="L27" s="175" t="s">
         <v>3075</v>
       </c>
       <c r="M27" s="75"/>
@@ -39532,7 +39592,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="309" t="s">
         <v>3075</v>
       </c>
       <c r="C28" s="75"/>
@@ -39546,7 +39606,7 @@
       <c r="I28" s="106"/>
       <c r="J28" s="106"/>
       <c r="K28" s="84"/>
-      <c r="L28" s="176" t="s">
+      <c r="L28" s="175" t="s">
         <v>3076</v>
       </c>
       <c r="M28" s="75"/>
@@ -39554,7 +39614,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="309" t="s">
         <v>3076</v>
       </c>
       <c r="C29" s="75"/>
@@ -39568,7 +39628,7 @@
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
       <c r="K29" s="84"/>
-      <c r="L29" s="247" t="s">
+      <c r="L29" s="246" t="s">
         <v>2553</v>
       </c>
       <c r="M29" s="75"/>
@@ -39590,7 +39650,7 @@
       <c r="I30" s="106"/>
       <c r="J30" s="106"/>
       <c r="K30" s="84"/>
-      <c r="L30" s="247" t="s">
+      <c r="L30" s="246" t="s">
         <v>3074</v>
       </c>
       <c r="M30" s="75"/>
@@ -39610,7 +39670,7 @@
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
       <c r="K31" s="84"/>
-      <c r="L31" s="247" t="s">
+      <c r="L31" s="246" t="s">
         <v>2554</v>
       </c>
       <c r="M31" s="75"/>
@@ -39628,7 +39688,7 @@
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
       <c r="K32" s="84"/>
-      <c r="L32" s="247" t="s">
+      <c r="L32" s="246" t="s">
         <v>3074</v>
       </c>
       <c r="M32" s="75"/>
@@ -39646,7 +39706,7 @@
       <c r="I33" s="106"/>
       <c r="J33" s="106"/>
       <c r="K33" s="84"/>
-      <c r="L33" s="176" t="s">
+      <c r="L33" s="175" t="s">
         <v>2193</v>
       </c>
       <c r="M33" s="75"/>
@@ -39664,7 +39724,7 @@
       <c r="I34" s="106"/>
       <c r="J34" s="106"/>
       <c r="K34" s="84"/>
-      <c r="L34" s="176" t="s">
+      <c r="L34" s="175" t="s">
         <v>3075</v>
       </c>
       <c r="M34" s="75"/>
@@ -39682,7 +39742,7 @@
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
       <c r="K35" s="84"/>
-      <c r="L35" s="176" t="s">
+      <c r="L35" s="175" t="s">
         <v>3076</v>
       </c>
       <c r="M35" s="75"/>
@@ -39700,7 +39760,7 @@
       <c r="I36" s="106"/>
       <c r="J36" s="106"/>
       <c r="K36" s="84"/>
-      <c r="L36" s="247"/>
+      <c r="L36" s="246"/>
       <c r="M36" s="75"/>
       <c r="N36" s="106"/>
     </row>
@@ -39711,7 +39771,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="34"/>
       <c r="K37" s="33"/>
-      <c r="L37" s="248"/>
+      <c r="L37" s="247"/>
       <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:16">
@@ -39721,7 +39781,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="34"/>
       <c r="K38" s="33"/>
-      <c r="L38" s="248"/>
+      <c r="L38" s="247"/>
       <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1">
@@ -39731,7 +39791,7 @@
       <c r="G39" s="36"/>
       <c r="H39" s="37"/>
       <c r="K39" s="35"/>
-      <c r="L39" s="307"/>
+      <c r="L39" s="306"/>
       <c r="M39" s="37"/>
       <c r="P39" t="s">
         <v>1256</v>
@@ -39744,7 +39804,7 @@
       <c r="H40" t="s">
         <v>3078</v>
       </c>
-      <c r="L40" s="245"/>
+      <c r="L40" s="244"/>
       <c r="P40" t="s">
         <v>1257</v>
       </c>
@@ -39768,7 +39828,7 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="I52" s="197" t="s">
+      <c r="I52" s="196" t="s">
         <v>2175</v>
       </c>
       <c r="J52" s="29"/>
@@ -39802,24 +39862,24 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="I55" s="197" t="s">
+      <c r="I55" s="196" t="s">
         <v>2177</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="I56" s="197" t="s">
+      <c r="I56" s="196" t="s">
         <v>2178</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="I57" s="198" t="s">
+      <c r="I57" s="197" t="s">
         <v>2179</v>
       </c>
-      <c r="J57" s="198"/>
+      <c r="J57" s="197"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="2:13">
@@ -39838,24 +39898,24 @@
       <c r="K59" s="29"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="I60" s="197" t="s">
+      <c r="I60" s="196" t="s">
         <v>2180</v>
       </c>
-      <c r="J60" s="197"/>
+      <c r="J60" s="196"/>
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="I61" s="197" t="s">
+      <c r="I61" s="196" t="s">
         <v>2178</v>
       </c>
-      <c r="J61" s="197"/>
+      <c r="J61" s="196"/>
       <c r="K61" s="29"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="I62" s="197" t="s">
+      <c r="I62" s="196" t="s">
         <v>2181</v>
       </c>
-      <c r="J62" s="197"/>
+      <c r="J62" s="196"/>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="2:13">
@@ -39867,11 +39927,11 @@
       <c r="G64" t="s">
         <v>1248</v>
       </c>
-      <c r="I64" s="197" t="s">
+      <c r="I64" s="196" t="s">
         <v>2182</v>
       </c>
-      <c r="J64" s="197"/>
-      <c r="K64" s="197"/>
+      <c r="J64" s="196"/>
+      <c r="K64" s="196"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="108"/>
@@ -39951,7 +40011,7 @@
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="E71" s="199" t="s">
+      <c r="E71" s="198" t="s">
         <v>1325</v>
       </c>
       <c r="F71" s="104"/>
@@ -39961,7 +40021,7 @@
       <c r="J71" s="104"/>
       <c r="K71" s="39"/>
       <c r="L71" s="39"/>
-      <c r="M71" s="199" t="s">
+      <c r="M71" s="198" t="s">
         <v>1327</v>
       </c>
       <c r="N71" s="27"/>
@@ -40164,7 +40224,7 @@
       <c r="B84" s="113" t="s">
         <v>2549</v>
       </c>
-      <c r="C84" s="188" t="s">
+      <c r="C84" s="187" t="s">
         <v>1251</v>
       </c>
       <c r="D84" s="115"/>
@@ -40182,7 +40242,7 @@
       <c r="L84" s="113" t="s">
         <v>2550</v>
       </c>
-      <c r="M84" s="188" t="s">
+      <c r="M84" s="187" t="s">
         <v>1253</v>
       </c>
       <c r="N84" s="115"/>
@@ -40191,7 +40251,7 @@
     <row r="85" spans="1:15">
       <c r="A85" s="96"/>
       <c r="B85" s="116"/>
-      <c r="C85" s="189" t="s">
+      <c r="C85" s="188" t="s">
         <v>1254</v>
       </c>
       <c r="D85" s="112"/>
@@ -40200,7 +40260,7 @@
       <c r="G85" s="116" t="s">
         <v>2551</v>
       </c>
-      <c r="H85" s="189" t="s">
+      <c r="H85" s="188" t="s">
         <v>201</v>
       </c>
       <c r="I85" s="112"/>
@@ -40209,7 +40269,7 @@
       <c r="L85" s="116" t="s">
         <v>2552</v>
       </c>
-      <c r="M85" s="189" t="s">
+      <c r="M85" s="188" t="s">
         <v>1255</v>
       </c>
       <c r="N85" s="112"/>
@@ -40219,313 +40279,313 @@
       <c r="A86" s="96" t="s">
         <v>2544</v>
       </c>
-      <c r="B86" s="233"/>
-      <c r="C86" s="234" t="s">
+      <c r="B86" s="232"/>
+      <c r="C86" s="233" t="s">
         <v>2565</v>
       </c>
-      <c r="D86" s="235"/>
-      <c r="E86" s="236"/>
-      <c r="F86" s="236"/>
-      <c r="G86" s="233"/>
-      <c r="H86" s="234"/>
-      <c r="I86" s="235"/>
-      <c r="J86" s="236"/>
-      <c r="K86" s="236" t="s">
+      <c r="D86" s="234"/>
+      <c r="E86" s="235"/>
+      <c r="F86" s="235"/>
+      <c r="G86" s="232"/>
+      <c r="H86" s="233"/>
+      <c r="I86" s="234"/>
+      <c r="J86" s="235"/>
+      <c r="K86" s="235" t="s">
         <v>2544</v>
       </c>
-      <c r="L86" s="233"/>
-      <c r="M86" s="237"/>
-      <c r="N86" s="235"/>
+      <c r="L86" s="232"/>
+      <c r="M86" s="236"/>
+      <c r="N86" s="234"/>
       <c r="O86" s="96"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="96" t="s">
         <v>2545</v>
       </c>
-      <c r="B87" s="233"/>
-      <c r="C87" s="244" t="s">
+      <c r="B87" s="232"/>
+      <c r="C87" s="243" t="s">
         <v>2563</v>
       </c>
-      <c r="D87" s="235"/>
-      <c r="E87" s="236"/>
-      <c r="F87" s="236"/>
-      <c r="G87" s="233"/>
-      <c r="H87" s="234">
+      <c r="D87" s="234"/>
+      <c r="E87" s="235"/>
+      <c r="F87" s="235"/>
+      <c r="G87" s="232"/>
+      <c r="H87" s="233">
         <v>0</v>
       </c>
-      <c r="I87" s="235"/>
-      <c r="J87" s="236"/>
-      <c r="K87" s="236" t="s">
+      <c r="I87" s="234"/>
+      <c r="J87" s="235"/>
+      <c r="K87" s="235" t="s">
         <v>2547</v>
       </c>
-      <c r="L87" s="233"/>
-      <c r="M87" s="237" t="s">
+      <c r="L87" s="232"/>
+      <c r="M87" s="236" t="s">
         <v>2567</v>
       </c>
-      <c r="N87" s="235"/>
+      <c r="N87" s="234"/>
       <c r="O87" s="96"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="96" t="s">
         <v>2546</v>
       </c>
-      <c r="B88" s="233"/>
-      <c r="C88" s="244" t="s">
+      <c r="B88" s="232"/>
+      <c r="C88" s="243" t="s">
         <v>2564</v>
       </c>
-      <c r="D88" s="235"/>
-      <c r="E88" s="236"/>
-      <c r="F88" s="236"/>
-      <c r="G88" s="233"/>
-      <c r="H88" s="234">
+      <c r="D88" s="234"/>
+      <c r="E88" s="235"/>
+      <c r="F88" s="235"/>
+      <c r="G88" s="232"/>
+      <c r="H88" s="233">
         <v>20</v>
       </c>
-      <c r="I88" s="235"/>
-      <c r="J88" s="236"/>
-      <c r="K88" s="236" t="s">
+      <c r="I88" s="234"/>
+      <c r="J88" s="235"/>
+      <c r="K88" s="235" t="s">
         <v>2548</v>
       </c>
-      <c r="L88" s="233"/>
-      <c r="M88" s="237" t="s">
+      <c r="L88" s="232"/>
+      <c r="M88" s="236" t="s">
         <v>2568</v>
       </c>
-      <c r="N88" s="235"/>
+      <c r="N88" s="234"/>
       <c r="O88" s="96"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="96"/>
-      <c r="B89" s="233"/>
-      <c r="C89" s="234" t="s">
+      <c r="B89" s="232"/>
+      <c r="C89" s="233" t="s">
         <v>2566</v>
       </c>
-      <c r="D89" s="235"/>
-      <c r="E89" s="236"/>
-      <c r="F89" s="236"/>
-      <c r="G89" s="233"/>
-      <c r="H89" s="237">
+      <c r="D89" s="234"/>
+      <c r="E89" s="235"/>
+      <c r="F89" s="235"/>
+      <c r="G89" s="232"/>
+      <c r="H89" s="236">
         <v>14</v>
       </c>
-      <c r="I89" s="235"/>
-      <c r="J89" s="236"/>
-      <c r="K89" s="236" t="s">
+      <c r="I89" s="234"/>
+      <c r="J89" s="235"/>
+      <c r="K89" s="235" t="s">
         <v>1252</v>
       </c>
-      <c r="L89" s="233"/>
-      <c r="M89" s="237" t="s">
+      <c r="L89" s="232"/>
+      <c r="M89" s="236" t="s">
         <v>2569</v>
       </c>
-      <c r="N89" s="235"/>
+      <c r="N89" s="234"/>
       <c r="O89" s="96"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="96"/>
-      <c r="B90" s="233"/>
-      <c r="C90" s="234" t="s">
+      <c r="B90" s="232"/>
+      <c r="C90" s="233" t="s">
         <v>2553</v>
       </c>
-      <c r="D90" s="235"/>
-      <c r="E90" s="236"/>
-      <c r="F90" s="236"/>
-      <c r="G90" s="233"/>
-      <c r="H90" s="237">
+      <c r="D90" s="234"/>
+      <c r="E90" s="235"/>
+      <c r="F90" s="235"/>
+      <c r="G90" s="232"/>
+      <c r="H90" s="236">
         <v>5</v>
       </c>
-      <c r="I90" s="235"/>
-      <c r="J90" s="236"/>
-      <c r="K90" s="236"/>
-      <c r="L90" s="233"/>
-      <c r="M90" s="243" t="s">
+      <c r="I90" s="234"/>
+      <c r="J90" s="235"/>
+      <c r="K90" s="235"/>
+      <c r="L90" s="232"/>
+      <c r="M90" s="242" t="s">
         <v>2570</v>
       </c>
-      <c r="N90" s="235"/>
+      <c r="N90" s="234"/>
       <c r="O90" s="96"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="96"/>
-      <c r="B91" s="233"/>
-      <c r="C91" s="234" t="s">
+      <c r="B91" s="232"/>
+      <c r="C91" s="233" t="s">
         <v>2565</v>
       </c>
-      <c r="D91" s="235"/>
-      <c r="E91" s="236"/>
-      <c r="F91" s="236"/>
-      <c r="G91" s="233"/>
-      <c r="H91" s="237">
+      <c r="D91" s="234"/>
+      <c r="E91" s="235"/>
+      <c r="F91" s="235"/>
+      <c r="G91" s="232"/>
+      <c r="H91" s="236">
         <v>25</v>
       </c>
-      <c r="I91" s="235"/>
-      <c r="J91" s="236"/>
-      <c r="K91" s="236"/>
-      <c r="L91" s="233"/>
-      <c r="M91" s="244" t="s">
+      <c r="I91" s="234"/>
+      <c r="J91" s="235"/>
+      <c r="K91" s="235"/>
+      <c r="L91" s="232"/>
+      <c r="M91" s="243" t="s">
         <v>2571</v>
       </c>
-      <c r="N91" s="235"/>
+      <c r="N91" s="234"/>
       <c r="O91" s="96"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="96"/>
-      <c r="B92" s="233"/>
-      <c r="C92" s="244" t="s">
+      <c r="B92" s="232"/>
+      <c r="C92" s="243" t="s">
         <v>2563</v>
       </c>
-      <c r="D92" s="235"/>
-      <c r="E92" s="236"/>
-      <c r="F92" s="236"/>
-      <c r="G92" s="233"/>
-      <c r="H92" s="237">
+      <c r="D92" s="234"/>
+      <c r="E92" s="235"/>
+      <c r="F92" s="235"/>
+      <c r="G92" s="232"/>
+      <c r="H92" s="236">
         <v>18</v>
       </c>
-      <c r="I92" s="235"/>
-      <c r="J92" s="236"/>
-      <c r="K92" s="236"/>
-      <c r="L92" s="233"/>
-      <c r="M92" s="244" t="s">
+      <c r="I92" s="234"/>
+      <c r="J92" s="235"/>
+      <c r="K92" s="235"/>
+      <c r="L92" s="232"/>
+      <c r="M92" s="243" t="s">
         <v>2553</v>
       </c>
-      <c r="N92" s="235"/>
+      <c r="N92" s="234"/>
       <c r="O92" s="96"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="96"/>
-      <c r="B93" s="233"/>
-      <c r="C93" s="244"/>
-      <c r="D93" s="235"/>
-      <c r="E93" s="236"/>
-      <c r="F93" s="236"/>
-      <c r="G93" s="233"/>
-      <c r="H93" s="237"/>
-      <c r="I93" s="235"/>
-      <c r="J93" s="236"/>
-      <c r="K93" s="236"/>
-      <c r="L93" s="233"/>
-      <c r="M93" s="234" t="s">
+      <c r="B93" s="232"/>
+      <c r="C93" s="243"/>
+      <c r="D93" s="234"/>
+      <c r="E93" s="235"/>
+      <c r="F93" s="235"/>
+      <c r="G93" s="232"/>
+      <c r="H93" s="236"/>
+      <c r="I93" s="234"/>
+      <c r="J93" s="235"/>
+      <c r="K93" s="235"/>
+      <c r="L93" s="232"/>
+      <c r="M93" s="233" t="s">
         <v>2572</v>
       </c>
-      <c r="N93" s="235"/>
+      <c r="N93" s="234"/>
       <c r="O93" s="96"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="96"/>
-      <c r="B94" s="233"/>
-      <c r="C94" s="244"/>
-      <c r="D94" s="235"/>
-      <c r="E94" s="236"/>
-      <c r="F94" s="236"/>
-      <c r="G94" s="233"/>
-      <c r="H94" s="237"/>
-      <c r="I94" s="235"/>
-      <c r="J94" s="236"/>
-      <c r="K94" s="236"/>
-      <c r="L94" s="233"/>
-      <c r="M94" s="237" t="s">
+      <c r="B94" s="232"/>
+      <c r="C94" s="243"/>
+      <c r="D94" s="234"/>
+      <c r="E94" s="235"/>
+      <c r="F94" s="235"/>
+      <c r="G94" s="232"/>
+      <c r="H94" s="236"/>
+      <c r="I94" s="234"/>
+      <c r="J94" s="235"/>
+      <c r="K94" s="235"/>
+      <c r="L94" s="232"/>
+      <c r="M94" s="236" t="s">
         <v>2554</v>
       </c>
-      <c r="N94" s="235"/>
+      <c r="N94" s="234"/>
       <c r="O94" s="96"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="96"/>
-      <c r="B95" s="233"/>
-      <c r="C95" s="234"/>
-      <c r="D95" s="235"/>
-      <c r="E95" s="236"/>
-      <c r="F95" s="236"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="234"/>
-      <c r="I95" s="235"/>
-      <c r="J95" s="236"/>
-      <c r="K95" s="236"/>
-      <c r="L95" s="233"/>
-      <c r="M95" s="236" t="s">
+      <c r="B95" s="232"/>
+      <c r="C95" s="233"/>
+      <c r="D95" s="234"/>
+      <c r="E95" s="235"/>
+      <c r="F95" s="235"/>
+      <c r="G95" s="232"/>
+      <c r="H95" s="233"/>
+      <c r="I95" s="234"/>
+      <c r="J95" s="235"/>
+      <c r="K95" s="235"/>
+      <c r="L95" s="232"/>
+      <c r="M95" s="235" t="s">
         <v>2193</v>
       </c>
-      <c r="N95" s="235"/>
+      <c r="N95" s="234"/>
       <c r="O95" s="96"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="96"/>
-      <c r="B96" s="233"/>
-      <c r="C96" s="234"/>
-      <c r="D96" s="235"/>
-      <c r="E96" s="236"/>
-      <c r="F96" s="236"/>
-      <c r="G96" s="233"/>
-      <c r="H96" s="234"/>
-      <c r="I96" s="235"/>
-      <c r="J96" s="236"/>
-      <c r="K96" s="236"/>
-      <c r="L96" s="233"/>
-      <c r="M96" s="237"/>
-      <c r="N96" s="235"/>
+      <c r="B96" s="232"/>
+      <c r="C96" s="233"/>
+      <c r="D96" s="234"/>
+      <c r="E96" s="235"/>
+      <c r="F96" s="235"/>
+      <c r="G96" s="232"/>
+      <c r="H96" s="233"/>
+      <c r="I96" s="234"/>
+      <c r="J96" s="235"/>
+      <c r="K96" s="235"/>
+      <c r="L96" s="232"/>
+      <c r="M96" s="236"/>
+      <c r="N96" s="234"/>
       <c r="O96" s="96"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="96"/>
-      <c r="B97" s="233"/>
-      <c r="C97" s="234"/>
-      <c r="D97" s="235"/>
-      <c r="E97" s="236"/>
-      <c r="F97" s="236"/>
-      <c r="G97" s="233"/>
-      <c r="H97" s="234"/>
-      <c r="I97" s="235"/>
-      <c r="J97" s="236"/>
-      <c r="K97" s="236"/>
-      <c r="L97" s="233"/>
-      <c r="M97" s="234"/>
-      <c r="N97" s="235"/>
+      <c r="B97" s="232"/>
+      <c r="C97" s="233"/>
+      <c r="D97" s="234"/>
+      <c r="E97" s="235"/>
+      <c r="F97" s="235"/>
+      <c r="G97" s="232"/>
+      <c r="H97" s="233"/>
+      <c r="I97" s="234"/>
+      <c r="J97" s="235"/>
+      <c r="K97" s="235"/>
+      <c r="L97" s="232"/>
+      <c r="M97" s="233"/>
+      <c r="N97" s="234"/>
       <c r="O97" s="96"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="96"/>
-      <c r="B98" s="233"/>
-      <c r="C98" s="234"/>
-      <c r="D98" s="235"/>
-      <c r="E98" s="236"/>
-      <c r="F98" s="236"/>
-      <c r="G98" s="233"/>
-      <c r="H98" s="234"/>
-      <c r="I98" s="235"/>
-      <c r="J98" s="236"/>
-      <c r="K98" s="236"/>
-      <c r="L98" s="233"/>
-      <c r="M98" s="244"/>
-      <c r="N98" s="235"/>
+      <c r="B98" s="232"/>
+      <c r="C98" s="233"/>
+      <c r="D98" s="234"/>
+      <c r="E98" s="235"/>
+      <c r="F98" s="235"/>
+      <c r="G98" s="232"/>
+      <c r="H98" s="233"/>
+      <c r="I98" s="234"/>
+      <c r="J98" s="235"/>
+      <c r="K98" s="235"/>
+      <c r="L98" s="232"/>
+      <c r="M98" s="243"/>
+      <c r="N98" s="234"/>
       <c r="O98" s="96"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="96"/>
-      <c r="B99" s="233"/>
-      <c r="C99" s="234"/>
-      <c r="D99" s="235"/>
-      <c r="E99" s="236"/>
-      <c r="F99" s="236"/>
-      <c r="G99" s="233"/>
-      <c r="H99" s="234"/>
-      <c r="I99" s="235"/>
-      <c r="J99" s="236"/>
-      <c r="K99" s="236"/>
-      <c r="L99" s="233"/>
-      <c r="M99" s="244"/>
-      <c r="N99" s="235"/>
+      <c r="B99" s="232"/>
+      <c r="C99" s="233"/>
+      <c r="D99" s="234"/>
+      <c r="E99" s="235"/>
+      <c r="F99" s="235"/>
+      <c r="G99" s="232"/>
+      <c r="H99" s="233"/>
+      <c r="I99" s="234"/>
+      <c r="J99" s="235"/>
+      <c r="K99" s="235"/>
+      <c r="L99" s="232"/>
+      <c r="M99" s="243"/>
+      <c r="N99" s="234"/>
       <c r="O99" s="96"/>
     </row>
     <row r="100" spans="1:16" ht="15.75" thickBot="1">
       <c r="A100" s="57"/>
-      <c r="B100" s="238"/>
-      <c r="C100" s="239"/>
-      <c r="D100" s="223"/>
-      <c r="E100" s="240"/>
-      <c r="F100" s="240"/>
-      <c r="G100" s="222"/>
-      <c r="H100" s="241"/>
-      <c r="I100" s="223"/>
-      <c r="J100" s="240"/>
-      <c r="K100" s="240"/>
-      <c r="L100" s="222"/>
-      <c r="M100" s="241"/>
-      <c r="N100" s="235"/>
+      <c r="B100" s="237"/>
+      <c r="C100" s="238"/>
+      <c r="D100" s="222"/>
+      <c r="E100" s="239"/>
+      <c r="F100" s="239"/>
+      <c r="G100" s="221"/>
+      <c r="H100" s="240"/>
+      <c r="I100" s="222"/>
+      <c r="J100" s="239"/>
+      <c r="K100" s="239"/>
+      <c r="L100" s="221"/>
+      <c r="M100" s="240"/>
+      <c r="N100" s="234"/>
       <c r="O100" s="57"/>
     </row>
     <row r="101" spans="1:16">
@@ -41732,7 +41792,7 @@
         <v>2540</v>
       </c>
       <c r="F233" s="43"/>
-      <c r="G233" s="200"/>
+      <c r="G233" s="199"/>
     </row>
     <row r="235" spans="2:11">
       <c r="I235" t="s">
@@ -41794,7 +41854,7 @@
       <c r="J244" s="43"/>
     </row>
     <row r="245" spans="2:10">
-      <c r="J245" s="160"/>
+      <c r="J245" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -41850,19 +41910,19 @@
       <c r="A2" t="s">
         <v>3079</v>
       </c>
-      <c r="B2" s="303">
+      <c r="B2" s="302">
         <v>0</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="302" t="s">
         <v>412</v>
       </c>
       <c r="E2" t="s">
         <v>1398</v>
       </c>
-      <c r="F2" s="303">
+      <c r="F2" s="302">
         <v>0</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="302" t="s">
         <v>412</v>
       </c>
       <c r="I2" t="s">
@@ -41875,105 +41935,105 @@
       <c r="L2" t="s">
         <v>1422</v>
       </c>
-      <c r="M2" s="303" t="s">
+      <c r="M2" s="302" t="s">
         <v>412</v>
       </c>
-      <c r="N2" s="303">
+      <c r="N2" s="302">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="303">
+      <c r="B3" s="302">
         <v>1</v>
       </c>
-      <c r="C3" s="303" t="s">
+      <c r="C3" s="302" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="303">
+      <c r="F3" s="302">
         <v>1</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="302" t="s">
         <v>524</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>524</v>
       </c>
       <c r="K3" s="43"/>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="302" t="s">
         <v>524</v>
       </c>
-      <c r="N3" s="303">
+      <c r="N3" s="302">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="303">
+      <c r="B4" s="302">
         <v>2</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="302" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="303">
+      <c r="F4" s="302">
         <v>2</v>
       </c>
-      <c r="G4" s="303" t="s">
+      <c r="G4" s="302" t="s">
         <v>559</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>559</v>
       </c>
       <c r="K4" s="43"/>
-      <c r="M4" s="303" t="s">
+      <c r="M4" s="302" t="s">
         <v>559</v>
       </c>
-      <c r="N4" s="303">
+      <c r="N4" s="302">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="303">
+      <c r="B5" s="302">
         <v>3</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="302" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="303">
+      <c r="F5" s="302">
         <v>3</v>
       </c>
-      <c r="G5" s="303" t="s">
+      <c r="G5" s="302" t="s">
         <v>412</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>1759</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="M5" s="303" t="s">
+      <c r="M5" s="302" t="s">
         <v>1759</v>
       </c>
-      <c r="N5" s="303">
+      <c r="N5" s="302">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="303">
+      <c r="B6" s="302">
         <v>4</v>
       </c>
-      <c r="C6" s="303" t="s">
+      <c r="C6" s="302" t="s">
         <v>1759</v>
       </c>
-      <c r="F6" s="303">
+      <c r="F6" s="302">
         <v>4</v>
       </c>
-      <c r="G6" s="303" t="s">
+      <c r="G6" s="302" t="s">
         <v>1759</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="M7" s="249" t="s">
+      <c r="M7" s="248" t="s">
         <v>3138</v>
       </c>
       <c r="O7">
@@ -41981,56 +42041,56 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="349" t="s">
+      <c r="B8" s="348" t="s">
         <v>3081</v>
       </c>
-      <c r="C8" s="349"/>
-      <c r="F8" s="349" t="s">
+      <c r="C8" s="348"/>
+      <c r="F8" s="348" t="s">
         <v>3082</v>
       </c>
-      <c r="G8" s="349"/>
-      <c r="I8" s="349" t="s">
+      <c r="G8" s="348"/>
+      <c r="I8" s="348" t="s">
         <v>3082</v>
       </c>
-      <c r="J8" s="349"/>
-      <c r="M8" s="249" t="s">
+      <c r="J8" s="348"/>
+      <c r="M8" s="248" t="s">
         <v>3139</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="349" t="s">
+      <c r="F9" s="348" t="s">
         <v>3083</v>
       </c>
-      <c r="G9" s="349"/>
-      <c r="I9" s="349" t="s">
+      <c r="G9" s="348"/>
+      <c r="I9" s="348" t="s">
         <v>3084</v>
       </c>
-      <c r="J9" s="349"/>
-      <c r="M9" s="350" t="s">
+      <c r="J9" s="348"/>
+      <c r="M9" s="349" t="s">
         <v>3082</v>
       </c>
-      <c r="N9" s="350"/>
+      <c r="N9" s="349"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="M10" s="316" t="s">
+      <c r="M10" s="314" t="s">
         <v>3085</v>
       </c>
-      <c r="N10" s="316"/>
+      <c r="N10" s="314"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="348" t="s">
+      <c r="E11" s="347" t="s">
         <v>3086</v>
       </c>
-      <c r="F11" s="348"/>
-      <c r="G11" s="348"/>
-      <c r="H11" s="348"/>
-      <c r="I11" s="348"/>
-      <c r="J11" s="348"/>
-      <c r="K11" s="348"/>
-      <c r="L11" s="348"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="348"/>
-      <c r="O11" s="348"/>
+      <c r="F11" s="347"/>
+      <c r="G11" s="347"/>
+      <c r="H11" s="347"/>
+      <c r="I11" s="347"/>
+      <c r="J11" s="347"/>
+      <c r="K11" s="347"/>
+      <c r="L11" s="347"/>
+      <c r="M11" s="347"/>
+      <c r="N11" s="347"/>
+      <c r="O11" s="347"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -42071,7 +42131,7 @@
       <c r="J14" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="L14" s="312" t="s">
+      <c r="L14" s="311" t="s">
         <v>412</v>
       </c>
       <c r="M14" s="43" t="s">
@@ -42093,7 +42153,7 @@
       <c r="J15" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="L15" s="312" t="s">
+      <c r="L15" s="311" t="s">
         <v>524</v>
       </c>
       <c r="M15" s="43" t="s">
@@ -42113,7 +42173,7 @@
       <c r="J16" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L16" s="312" t="s">
+      <c r="L16" s="311" t="s">
         <v>559</v>
       </c>
       <c r="M16" s="43" t="s">
@@ -42209,7 +42269,7 @@
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="C20" s="311" t="s">
+      <c r="C20" s="310" t="s">
         <v>412</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -42227,7 +42287,7 @@
       <c r="L20" s="56" t="s">
         <v>3095</v>
       </c>
-      <c r="M20" s="175"/>
+      <c r="M20" s="174"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -42248,7 +42308,7 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="C21" s="311" t="s">
+      <c r="C21" s="310" t="s">
         <v>524</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -42284,7 +42344,7 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="C22" s="311" t="s">
+      <c r="C22" s="310" t="s">
         <v>559</v>
       </c>
       <c r="D22" s="43" t="s">
@@ -42324,13 +42384,13 @@
       <c r="G23" s="43"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="226"/>
-      <c r="P23" s="226"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="226"/>
-      <c r="S23" s="226"/>
-      <c r="T23" s="226"/>
-      <c r="U23" s="226"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="225"/>
+      <c r="S23" s="225"/>
+      <c r="T23" s="225"/>
+      <c r="U23" s="225"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
       <c r="X23" s="27"/>
@@ -42349,12 +42409,12 @@
       <c r="G24" s="43"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
-      <c r="O24" s="226"/>
-      <c r="P24" s="226"/>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="226"/>
-      <c r="S24" s="226"/>
-      <c r="T24" s="226"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="225"/>
+      <c r="T24" s="225"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
@@ -42374,12 +42434,12 @@
       <c r="G25" s="43"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
-      <c r="O25" s="226"/>
-      <c r="P25" s="226"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="226"/>
-      <c r="S25" s="226"/>
-      <c r="T25" s="226"/>
+      <c r="O25" s="225"/>
+      <c r="P25" s="225"/>
+      <c r="Q25" s="225"/>
+      <c r="R25" s="225"/>
+      <c r="S25" s="225"/>
+      <c r="T25" s="225"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
@@ -42399,12 +42459,12 @@
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
-      <c r="O26" s="226"/>
-      <c r="P26" s="226"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="226"/>
-      <c r="S26" s="226"/>
-      <c r="T26" s="226"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="225"/>
+      <c r="R26" s="225"/>
+      <c r="S26" s="225"/>
+      <c r="T26" s="225"/>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
@@ -42423,14 +42483,14 @@
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="226"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="225"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="226"/>
+      <c r="V27" s="225"/>
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
@@ -42496,7 +42556,7 @@
       <c r="E30" t="s">
         <v>3108</v>
       </c>
-      <c r="G30" s="160" t="s">
+      <c r="G30" s="159" t="s">
         <v>3100</v>
       </c>
       <c r="I30" t="s">
@@ -42514,9 +42574,9 @@
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="175"/>
-      <c r="X30" s="175"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
       <c r="AA30" s="27"/>
@@ -42541,9 +42601,9 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
-      <c r="V31" s="175"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="175"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
       <c r="AA31" s="27"/>
@@ -42553,28 +42613,28 @@
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="E32" s="313" t="s">
+      <c r="E32" s="312" t="s">
         <v>3100</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>3102</v>
       </c>
-      <c r="I32" s="313" t="s">
+      <c r="I32" s="312" t="s">
         <v>3100</v>
       </c>
-      <c r="K32" s="313"/>
+      <c r="K32" s="312"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
-      <c r="R32" s="248"/>
-      <c r="S32" s="248"/>
-      <c r="T32" s="248"/>
+      <c r="R32" s="247"/>
+      <c r="S32" s="247"/>
+      <c r="T32" s="247"/>
       <c r="U32" s="27"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="175"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
       <c r="Y32" s="27"/>
       <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
@@ -42587,12 +42647,12 @@
       </c>
     </row>
     <row r="33" spans="1:32">
-      <c r="E33" s="313"/>
+      <c r="E33" s="312"/>
       <c r="G33" s="43" t="s">
         <v>3103</v>
       </c>
-      <c r="I33" s="313"/>
-      <c r="K33" s="313"/>
+      <c r="I33" s="312"/>
+      <c r="K33" s="312"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
@@ -42602,9 +42662,9 @@
       <c r="S33" s="27"/>
       <c r="T33" s="27"/>
       <c r="U33" s="27"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="175"/>
-      <c r="X33" s="175"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
@@ -42617,12 +42677,12 @@
       </c>
     </row>
     <row r="34" spans="1:32">
-      <c r="E34" s="313"/>
+      <c r="E34" s="312"/>
       <c r="G34" s="43" t="s">
         <v>3104</v>
       </c>
-      <c r="I34" s="313"/>
-      <c r="K34" s="313"/>
+      <c r="I34" s="312"/>
+      <c r="K34" s="312"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -42644,12 +42704,12 @@
       <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
-      <c r="E35" s="213"/>
+      <c r="E35" s="212"/>
       <c r="G35" s="43" t="s">
         <v>3105</v>
       </c>
-      <c r="I35" s="213"/>
-      <c r="K35" s="213"/>
+      <c r="I35" s="212"/>
+      <c r="K35" s="212"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
@@ -42921,7 +42981,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="N54" s="27"/>
-      <c r="O54" s="226"/>
+      <c r="O54" s="225"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
@@ -43025,7 +43085,7 @@
         <v>2524</v>
       </c>
       <c r="P58" s="27"/>
-      <c r="Q58" s="161" t="s">
+      <c r="Q58" s="160" t="s">
         <v>2634</v>
       </c>
       <c r="R58" s="27"/>
@@ -43045,8 +43105,8 @@
     </row>
     <row r="61" spans="1:18">
       <c r="N61" s="27"/>
-      <c r="O61" s="161"/>
-      <c r="P61" s="161"/>
+      <c r="O61" s="160"/>
+      <c r="P61" s="160"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
     </row>
@@ -43056,7 +43116,7 @@
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
-      <c r="O62" s="226"/>
+      <c r="O62" s="225"/>
       <c r="P62" s="51"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
@@ -43079,7 +43139,7 @@
       <c r="N64">
         <v>9999999</v>
       </c>
-      <c r="P64" s="161"/>
+      <c r="P64" s="160"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
     </row>
@@ -43131,7 +43191,7 @@
       <c r="B66" t="s">
         <v>1909</v>
       </c>
-      <c r="C66" s="197" t="s">
+      <c r="C66" s="196" t="s">
         <v>2509</v>
       </c>
       <c r="E66" t="s">
@@ -43143,7 +43203,7 @@
       <c r="G66" t="s">
         <v>2509</v>
       </c>
-      <c r="I66" s="197" t="s">
+      <c r="I66" s="196" t="s">
         <v>1909</v>
       </c>
       <c r="J66" t="s">
@@ -43167,8 +43227,8 @@
     </row>
     <row r="68" spans="1:18">
       <c r="N68" s="27"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="161"/>
+      <c r="O68" s="160"/>
+      <c r="P68" s="160"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
     </row>
@@ -43248,10 +43308,10 @@
       <c r="B72" t="s">
         <v>1909</v>
       </c>
-      <c r="C72" s="197" t="s">
+      <c r="C72" s="196" t="s">
         <v>3036</v>
       </c>
-      <c r="E72" s="197" t="s">
+      <c r="E72" s="196" t="s">
         <v>3036</v>
       </c>
       <c r="F72" t="s">
@@ -43291,13 +43351,13 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="C75" s="197" t="s">
+      <c r="C75" s="196" t="s">
         <v>1909</v>
       </c>
       <c r="D75" t="s">
         <v>3036</v>
       </c>
-      <c r="E75" s="197" t="s">
+      <c r="E75" s="196" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -43310,10 +43370,10 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="B78" s="309" t="s">
+      <c r="B78" s="308" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="309">
+      <c r="C78" s="308">
         <v>50</v>
       </c>
       <c r="F78" t="s">
@@ -43321,10 +43381,10 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="309" t="s">
+      <c r="B79" s="308" t="s">
         <v>524</v>
       </c>
-      <c r="C79" s="309">
+      <c r="C79" s="308">
         <v>80</v>
       </c>
       <c r="F79" t="s">
@@ -43332,10 +43392,10 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="309" t="s">
+      <c r="B80" s="308" t="s">
         <v>559</v>
       </c>
-      <c r="C80" s="309">
+      <c r="C80" s="308">
         <v>20</v>
       </c>
       <c r="L80" t="s">
@@ -43343,10 +43403,10 @@
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="309" t="s">
+      <c r="B81" s="308" t="s">
         <v>1759</v>
       </c>
-      <c r="C81" s="309">
+      <c r="C81" s="308">
         <v>80</v>
       </c>
       <c r="E81" s="125" t="s">
@@ -43358,17 +43418,17 @@
       <c r="K81" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="309" t="s">
+      <c r="L81" s="308" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="309"/>
-      <c r="C82" s="309"/>
+      <c r="B82" s="308"/>
+      <c r="C82" s="308"/>
       <c r="F82" t="s">
         <v>3144</v>
       </c>
-      <c r="L82" s="309" t="s">
+      <c r="L82" s="308" t="s">
         <v>524</v>
       </c>
     </row>
@@ -43376,7 +43436,7 @@
       <c r="F83" t="s">
         <v>366</v>
       </c>
-      <c r="L83" s="309" t="s">
+      <c r="L83" s="308" t="s">
         <v>559</v>
       </c>
     </row>
@@ -43384,7 +43444,7 @@
       <c r="G84" t="s">
         <v>3145</v>
       </c>
-      <c r="L84" s="309" t="s">
+      <c r="L84" s="308" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -43438,7 +43498,7 @@
       <c r="B90" s="57">
         <v>1</v>
       </c>
-      <c r="C90" s="172" t="s">
+      <c r="C90" s="171" t="s">
         <v>412</v>
       </c>
       <c r="E90" t="s">
@@ -43457,7 +43517,7 @@
       <c r="B92" s="57">
         <v>3</v>
       </c>
-      <c r="C92" s="196" t="s">
+      <c r="C92" s="195" t="s">
         <v>417</v>
       </c>
       <c r="E92" t="s">
@@ -43991,26 +44051,26 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="33"/>
-      <c r="B166" s="174" t="s">
+      <c r="B166" s="173" t="s">
         <v>1445</v>
       </c>
       <c r="C166" s="27"/>
-      <c r="D166" s="175" t="s">
+      <c r="D166" s="174" t="s">
         <v>1449</v>
       </c>
-      <c r="E166" s="175" t="s">
+      <c r="E166" s="174" t="s">
         <v>1453</v>
       </c>
-      <c r="F166" s="176" t="s">
+      <c r="F166" s="175" t="s">
         <v>1457</v>
       </c>
-      <c r="G166" s="176" t="s">
+      <c r="G166" s="175" t="s">
         <v>1458</v>
       </c>
-      <c r="H166" s="176" t="s">
+      <c r="H166" s="175" t="s">
         <v>2575</v>
       </c>
-      <c r="I166" s="176" t="s">
+      <c r="I166" s="175" t="s">
         <v>1529</v>
       </c>
       <c r="J166" s="34"/>
@@ -44019,10 +44079,10 @@
       <c r="A167" s="33"/>
       <c r="B167" s="27"/>
       <c r="C167" s="27"/>
-      <c r="D167" s="175"/>
-      <c r="E167" s="175"/>
-      <c r="F167" s="175"/>
-      <c r="G167" s="175"/>
+      <c r="D167" s="174"/>
+      <c r="E167" s="174"/>
+      <c r="F167" s="174"/>
+      <c r="G167" s="174"/>
       <c r="H167" s="27" t="s">
         <v>2577</v>
       </c>
@@ -44039,23 +44099,23 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="33"/>
-      <c r="B168" s="174" t="s">
+      <c r="B168" s="173" t="s">
         <v>1446</v>
       </c>
       <c r="C168" s="27"/>
-      <c r="D168" s="175" t="s">
+      <c r="D168" s="174" t="s">
         <v>1450</v>
       </c>
-      <c r="E168" s="175" t="s">
+      <c r="E168" s="174" t="s">
         <v>1454</v>
       </c>
-      <c r="F168" s="176" t="s">
+      <c r="F168" s="175" t="s">
         <v>1459</v>
       </c>
-      <c r="G168" s="175" t="s">
+      <c r="G168" s="174" t="s">
         <v>2001</v>
       </c>
-      <c r="H168" s="176"/>
+      <c r="H168" s="175"/>
       <c r="I168" s="27"/>
       <c r="J168" s="34"/>
       <c r="M168" t="s">
@@ -44066,28 +44126,28 @@
       <c r="A169" s="33"/>
       <c r="B169" s="27"/>
       <c r="C169" s="27"/>
-      <c r="D169" s="175"/>
-      <c r="E169" s="175"/>
-      <c r="F169" s="175"/>
-      <c r="G169" s="175"/>
+      <c r="D169" s="174"/>
+      <c r="E169" s="174"/>
+      <c r="F169" s="174"/>
+      <c r="G169" s="174"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
       <c r="J169" s="34"/>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="33"/>
-      <c r="B170" s="174" t="s">
+      <c r="B170" s="173" t="s">
         <v>1447</v>
       </c>
       <c r="C170" s="27"/>
-      <c r="D170" s="175" t="s">
+      <c r="D170" s="174" t="s">
         <v>1451</v>
       </c>
-      <c r="E170" s="175" t="s">
+      <c r="E170" s="174" t="s">
         <v>1455</v>
       </c>
-      <c r="F170" s="175"/>
-      <c r="G170" s="175"/>
+      <c r="F170" s="174"/>
+      <c r="G170" s="174"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
       <c r="J170" s="34"/>
@@ -44102,10 +44162,10 @@
       <c r="A171" s="33"/>
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
-      <c r="D171" s="175"/>
-      <c r="E171" s="175"/>
-      <c r="F171" s="175"/>
-      <c r="G171" s="175"/>
+      <c r="D171" s="174"/>
+      <c r="E171" s="174"/>
+      <c r="F171" s="174"/>
+      <c r="G171" s="174"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
       <c r="J171" s="34"/>
@@ -44115,20 +44175,20 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="33"/>
-      <c r="B172" s="174" t="s">
+      <c r="B172" s="173" t="s">
         <v>1448</v>
       </c>
       <c r="C172" s="27"/>
-      <c r="D172" s="175" t="s">
+      <c r="D172" s="174" t="s">
         <v>1452</v>
       </c>
-      <c r="E172" s="175" t="s">
+      <c r="E172" s="174" t="s">
         <v>1456</v>
       </c>
-      <c r="F172" s="176" t="s">
+      <c r="F172" s="175" t="s">
         <v>1460</v>
       </c>
-      <c r="G172" s="175"/>
+      <c r="G172" s="174"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
       <c r="J172" s="34"/>
@@ -44195,13 +44255,13 @@
         <v>412</v>
       </c>
       <c r="E178" s="27"/>
-      <c r="F178" s="247" t="s">
+      <c r="F178" s="246" t="s">
         <v>1141</v>
       </c>
-      <c r="G178" s="218" t="s">
+      <c r="G178" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="H178" s="219" t="s">
+      <c r="H178" s="218" t="s">
         <v>412</v>
       </c>
       <c r="I178" s="27"/>
@@ -44220,11 +44280,11 @@
         <v>1</v>
       </c>
       <c r="E179" s="27"/>
-      <c r="F179" s="248"/>
-      <c r="G179" s="222" t="s">
+      <c r="F179" s="247"/>
+      <c r="G179" s="221" t="s">
         <v>190</v>
       </c>
-      <c r="H179" s="223">
+      <c r="H179" s="222">
         <v>1</v>
       </c>
       <c r="I179" s="27"/>
@@ -44263,7 +44323,7 @@
       <c r="J181" s="51" t="s">
         <v>1511</v>
       </c>
-      <c r="K181" s="242" t="s">
+      <c r="K181" s="241" t="s">
         <v>2585</v>
       </c>
       <c r="L181" s="43" t="s">
@@ -44600,10 +44660,10 @@
       <c r="C216" t="s">
         <v>1495</v>
       </c>
-      <c r="D216" s="201">
+      <c r="D216" s="200">
         <v>1</v>
       </c>
-      <c r="E216" s="201" t="s">
+      <c r="E216" s="200" t="s">
         <v>524</v>
       </c>
       <c r="G216" t="s">
@@ -44611,10 +44671,10 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="D217" s="201">
+      <c r="D217" s="200">
         <v>2</v>
       </c>
-      <c r="E217" s="201" t="s">
+      <c r="E217" s="200" t="s">
         <v>559</v>
       </c>
       <c r="G217" t="s">
@@ -44625,10 +44685,10 @@
       <c r="A218" t="s">
         <v>559</v>
       </c>
-      <c r="D218" s="201">
+      <c r="D218" s="200">
         <v>3</v>
       </c>
-      <c r="E218" s="201" t="s">
+      <c r="E218" s="200" t="s">
         <v>412</v>
       </c>
       <c r="H218" t="s">
@@ -44639,10 +44699,10 @@
       </c>
     </row>
     <row r="219" spans="1:12">
-      <c r="D219" s="201">
+      <c r="D219" s="200">
         <v>4</v>
       </c>
-      <c r="E219" s="201" t="s">
+      <c r="E219" s="200" t="s">
         <v>1988</v>
       </c>
       <c r="H219" t="s">
@@ -45032,13 +45092,13 @@
       </c>
     </row>
     <row r="267" spans="2:10">
-      <c r="F267" s="170" t="s">
+      <c r="F267" s="169" t="s">
         <v>2202</v>
       </c>
       <c r="G267" t="s">
         <v>2200</v>
       </c>
-      <c r="H267" s="202" t="s">
+      <c r="H267" s="201" t="s">
         <v>2201</v>
       </c>
     </row>
@@ -45080,11 +45140,11 @@
       <c r="B284" s="32" t="s">
         <v>2204</v>
       </c>
-      <c r="D284" s="203" t="s">
+      <c r="D284" s="202" t="s">
         <v>2203</v>
       </c>
-      <c r="E284" s="204"/>
-      <c r="F284" s="205" t="s">
+      <c r="E284" s="203"/>
+      <c r="F284" s="204" t="s">
         <v>2204</v>
       </c>
       <c r="H284" s="30" t="s">
@@ -45096,25 +45156,25 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="175" t="s">
+      <c r="A285" s="174" t="s">
         <v>412</v>
       </c>
       <c r="B285" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="D285" s="206" t="s">
+      <c r="D285" s="205" t="s">
         <v>1154</v>
       </c>
-      <c r="E285" s="175" t="s">
+      <c r="E285" s="174" t="s">
         <v>524</v>
       </c>
-      <c r="F285" s="207" t="s">
+      <c r="F285" s="206" t="s">
         <v>551</v>
       </c>
       <c r="H285" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="I285" s="175" t="s">
+      <c r="I285" s="174" t="s">
         <v>1759</v>
       </c>
       <c r="J285" s="34" t="s">
@@ -45126,11 +45186,11 @@
         <v>517</v>
       </c>
       <c r="B286" s="37"/>
-      <c r="D286" s="208"/>
-      <c r="E286" s="209" t="s">
+      <c r="D286" s="207"/>
+      <c r="E286" s="208" t="s">
         <v>519</v>
       </c>
-      <c r="F286" s="210"/>
+      <c r="F286" s="209"/>
       <c r="H286" s="35"/>
       <c r="I286" s="36" t="s">
         <v>551</v>
@@ -45144,7 +45204,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="B290" s="27"/>
-      <c r="C290" s="175"/>
+      <c r="C290" s="174"/>
       <c r="D290" s="27"/>
     </row>
     <row r="291" spans="1:14" ht="15.75" thickBot="1">
@@ -45354,14 +45414,14 @@
       <c r="E2" s="121" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="256" t="s">
+      <c r="F2" s="255" t="s">
         <v>413</v>
       </c>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="315" t="s">
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="313" t="s">
         <v>413</v>
       </c>
       <c r="L2" s="121" t="s">
@@ -45375,7 +45435,7 @@
       <c r="A3" s="27" t="s">
         <v>3119</v>
       </c>
-      <c r="E3" s="186" t="s">
+      <c r="E3" s="185" t="s">
         <v>550</v>
       </c>
       <c r="F3" s="27" t="s">
@@ -45393,7 +45453,7 @@
       <c r="A4" s="27" t="s">
         <v>3120</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="185" t="s">
         <v>710</v>
       </c>
       <c r="F4" s="27" t="s">
@@ -45407,7 +45467,7 @@
         <v>3121</v>
       </c>
       <c r="D5" s="51"/>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="185" t="s">
         <v>1141</v>
       </c>
       <c r="F5" s="38" t="s">
@@ -45433,7 +45493,7 @@
       <c r="U5" s="51"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="E6" s="186"/>
+      <c r="E6" s="185"/>
       <c r="K6" s="117"/>
       <c r="L6" s="123" t="s">
         <v>190</v>
@@ -45446,7 +45506,7 @@
       <c r="A7" s="27" t="s">
         <v>3125</v>
       </c>
-      <c r="E7" s="186"/>
+      <c r="E7" s="185"/>
       <c r="K7" s="117"/>
       <c r="M7" s="76"/>
     </row>
@@ -45457,7 +45517,7 @@
       <c r="C8" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="185"/>
       <c r="K8" s="117" t="s">
         <v>2633</v>
       </c>
@@ -45475,7 +45535,7 @@
       <c r="C9" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="185"/>
       <c r="K9" s="117"/>
       <c r="L9" s="123" t="s">
         <v>190</v>
@@ -45491,7 +45551,7 @@
       <c r="C10" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="E10" s="186"/>
+      <c r="E10" s="185"/>
       <c r="K10" s="117"/>
       <c r="M10" s="76"/>
     </row>
@@ -45499,7 +45559,7 @@
       <c r="A11" s="27" t="s">
         <v>2582</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="185"/>
       <c r="K11" s="117" t="s">
         <v>2632</v>
       </c>
@@ -45511,7 +45571,7 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="E12" s="186"/>
+      <c r="E12" s="185"/>
       <c r="G12" s="27" t="s">
         <v>3128</v>
       </c>
@@ -45527,7 +45587,7 @@
       <c r="A13" s="38" t="s">
         <v>3127</v>
       </c>
-      <c r="E13" s="186" t="s">
+      <c r="E13" s="185" t="s">
         <v>2430</v>
       </c>
       <c r="F13" s="27" t="s">
@@ -45548,10 +45608,10 @@
       <c r="A14" s="38" t="s">
         <v>3130</v>
       </c>
-      <c r="C14" s="277" t="s">
+      <c r="C14" s="276" t="s">
         <v>3129</v>
       </c>
-      <c r="E14" s="186"/>
+      <c r="E14" s="185"/>
       <c r="G14" s="132">
         <v>2</v>
       </c>
@@ -45565,7 +45625,7 @@
       <c r="A15" s="38" t="s">
         <v>3131</v>
       </c>
-      <c r="E15" s="186"/>
+      <c r="E15" s="185"/>
       <c r="G15" s="132"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
@@ -45576,13 +45636,13 @@
         <v>3132</v>
       </c>
       <c r="E16" s="123"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
       <c r="M16" s="124"/>
     </row>
     <row r="17" spans="1:3">
@@ -45689,10 +45749,10 @@
       <c r="C3" s="27" t="s">
         <v>1478</v>
       </c>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="183">
+      <c r="E3" s="182">
         <v>1</v>
       </c>
       <c r="F3" s="27"/>
@@ -45709,10 +45769,10 @@
       <c r="K3" s="27" t="s">
         <v>1482</v>
       </c>
-      <c r="L3" s="178" t="s">
+      <c r="L3" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="179">
+      <c r="M3" s="178">
         <v>1</v>
       </c>
       <c r="N3" s="27"/>
@@ -45725,10 +45785,10 @@
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="B4" s="33"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="184" t="s">
         <v>412</v>
       </c>
       <c r="F4" s="27"/>
@@ -45741,10 +45801,10 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="180" t="s">
+      <c r="L4" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="181" t="s">
+      <c r="M4" s="180" t="s">
         <v>412</v>
       </c>
       <c r="N4" s="27"/>
@@ -45790,11 +45850,11 @@
       <c r="L6" s="43" t="s">
         <v>1527</v>
       </c>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="350" t="s">
         <v>1528</v>
       </c>
-      <c r="N6" s="351"/>
-      <c r="O6" s="351"/>
+      <c r="N6" s="350"/>
+      <c r="O6" s="350"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -45826,10 +45886,10 @@
       <c r="L7" s="132">
         <v>1</v>
       </c>
-      <c r="M7" s="173" t="s">
+      <c r="M7" s="172" t="s">
         <v>2000</v>
       </c>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="172" t="s">
         <v>1994</v>
       </c>
       <c r="O7" s="28"/>
@@ -45860,7 +45920,7 @@
       <c r="L8" s="132">
         <v>2</v>
       </c>
-      <c r="M8" s="173" t="s">
+      <c r="M8" s="172" t="s">
         <v>2002</v>
       </c>
       <c r="N8" s="28"/>
@@ -45884,7 +45944,7 @@
       <c r="L9" s="132">
         <v>3</v>
       </c>
-      <c r="M9" s="173" t="s">
+      <c r="M9" s="172" t="s">
         <v>2003</v>
       </c>
       <c r="N9" s="28"/>
@@ -47436,7 +47496,7 @@
       </c>
     </row>
     <row r="144" spans="2:16">
-      <c r="D144" s="197" t="s">
+      <c r="D144" s="196" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -47458,18 +47518,18 @@
       </c>
     </row>
     <row r="148" spans="2:19">
-      <c r="D148" s="197" t="s">
+      <c r="D148" s="196" t="s">
         <v>2662</v>
       </c>
       <c r="E148" s="29"/>
-      <c r="J148" s="197" t="s">
+      <c r="J148" s="196" t="s">
         <v>2663</v>
       </c>
-      <c r="K148" s="197"/>
-      <c r="P148" s="197" t="s">
+      <c r="K148" s="196"/>
+      <c r="P148" s="196" t="s">
         <v>1843</v>
       </c>
-      <c r="Q148" s="197"/>
+      <c r="Q148" s="196"/>
     </row>
     <row r="150" spans="2:19">
       <c r="D150" t="s">
@@ -47611,23 +47671,23 @@
       </c>
     </row>
     <row r="210" spans="4:15">
-      <c r="D210" s="282"/>
-      <c r="E210" s="282"/>
-      <c r="F210" s="282"/>
-      <c r="G210" s="282"/>
-      <c r="H210" s="286">
+      <c r="D210" s="281"/>
+      <c r="E210" s="281"/>
+      <c r="F210" s="281"/>
+      <c r="G210" s="281"/>
+      <c r="H210" s="285">
         <v>1</v>
       </c>
-      <c r="I210" s="286">
+      <c r="I210" s="285">
         <v>1</v>
       </c>
-      <c r="J210" s="286">
+      <c r="J210" s="285">
         <v>0</v>
       </c>
-      <c r="K210" s="286">
+      <c r="K210" s="285">
         <v>0</v>
       </c>
-      <c r="L210" s="287">
+      <c r="L210" s="286">
         <v>12</v>
       </c>
       <c r="N210" s="74">
@@ -47642,19 +47702,19 @@
       <c r="E211" s="57"/>
       <c r="F211" s="57"/>
       <c r="G211" s="57"/>
-      <c r="H211" s="287">
+      <c r="H211" s="286">
         <v>1</v>
       </c>
-      <c r="I211" s="287">
+      <c r="I211" s="286">
         <v>0</v>
       </c>
-      <c r="J211" s="287">
+      <c r="J211" s="286">
         <v>1</v>
       </c>
-      <c r="K211" s="287">
+      <c r="K211" s="286">
         <v>0</v>
       </c>
-      <c r="L211" s="287">
+      <c r="L211" s="286">
         <v>10</v>
       </c>
     </row>
@@ -47753,7 +47813,7 @@
       </c>
       <c r="I249" s="27"/>
       <c r="J249" s="27"/>
-      <c r="K249" s="154" t="s">
+      <c r="K249" s="153" t="s">
         <v>1679</v>
       </c>
       <c r="L249" s="27"/>
@@ -47790,7 +47850,7 @@
       </c>
       <c r="I252" s="27"/>
       <c r="J252" s="27"/>
-      <c r="K252" s="154" t="s">
+      <c r="K252" s="153" t="s">
         <v>1680</v>
       </c>
       <c r="L252" s="27"/>
@@ -47818,7 +47878,7 @@
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
       <c r="J254" s="27"/>
-      <c r="K254" s="154" t="s">
+      <c r="K254" s="153" t="s">
         <v>1681</v>
       </c>
       <c r="L254" s="27"/>
@@ -48613,10 +48673,10 @@
       </c>
     </row>
     <row r="217" spans="2:15">
-      <c r="E217" s="255" t="s">
+      <c r="E217" s="254" t="s">
         <v>2694</v>
       </c>
-      <c r="F217" s="255"/>
+      <c r="F217" s="254"/>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" t="s">
@@ -48645,14 +48705,14 @@
       <c r="B221" t="s">
         <v>2701</v>
       </c>
-      <c r="E221" s="255" t="s">
+      <c r="E221" s="254" t="s">
         <v>2662</v>
       </c>
-      <c r="F221" s="255"/>
-      <c r="J221" s="255" t="s">
+      <c r="F221" s="254"/>
+      <c r="J221" s="254" t="s">
         <v>1844</v>
       </c>
-      <c r="O221" s="255" t="s">
+      <c r="O221" s="254" t="s">
         <v>1843</v>
       </c>
     </row>
@@ -48748,35 +48808,35 @@
       <c r="B240" s="121" t="s">
         <v>2671</v>
       </c>
-      <c r="C240" s="256"/>
+      <c r="C240" s="255"/>
       <c r="D240" s="122"/>
       <c r="F240" s="121" t="s">
         <v>2258</v>
       </c>
-      <c r="G240" s="256"/>
+      <c r="G240" s="255"/>
       <c r="H240" s="122"/>
       <c r="J240" s="121" t="s">
         <v>2115</v>
       </c>
-      <c r="K240" s="256"/>
+      <c r="K240" s="255"/>
       <c r="L240" s="122"/>
     </row>
     <row r="241" spans="1:18">
-      <c r="B241" s="186"/>
+      <c r="B241" s="185"/>
       <c r="C241" s="27" t="s">
         <v>180</v>
       </c>
       <c r="D241" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F241" s="186"/>
+      <c r="F241" s="185"/>
       <c r="G241" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H241" s="76" t="s">
         <v>2714</v>
       </c>
-      <c r="J241" s="186"/>
+      <c r="J241" s="185"/>
       <c r="K241" s="27" t="s">
         <v>188</v>
       </c>
@@ -48785,21 +48845,21 @@
       </c>
     </row>
     <row r="242" spans="1:18">
-      <c r="B242" s="186"/>
+      <c r="B242" s="185"/>
       <c r="C242" s="27" t="s">
         <v>188</v>
       </c>
       <c r="D242" s="76" t="s">
         <v>2675</v>
       </c>
-      <c r="F242" s="186"/>
+      <c r="F242" s="185"/>
       <c r="G242" s="27" t="s">
         <v>184</v>
       </c>
       <c r="H242" s="76" t="s">
         <v>2715</v>
       </c>
-      <c r="J242" s="186"/>
+      <c r="J242" s="185"/>
       <c r="K242" s="27" t="s">
         <v>177</v>
       </c>
@@ -48812,21 +48872,21 @@
       </c>
     </row>
     <row r="243" spans="1:18">
-      <c r="B243" s="186"/>
+      <c r="B243" s="185"/>
       <c r="C243" s="27" t="s">
         <v>180</v>
       </c>
       <c r="D243" s="76" t="s">
         <v>2711</v>
       </c>
-      <c r="F243" s="186"/>
+      <c r="F243" s="185"/>
       <c r="G243" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H243" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="J243" s="186"/>
+      <c r="J243" s="185"/>
       <c r="K243" s="27" t="s">
         <v>187</v>
       </c>
@@ -48838,21 +48898,21 @@
       </c>
     </row>
     <row r="244" spans="1:18">
-      <c r="B244" s="186"/>
+      <c r="B244" s="185"/>
       <c r="C244" s="38" t="s">
         <v>186</v>
       </c>
       <c r="D244" s="76" t="s">
         <v>2712</v>
       </c>
-      <c r="F244" s="186"/>
+      <c r="F244" s="185"/>
       <c r="G244" s="38" t="s">
         <v>180</v>
       </c>
       <c r="H244" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="J244" s="186"/>
+      <c r="J244" s="185"/>
       <c r="K244" s="38" t="s">
         <v>187</v>
       </c>
@@ -48861,21 +48921,21 @@
       </c>
     </row>
     <row r="245" spans="1:18">
-      <c r="B245" s="186"/>
+      <c r="B245" s="185"/>
       <c r="C245" s="38" t="s">
         <v>2258</v>
       </c>
       <c r="D245" s="76" t="s">
         <v>2713</v>
       </c>
-      <c r="F245" s="186"/>
+      <c r="F245" s="185"/>
       <c r="G245" s="38" t="s">
         <v>184</v>
       </c>
       <c r="H245" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="J245" s="186"/>
+      <c r="J245" s="185"/>
       <c r="K245" s="27"/>
       <c r="L245" s="76"/>
       <c r="M245">
@@ -48883,21 +48943,21 @@
       </c>
     </row>
     <row r="246" spans="1:18">
-      <c r="B246" s="186"/>
+      <c r="B246" s="185"/>
       <c r="C246" s="38" t="s">
         <v>2115</v>
       </c>
       <c r="D246" s="76" t="s">
         <v>2676</v>
       </c>
-      <c r="F246" s="186"/>
+      <c r="F246" s="185"/>
       <c r="G246" s="38" t="s">
         <v>180</v>
       </c>
       <c r="H246" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="J246" s="186"/>
+      <c r="J246" s="185"/>
       <c r="K246" s="27"/>
       <c r="L246" s="76"/>
       <c r="O246" t="s">
@@ -48915,13 +48975,13 @@
     </row>
     <row r="247" spans="1:18">
       <c r="B247" s="123"/>
-      <c r="C247" s="257"/>
+      <c r="C247" s="256"/>
       <c r="D247" s="124"/>
       <c r="F247" s="123"/>
-      <c r="G247" s="257"/>
+      <c r="G247" s="256"/>
       <c r="H247" s="124"/>
       <c r="J247" s="123"/>
-      <c r="K247" s="257"/>
+      <c r="K247" s="256"/>
       <c r="L247" s="124"/>
       <c r="O247" t="s">
         <v>187</v>
@@ -48954,7 +49014,7 @@
       </c>
     </row>
     <row r="249" spans="1:18">
-      <c r="C249" s="258">
+      <c r="C249" s="257">
         <v>9999999999</v>
       </c>
       <c r="O249" t="s">
@@ -49050,31 +49110,31 @@
       <c r="A253">
         <v>0</v>
       </c>
-      <c r="G253" s="252">
+      <c r="G253" s="251">
         <v>0</v>
       </c>
-      <c r="H253" s="252">
+      <c r="H253" s="251">
         <v>1</v>
       </c>
-      <c r="I253" s="252">
+      <c r="I253" s="251">
         <v>1</v>
       </c>
-      <c r="J253" s="252">
+      <c r="J253" s="251">
         <v>1</v>
       </c>
-      <c r="K253" s="252">
+      <c r="K253" s="251">
         <v>1</v>
       </c>
-      <c r="L253" s="252">
+      <c r="L253" s="251">
         <v>1</v>
       </c>
-      <c r="M253" s="252">
+      <c r="M253" s="251">
         <v>1</v>
       </c>
-      <c r="N253" s="252">
+      <c r="N253" s="251">
         <v>1</v>
       </c>
-      <c r="O253" s="249"/>
+      <c r="O253" s="248"/>
       <c r="P253" t="s">
         <v>2716</v>
       </c>
@@ -49151,12 +49211,12 @@
       <c r="E264" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="F264" s="175" t="s">
+      <c r="F264" s="174" t="s">
         <v>2741</v>
       </c>
-      <c r="G264" s="207"/>
-      <c r="H264" s="170"/>
-      <c r="I264" s="170"/>
+      <c r="G264" s="206"/>
+      <c r="H264" s="169"/>
+      <c r="I264" s="169"/>
       <c r="L264" s="33"/>
       <c r="M264" s="27" t="s">
         <v>58</v>
@@ -49174,7 +49234,7 @@
       <c r="F265" s="143" t="s">
         <v>2742</v>
       </c>
-      <c r="G265" s="259"/>
+      <c r="G265" s="258"/>
       <c r="L265" s="33"/>
       <c r="M265" s="27"/>
       <c r="N265" s="27"/>
@@ -49234,7 +49294,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="339" t="s">
+      <c r="G269" s="338" t="s">
         <v>2747</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -49255,11 +49315,11 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="340"/>
-      <c r="I270" s="170" t="s">
+      <c r="G270" s="339"/>
+      <c r="I270" s="169" t="s">
         <v>2743</v>
       </c>
-      <c r="J270" s="170"/>
+      <c r="J270" s="169"/>
       <c r="L270" s="33"/>
       <c r="M270" s="27"/>
       <c r="N270" s="27"/>
@@ -49271,7 +49331,7 @@
       <c r="D271" s="27"/>
       <c r="E271" s="27"/>
       <c r="F271" s="27"/>
-      <c r="G271" s="259" t="s">
+      <c r="G271" s="258" t="s">
         <v>2748</v>
       </c>
       <c r="I271" t="s">
@@ -49338,12 +49398,12 @@
       <c r="P275" s="37"/>
     </row>
     <row r="282" spans="3:16" ht="18">
-      <c r="C282" s="283" t="s">
+      <c r="C282" s="282" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="283" spans="3:16" ht="18">
-      <c r="D283" s="283" t="s">
+      <c r="D283" s="282" t="s">
         <v>2912</v>
       </c>
       <c r="N283" t="s">
@@ -49351,7 +49411,7 @@
       </c>
     </row>
     <row r="284" spans="3:16" ht="18">
-      <c r="D284" s="284" t="s">
+      <c r="D284" s="283" t="s">
         <v>2913</v>
       </c>
       <c r="N284" t="s">
@@ -49429,18 +49489,18 @@
       </c>
     </row>
     <row r="289" spans="3:14">
-      <c r="C289" s="282"/>
-      <c r="D289" s="282"/>
-      <c r="E289" s="282"/>
-      <c r="F289" s="282"/>
-      <c r="G289" s="282"/>
-      <c r="H289" s="282">
+      <c r="C289" s="281"/>
+      <c r="D289" s="281"/>
+      <c r="E289" s="281"/>
+      <c r="F289" s="281"/>
+      <c r="G289" s="281"/>
+      <c r="H289" s="281">
         <v>1</v>
       </c>
-      <c r="I289" s="282">
+      <c r="I289" s="281">
         <v>0</v>
       </c>
-      <c r="J289" s="282">
+      <c r="J289" s="281">
         <v>1</v>
       </c>
       <c r="K289" s="57">
@@ -49632,7 +49692,7 @@
       </c>
     </row>
     <row r="301" spans="3:14">
-      <c r="C301" s="318">
+      <c r="C301" s="316">
         <v>1</v>
       </c>
       <c r="D301" s="132">
@@ -49656,10 +49716,10 @@
       <c r="J301" s="132">
         <v>1</v>
       </c>
-      <c r="K301" s="249"/>
+      <c r="K301" s="248"/>
     </row>
     <row r="302" spans="3:14">
-      <c r="C302" s="318"/>
+      <c r="C302" s="316"/>
       <c r="D302" s="129"/>
       <c r="E302" s="129"/>
       <c r="F302" s="129"/>
@@ -49691,7 +49751,7 @@
       <c r="H304" t="s">
         <v>3212</v>
       </c>
-      <c r="J304" s="164" t="s">
+      <c r="J304" s="163" t="s">
         <v>3219</v>
       </c>
     </row>
@@ -49702,7 +49762,7 @@
       <c r="H305" t="s">
         <v>3214</v>
       </c>
-      <c r="J305" s="164" t="s">
+      <c r="J305" s="163" t="s">
         <v>3220</v>
       </c>
     </row>
@@ -49713,7 +49773,7 @@
       <c r="H306" t="s">
         <v>3216</v>
       </c>
-      <c r="J306" s="164" t="s">
+      <c r="J306" s="163" t="s">
         <v>3221</v>
       </c>
     </row>
@@ -49724,7 +49784,7 @@
       <c r="H307" t="s">
         <v>3218</v>
       </c>
-      <c r="J307" s="164" t="s">
+      <c r="J307" s="163" t="s">
         <v>3222</v>
       </c>
     </row>
@@ -49739,7 +49799,7 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="164" t="s">
+      <c r="A314" s="163" t="s">
         <v>3224</v>
       </c>
     </row>
@@ -50353,7 +50413,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75" thickBot="1">
       <c r="C100" s="33"/>
-      <c r="D100" s="213" t="s">
+      <c r="D100" s="212" t="s">
         <v>2264</v>
       </c>
       <c r="E100" s="34" t="s">
@@ -51304,7 +51364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M9" sqref="M9:P9"/>
     </sheetView>
   </sheetViews>
@@ -51323,23 +51383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="342" t="s">
         <v>2826</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="I1" s="343" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="I1" s="342" t="s">
         <v>2838</v>
       </c>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51379,10 +51439,10 @@
       <c r="E4" s="111" t="s">
         <v>2825</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="151" t="s">
         <v>2841</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="266" t="s">
         <v>2842</v>
       </c>
       <c r="J4" t="s">
@@ -51407,7 +51467,7 @@
       <c r="F6" t="s">
         <v>2893</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="161" t="s">
         <v>2830</v>
       </c>
       <c r="L6" s="57" t="s">
@@ -51425,7 +51485,7 @@
       <c r="F7" t="s">
         <v>2890</v>
       </c>
-      <c r="K7" s="266" t="s">
+      <c r="K7" s="265" t="s">
         <v>2832</v>
       </c>
       <c r="L7" s="57" t="s">
@@ -51442,7 +51502,7 @@
       <c r="F8" t="s">
         <v>2892</v>
       </c>
-      <c r="K8" s="268" t="s">
+      <c r="K8" s="267" t="s">
         <v>2843</v>
       </c>
       <c r="L8" s="57" t="s">
@@ -51468,13 +51528,13 @@
       <c r="M9" s="57" t="s">
         <v>2834</v>
       </c>
-      <c r="N9" s="162" t="s">
+      <c r="N9" s="161" t="s">
         <v>2835</v>
       </c>
-      <c r="O9" s="266" t="s">
+      <c r="O9" s="265" t="s">
         <v>2836</v>
       </c>
-      <c r="P9" s="268" t="s">
+      <c r="P9" s="267" t="s">
         <v>1260</v>
       </c>
       <c r="Q9" s="57" t="s">
@@ -51495,28 +51555,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="334" t="s">
         <v>2840</v>
       </c>
-      <c r="B12" s="342"/>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="336"/>
-      <c r="I12" s="335" t="s">
+      <c r="B12" s="341"/>
+      <c r="C12" s="341"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="341"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="334" t="s">
         <v>2840</v>
       </c>
-      <c r="J12" s="342"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="342"/>
-      <c r="M12" s="342"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="342"/>
-      <c r="P12" s="342"/>
-      <c r="Q12" s="342"/>
-      <c r="R12" s="336"/>
+      <c r="J12" s="341"/>
+      <c r="K12" s="341"/>
+      <c r="L12" s="341"/>
+      <c r="M12" s="341"/>
+      <c r="N12" s="341"/>
+      <c r="O12" s="341"/>
+      <c r="P12" s="341"/>
+      <c r="Q12" s="341"/>
+      <c r="R12" s="335"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -51744,28 +51804,28 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="343" t="s">
+      <c r="A24" s="342" t="s">
         <v>2826</v>
       </c>
-      <c r="B24" s="343"/>
-      <c r="C24" s="343"/>
-      <c r="D24" s="343"/>
-      <c r="E24" s="343"/>
-      <c r="F24" s="343"/>
-      <c r="H24" s="273" t="s">
+      <c r="B24" s="342"/>
+      <c r="C24" s="342"/>
+      <c r="D24" s="342"/>
+      <c r="E24" s="342"/>
+      <c r="F24" s="342"/>
+      <c r="H24" s="272" t="s">
         <v>2838</v>
       </c>
-      <c r="I24" s="273"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="273"/>
-      <c r="L24" s="273"/>
-      <c r="M24" s="273"/>
-      <c r="N24" s="273"/>
-      <c r="P24" s="343" t="s">
+      <c r="I24" s="272"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="272"/>
+      <c r="L24" s="272"/>
+      <c r="M24" s="272"/>
+      <c r="N24" s="272"/>
+      <c r="P24" s="342" t="s">
         <v>2879</v>
       </c>
-      <c r="Q24" s="343"/>
-      <c r="R24" s="343"/>
+      <c r="Q24" s="342"/>
+      <c r="R24" s="342"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -51797,7 +51857,7 @@
         <v>366</v>
       </c>
       <c r="B26" s="106"/>
-      <c r="C26" s="269"/>
+      <c r="C26" s="268"/>
       <c r="D26" s="106"/>
       <c r="E26" s="106"/>
       <c r="F26" s="106"/>
@@ -51822,14 +51882,14 @@
       <c r="B27" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="170" t="s">
+      <c r="C27" s="169" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="106" t="s">
         <v>2867</v>
       </c>
-      <c r="E27" s="271"/>
-      <c r="F27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="269"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106" t="s">
         <v>2871</v>
@@ -51859,13 +51919,13 @@
       <c r="H28" s="106" t="s">
         <v>2872</v>
       </c>
-      <c r="I28" s="280" t="s">
+      <c r="I28" s="279" t="s">
         <v>2882</v>
       </c>
       <c r="J28" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="K28" s="272" t="s">
+      <c r="K28" s="271" t="s">
         <v>1787</v>
       </c>
       <c r="L28" s="106"/>
@@ -51886,7 +51946,7 @@
       <c r="F29" s="106"/>
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
-      <c r="I29" s="153" t="s">
+      <c r="I29" s="152" t="s">
         <v>2830</v>
       </c>
       <c r="J29" s="107" t="s">
@@ -51896,9 +51956,9 @@
         <v>2831</v>
       </c>
       <c r="L29" s="107"/>
-      <c r="M29" s="278"/>
-      <c r="N29" s="279"/>
-      <c r="O29" s="279"/>
+      <c r="M29" s="277"/>
+      <c r="N29" s="278"/>
+      <c r="O29" s="278"/>
       <c r="Q29" s="106"/>
     </row>
     <row r="30" spans="1:18">
@@ -51914,8 +51974,8 @@
       <c r="J30" s="57"/>
       <c r="L30" s="107"/>
       <c r="M30" s="107"/>
-      <c r="N30" s="279"/>
-      <c r="O30" s="279"/>
+      <c r="N30" s="278"/>
+      <c r="O30" s="278"/>
       <c r="P30" s="106"/>
       <c r="Q30" s="106"/>
     </row>
@@ -51925,12 +51985,12 @@
       <c r="C31" s="106" t="s">
         <v>2868</v>
       </c>
-      <c r="D31" s="170"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="106"/>
       <c r="F31" s="106"/>
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
-      <c r="I31" s="275" t="s">
+      <c r="I31" s="274" t="s">
         <v>2875</v>
       </c>
       <c r="J31" s="107" t="s">
@@ -51939,13 +51999,13 @@
       <c r="K31" s="107" t="s">
         <v>2876</v>
       </c>
-      <c r="L31" s="274" t="s">
+      <c r="L31" s="273" t="s">
         <v>2877</v>
       </c>
-      <c r="M31" s="190" t="s">
+      <c r="M31" s="189" t="s">
         <v>2878</v>
       </c>
-      <c r="N31" s="281" t="s">
+      <c r="N31" s="280" t="s">
         <v>2881</v>
       </c>
       <c r="O31" s="106"/>
@@ -51993,7 +52053,7 @@
       <c r="L33">
         <v>10</v>
       </c>
-      <c r="M33" s="276"/>
+      <c r="M33" s="275"/>
       <c r="N33" s="106"/>
       <c r="O33" s="106"/>
       <c r="P33" s="106"/>
@@ -52005,28 +52065,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="335" t="s">
+      <c r="A35" s="334" t="s">
         <v>2880</v>
       </c>
-      <c r="B35" s="342"/>
-      <c r="C35" s="342"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="342"/>
-      <c r="H35" s="336"/>
-      <c r="I35" s="335" t="s">
+      <c r="B35" s="341"/>
+      <c r="C35" s="341"/>
+      <c r="D35" s="341"/>
+      <c r="E35" s="341"/>
+      <c r="F35" s="341"/>
+      <c r="G35" s="341"/>
+      <c r="H35" s="335"/>
+      <c r="I35" s="334" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="342"/>
-      <c r="K35" s="342"/>
-      <c r="L35" s="342"/>
-      <c r="M35" s="342"/>
-      <c r="N35" s="342"/>
-      <c r="O35" s="342"/>
-      <c r="P35" s="342"/>
-      <c r="Q35" s="342"/>
-      <c r="R35" s="336"/>
+      <c r="J35" s="341"/>
+      <c r="K35" s="341"/>
+      <c r="L35" s="341"/>
+      <c r="M35" s="341"/>
+      <c r="N35" s="341"/>
+      <c r="O35" s="341"/>
+      <c r="P35" s="341"/>
+      <c r="Q35" s="341"/>
+      <c r="R35" s="335"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
@@ -52040,10 +52100,10 @@
       <c r="G36" s="31"/>
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="226" t="s">
+      <c r="J36" s="225" t="s">
         <v>204</v>
       </c>
-      <c r="K36" s="226" t="s">
+      <c r="K36" s="225" t="s">
         <v>1433</v>
       </c>
       <c r="L36" s="27"/>
@@ -52088,7 +52148,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="33"/>
-      <c r="B38" s="277" t="s">
+      <c r="B38" s="276" t="s">
         <v>2873</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -52906,10 +52966,10 @@
       <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="341" t="s">
+      <c r="F76" s="340" t="s">
         <v>2110</v>
       </c>
-      <c r="G76" s="327"/>
+      <c r="G76" s="326"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>
@@ -53600,7 +53660,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="B227" s="158">
+      <c r="B227" s="157">
         <v>10</v>
       </c>
       <c r="C227" t="s">
@@ -53648,7 +53708,7 @@
       <c r="A231">
         <v>20</v>
       </c>
-      <c r="B231" s="156">
+      <c r="B231" s="155">
         <v>20</v>
       </c>
       <c r="C231" t="s">
@@ -53685,7 +53745,7 @@
       <c r="A233">
         <v>3</v>
       </c>
-      <c r="B233" s="156">
+      <c r="B233" s="155">
         <v>3</v>
       </c>
       <c r="C233" t="s">
@@ -53693,7 +53753,7 @@
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="47"/>
-      <c r="H233" s="155"/>
+      <c r="H233" s="154"/>
       <c r="I233" s="49"/>
       <c r="J233" s="27"/>
       <c r="K233" s="27"/>
@@ -53752,7 +53812,7 @@
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="50"/>
-      <c r="H237" s="157"/>
+      <c r="H237" s="156"/>
       <c r="I237" s="52"/>
       <c r="J237" s="27"/>
       <c r="K237" s="27"/>
@@ -53761,7 +53821,7 @@
       <c r="N237" s="34"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="B238" s="156">
+      <c r="B238" s="155">
         <v>-1</v>
       </c>
       <c r="C238" t="s">
@@ -53797,7 +53857,7 @@
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="47"/>
-      <c r="H240" s="155"/>
+      <c r="H240" s="154"/>
       <c r="I240" s="49"/>
       <c r="J240" s="27"/>
       <c r="K240" s="27"/>
@@ -53924,7 +53984,7 @@
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="47"/>
-      <c r="H252" s="155"/>
+      <c r="H252" s="154"/>
       <c r="I252" s="49"/>
       <c r="J252" s="27"/>
       <c r="K252" s="27"/>
@@ -53980,7 +54040,7 @@
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="50"/>
-      <c r="H256" s="157"/>
+      <c r="H256" s="156"/>
       <c r="I256" s="52"/>
       <c r="J256" s="27"/>
       <c r="K256" s="27"/>
@@ -54022,7 +54082,7 @@
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="47"/>
-      <c r="H259" s="155"/>
+      <c r="H259" s="154"/>
       <c r="I259" s="49"/>
       <c r="J259" s="27"/>
       <c r="K259" s="27"/>
@@ -54565,11 +54625,11 @@
       <c r="A307" t="s">
         <v>2316</v>
       </c>
-      <c r="D307" s="225" t="s">
+      <c r="D307" s="224" t="s">
         <v>2318</v>
       </c>
       <c r="E307" s="51"/>
-      <c r="F307" s="226" t="s">
+      <c r="F307" s="225" t="s">
         <v>2320</v>
       </c>
       <c r="G307" s="27"/>
@@ -54589,7 +54649,7 @@
       <c r="E308" s="27"/>
       <c r="F308" s="27"/>
       <c r="G308" s="27"/>
-      <c r="H308" s="226" t="s">
+      <c r="H308" s="225" t="s">
         <v>534</v>
       </c>
       <c r="I308" s="27"/>
@@ -54897,11 +54957,11 @@
       <c r="A329" t="s">
         <v>2316</v>
       </c>
-      <c r="D329" s="225" t="s">
+      <c r="D329" s="224" t="s">
         <v>2318</v>
       </c>
       <c r="E329" s="51"/>
-      <c r="F329" s="226" t="s">
+      <c r="F329" s="225" t="s">
         <v>2320</v>
       </c>
       <c r="G329" s="27"/>
@@ -54921,7 +54981,7 @@
       <c r="E330" s="27"/>
       <c r="F330" s="27"/>
       <c r="G330" s="27"/>
-      <c r="H330" s="226" t="s">
+      <c r="H330" s="225" t="s">
         <v>534</v>
       </c>
       <c r="I330" s="27"/>
@@ -55082,7 +55142,7 @@
       <c r="I341" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="J341" s="224"/>
+      <c r="J341" s="223"/>
       <c r="K341" s="51"/>
       <c r="L341" s="52"/>
     </row>
@@ -55223,11 +55283,11 @@
         <v>2335</v>
       </c>
       <c r="D349" s="50"/>
-      <c r="E349" s="161" t="s">
+      <c r="E349" s="160" t="s">
         <v>2340</v>
       </c>
       <c r="F349" s="51"/>
-      <c r="G349" s="224"/>
+      <c r="G349" s="223"/>
       <c r="H349" s="51"/>
       <c r="I349" s="51"/>
       <c r="J349" s="53" t="s">
@@ -55247,7 +55307,7 @@
         <v>412</v>
       </c>
       <c r="F350" s="51"/>
-      <c r="G350" s="224"/>
+      <c r="G350" s="223"/>
       <c r="H350" s="51"/>
       <c r="I350" s="51"/>
       <c r="J350" s="51"/>
@@ -55263,7 +55323,7 @@
         <v>524</v>
       </c>
       <c r="F351" s="51"/>
-      <c r="G351" s="224"/>
+      <c r="G351" s="223"/>
       <c r="H351" s="51"/>
       <c r="I351" s="51"/>
       <c r="J351" s="51"/>
@@ -55277,7 +55337,7 @@
       <c r="D352" s="50"/>
       <c r="E352" s="51"/>
       <c r="F352" s="51"/>
-      <c r="G352" s="224"/>
+      <c r="G352" s="223"/>
       <c r="H352" s="51"/>
       <c r="I352" s="51"/>
       <c r="J352" s="51"/>
@@ -55291,7 +55351,7 @@
       <c r="D353" s="50"/>
       <c r="E353" s="51"/>
       <c r="F353" s="51"/>
-      <c r="G353" s="224"/>
+      <c r="G353" s="223"/>
       <c r="H353" s="51"/>
       <c r="I353" s="51"/>
       <c r="J353" s="51"/>
@@ -55350,7 +55410,7 @@
       <c r="G359" s="51"/>
       <c r="H359" s="51"/>
       <c r="I359" s="51"/>
-      <c r="J359" s="224"/>
+      <c r="J359" s="223"/>
       <c r="K359" s="51"/>
       <c r="L359" s="52"/>
     </row>
@@ -55472,9 +55532,9 @@
     </row>
     <row r="367" spans="1:12" ht="15.75" thickBot="1">
       <c r="D367" s="50"/>
-      <c r="E367" s="161"/>
+      <c r="E367" s="160"/>
       <c r="F367" s="51"/>
-      <c r="G367" s="224"/>
+      <c r="G367" s="223"/>
       <c r="H367" s="51"/>
       <c r="I367" s="51"/>
       <c r="J367" s="53" t="s">
@@ -55489,7 +55549,7 @@
       <c r="D368" s="50"/>
       <c r="E368" s="51"/>
       <c r="F368" s="51"/>
-      <c r="G368" s="224"/>
+      <c r="G368" s="223"/>
       <c r="H368" s="51"/>
       <c r="I368" s="51"/>
       <c r="J368" s="51"/>
@@ -55500,7 +55560,7 @@
       <c r="D369" s="50"/>
       <c r="E369" s="51"/>
       <c r="F369" s="51"/>
-      <c r="G369" s="224"/>
+      <c r="G369" s="223"/>
       <c r="H369" s="51"/>
       <c r="I369" s="51" t="s">
         <v>1952</v>
@@ -55513,7 +55573,7 @@
       <c r="D370" s="50"/>
       <c r="E370" s="51"/>
       <c r="F370" s="51"/>
-      <c r="G370" s="224"/>
+      <c r="G370" s="223"/>
       <c r="H370" s="51"/>
       <c r="I370" s="51"/>
       <c r="J370" s="50" t="s">
@@ -55528,7 +55588,7 @@
       <c r="D371" s="50"/>
       <c r="E371" s="51"/>
       <c r="F371" s="51"/>
-      <c r="G371" s="224"/>
+      <c r="G371" s="223"/>
       <c r="H371" s="51"/>
       <c r="I371" s="51"/>
       <c r="J371" s="53" t="s">
@@ -55583,7 +55643,7 @@
       <c r="G377" s="51"/>
       <c r="H377" s="51"/>
       <c r="I377" s="51"/>
-      <c r="J377" s="227"/>
+      <c r="J377" s="226"/>
       <c r="K377" s="51"/>
       <c r="L377" s="52"/>
     </row>
@@ -55711,11 +55771,11 @@
       <c r="D385" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="E385" s="161">
+      <c r="E385" s="160">
         <v>10</v>
       </c>
       <c r="F385" s="51"/>
-      <c r="G385" s="227"/>
+      <c r="G385" s="226"/>
       <c r="H385" s="51"/>
       <c r="I385" s="51"/>
       <c r="J385" s="53" t="s">
@@ -55736,7 +55796,7 @@
       <c r="D386" s="50"/>
       <c r="E386" s="51"/>
       <c r="F386" s="51"/>
-      <c r="G386" s="227"/>
+      <c r="G386" s="226"/>
       <c r="H386" s="51"/>
       <c r="I386" s="51"/>
       <c r="J386" s="51"/>
@@ -55747,7 +55807,7 @@
       <c r="D387" s="50"/>
       <c r="E387" s="51"/>
       <c r="F387" s="51"/>
-      <c r="G387" s="227"/>
+      <c r="G387" s="226"/>
       <c r="H387" s="51"/>
       <c r="I387" s="51" t="s">
         <v>1952</v>
@@ -55763,7 +55823,7 @@
       <c r="D388" s="50"/>
       <c r="E388" s="51"/>
       <c r="F388" s="51"/>
-      <c r="G388" s="227"/>
+      <c r="G388" s="226"/>
       <c r="H388" s="51"/>
       <c r="I388" s="51"/>
       <c r="J388" s="50" t="s">
@@ -55781,7 +55841,7 @@
       <c r="D389" s="50"/>
       <c r="E389" s="51"/>
       <c r="F389" s="51"/>
-      <c r="G389" s="227"/>
+      <c r="G389" s="226"/>
       <c r="H389" s="51"/>
       <c r="I389" s="51"/>
       <c r="J389" s="53" t="s">
@@ -55850,7 +55910,7 @@
       <c r="G397" s="51"/>
       <c r="H397" s="51"/>
       <c r="I397" s="51"/>
-      <c r="J397" s="228"/>
+      <c r="J397" s="227"/>
       <c r="K397" s="51"/>
       <c r="L397" s="52"/>
     </row>
@@ -55967,9 +56027,9 @@
         <v>2357</v>
       </c>
       <c r="D405" s="50"/>
-      <c r="E405" s="161"/>
+      <c r="E405" s="160"/>
       <c r="F405" s="51"/>
-      <c r="G405" s="228"/>
+      <c r="G405" s="227"/>
       <c r="H405" s="51"/>
       <c r="I405" s="51"/>
       <c r="J405" s="53"/>
@@ -55983,7 +56043,7 @@
       <c r="D406" s="50"/>
       <c r="E406" s="51"/>
       <c r="F406" s="51"/>
-      <c r="G406" s="228"/>
+      <c r="G406" s="227"/>
       <c r="H406" s="51"/>
       <c r="I406" s="51"/>
       <c r="J406" s="51"/>
@@ -55997,7 +56057,7 @@
       <c r="D407" s="50"/>
       <c r="E407" s="51"/>
       <c r="F407" s="51"/>
-      <c r="G407" s="228"/>
+      <c r="G407" s="227"/>
       <c r="H407" s="51"/>
       <c r="I407" s="51"/>
       <c r="J407" s="47"/>
@@ -56011,7 +56071,7 @@
       <c r="D408" s="50"/>
       <c r="E408" s="51"/>
       <c r="F408" s="51"/>
-      <c r="G408" s="228"/>
+      <c r="G408" s="227"/>
       <c r="H408" s="51"/>
       <c r="I408" s="51"/>
       <c r="J408" s="50"/>
@@ -56025,7 +56085,7 @@
       <c r="D409" s="50"/>
       <c r="E409" s="51"/>
       <c r="F409" s="51"/>
-      <c r="G409" s="228"/>
+      <c r="G409" s="227"/>
       <c r="H409" s="51"/>
       <c r="I409" s="51"/>
       <c r="J409" s="53"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6220" uniqueCount="3263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="3270">
   <si>
     <t>USER</t>
   </si>
@@ -10095,6 +10095,27 @@
   </si>
   <si>
     <t>balance=balance+deposit</t>
+  </si>
+  <si>
+    <t>CLASS IS BLUE-PRINT</t>
+  </si>
+  <si>
+    <t>public Student(String n,int a) {</t>
+  </si>
+  <si>
+    <t>age=a;</t>
+  </si>
+  <si>
+    <t>Student s1=new Student("john",10);</t>
+  </si>
+  <si>
+    <t>// constructor call</t>
+  </si>
+  <si>
+    <t>Student s2=new Student("jane",11);</t>
+  </si>
+  <si>
+    <t>Student s3=new Student("mike",12);</t>
   </si>
 </sst>
 </file>
@@ -19067,7 +19088,7 @@
   <dimension ref="C3:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F67"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19329,8 +19350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20660,10 +20681,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P229"/>
+  <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20672,110 +20693,138 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" s="165" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="E1" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="27" t="s">
-        <v>2944</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>1432</v>
-      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="27"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="33"/>
-      <c r="F4" s="27" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>413</v>
-      </c>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>524</v>
-      </c>
+      <c r="J4" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="55">
+        <v>10</v>
+      </c>
+      <c r="L4" s="27"/>
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="B5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="27" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>1951</v>
-      </c>
+        <v>3264</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B6" t="s">
-        <v>2939</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="38" t="s">
-        <v>2363</v>
-      </c>
-      <c r="G6" s="38" t="s">
+    <row r="6" spans="1:13">
+      <c r="C6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
         <v>2629</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="27"/>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>2940</v>
+        <v>3265</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="27" t="s">
-        <v>1951</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="B8" t="s">
         <v>144</v>
       </c>
@@ -20784,37 +20833,39 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>559</v>
-      </c>
+      <c r="J8" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="55">
+        <v>11</v>
+      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
       <c r="E9" s="33"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="34"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
       <c r="E10" s="33"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="I10" s="27" t="s">
+        <v>2631</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="27"/>
       <c r="M10" s="34"/>
     </row>
@@ -20823,49 +20874,51 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="27" t="s">
-        <v>2629</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>2941</v>
+        <v>3266</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>1025</v>
-      </c>
+      <c r="J12" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="55">
+        <v>12</v>
+      </c>
+      <c r="L12" s="27"/>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2942</v>
+        <v>3267</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2943</v>
+        <v>3268</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -20878,6 +20931,9 @@
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>3269</v>
+      </c>
       <c r="E15" s="33"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -20888,1332 +20944,1633 @@
       <c r="L15" s="27"/>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="19" spans="16:16" ht="15.75" thickBot="1"/>
-    <row r="20" spans="16:16">
+    <row r="16" spans="1:13">
+      <c r="E16" s="33"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="5:16">
+      <c r="E17" s="33"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1">
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="5:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="5:16">
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="16:16">
+    <row r="21" spans="5:16">
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="16:16">
+    <row r="22" spans="5:16">
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="16:16">
+    <row r="23" spans="5:16">
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="16:16">
+    <row r="24" spans="5:16">
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="16:16">
+    <row r="25" spans="5:16">
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="16:16">
+    <row r="26" spans="5:16">
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="16:16">
+    <row r="27" spans="5:16">
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="16:16" ht="15.75" thickBot="1">
+    <row r="28" spans="5:16" ht="15.75" thickBot="1">
       <c r="P28" s="37"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A118" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B119" t="s">
-        <v>1689</v>
-      </c>
-      <c r="F119" s="47" t="s">
-        <v>1939</v>
-      </c>
-      <c r="G119" s="48" t="s">
+    <row r="99" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="100" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="32"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="27" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
-      <c r="K119" s="48"/>
-      <c r="L119" s="49"/>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="B120" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F120" s="50" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G120" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51" t="s">
+      <c r="J101" s="30"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="34"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="E102" s="33"/>
+      <c r="F102" s="27" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G102" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J120" s="47" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K120" s="49" t="s">
-        <v>1848</v>
-      </c>
-      <c r="L120" s="52"/>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="B121" t="s">
-        <v>2047</v>
-      </c>
-      <c r="F121" s="50" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G121" s="51" t="s">
-        <v>2051</v>
-      </c>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-      <c r="J121" s="50" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K121" s="52" t="s">
-        <v>2050</v>
-      </c>
-      <c r="L121" s="52"/>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="B122" t="s">
-        <v>2048</v>
-      </c>
-      <c r="F122" s="50" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G122" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="50" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K122" s="52">
-        <v>4</v>
-      </c>
-      <c r="L122" s="52"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" thickBot="1">
-      <c r="F123" s="50"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="53" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K123" s="55">
-        <v>1234</v>
-      </c>
-      <c r="L123" s="52"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B124" t="s">
-        <v>2052</v>
-      </c>
-      <c r="F124" s="50"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="51"/>
-      <c r="I124" s="51"/>
-      <c r="J124" s="51"/>
-      <c r="K124" s="51"/>
-      <c r="L124" s="52"/>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="C125" t="s">
-        <v>2053</v>
-      </c>
-      <c r="F125" s="50"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="J125" s="47" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K125" s="49" t="s">
-        <v>2057</v>
-      </c>
-      <c r="L125" s="52"/>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="B126" t="s">
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L102" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="M102" s="34"/>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B103" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="27" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="34"/>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B104" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="38" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>2629</v>
+      </c>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="34"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="C105" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J105" s="30"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="34"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106" t="s">
         <v>144</v>
       </c>
-      <c r="F126" s="50"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="51"/>
-      <c r="J126" s="50" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K126" s="52" t="s">
-        <v>2050</v>
-      </c>
-      <c r="L126" s="52"/>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="B127" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F127" s="50"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="50" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K127" s="52">
-        <v>2</v>
-      </c>
-      <c r="L127" s="52"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.75" thickBot="1">
-      <c r="C128" t="s">
-        <v>2053</v>
-      </c>
-      <c r="F128" s="50"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-      <c r="J128" s="53" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K128" s="55">
-        <v>1234</v>
-      </c>
-      <c r="L128" s="52"/>
-    </row>
-    <row r="129" spans="1:15" ht="15.75" thickBot="1">
-      <c r="C129" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="51"/>
-      <c r="J129" s="51"/>
-      <c r="K129" s="51"/>
-      <c r="L129" s="52"/>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="B130" t="s">
+      <c r="E106" s="33"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L106" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="M106" s="34"/>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A107" t="s">
         <v>144</v>
       </c>
-      <c r="F130" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="G130" s="47" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H130" s="49" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I130" s="51" t="s">
-        <v>2051</v>
-      </c>
-      <c r="J130" s="47" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K130" s="49" t="s">
-        <v>2058</v>
-      </c>
-      <c r="L130" s="52"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" t="s">
-        <v>144</v>
-      </c>
-      <c r="F131" s="191"/>
-      <c r="G131" s="50" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H131" s="52" t="s">
-        <v>2050</v>
-      </c>
-      <c r="I131" s="51"/>
-      <c r="J131" s="50" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K131" s="52" t="s">
-        <v>2050</v>
-      </c>
-      <c r="L131" s="52"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" t="s">
-        <v>2054</v>
-      </c>
-      <c r="F132" s="191"/>
-      <c r="G132" s="50" t="s">
-        <v>2049</v>
-      </c>
-      <c r="H132" s="52">
-        <v>4</v>
-      </c>
-      <c r="I132" s="51"/>
-      <c r="J132" s="50" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K132" s="52">
-        <v>4</v>
-      </c>
-      <c r="L132" s="52"/>
-    </row>
-    <row r="133" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A133" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F133" s="191"/>
-      <c r="G133" s="53" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H133" s="55">
-        <v>1234</v>
-      </c>
-      <c r="I133" s="51"/>
-      <c r="J133" s="53" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K133" s="55">
-        <v>1234</v>
-      </c>
-      <c r="L133" s="52"/>
-    </row>
-    <row r="134" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A134" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F134" s="53"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="55"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="137" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A137" s="30"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="31"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="34"/>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E108" s="33"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="34"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="E109" s="33"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27" t="s">
+        <v>2629</v>
+      </c>
+      <c r="J109" s="30"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="34"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E110" s="33"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L110" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M110" s="34"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A111" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E111" s="33"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="34"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="34"/>
+    </row>
+    <row r="113" spans="5:13">
+      <c r="E113" s="33"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="34"/>
+    </row>
+    <row r="114" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E114" s="35"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="37"/>
+    </row>
+    <row r="136" spans="14:15" ht="15.75" thickBot="1"/>
+    <row r="137" spans="14:15">
       <c r="N137" s="31"/>
       <c r="O137" s="31"/>
     </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="33"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="G138" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H138" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
+    <row r="138" spans="14:15">
       <c r="N138" s="27"/>
       <c r="O138" s="27"/>
     </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="33"/>
-      <c r="B139" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="H139" s="52">
-        <v>10</v>
-      </c>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="27"/>
-      <c r="M139" s="27"/>
+    <row r="139" spans="14:15">
       <c r="N139" s="27"/>
       <c r="O139" s="27"/>
     </row>
-    <row r="140" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A140" s="33"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="H140" s="55">
-        <v>3</v>
-      </c>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
+    <row r="140" spans="14:15">
       <c r="N140" s="27"/>
       <c r="O140" s="27"/>
     </row>
-    <row r="141" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A141" s="33"/>
-      <c r="B141" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="51"/>
-      <c r="F141" s="51"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="51"/>
-      <c r="K141" s="51"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
+    <row r="141" spans="14:15">
       <c r="N141" s="27"/>
       <c r="O141" s="27"/>
     </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="33"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="74"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="49"/>
-      <c r="M142" s="38"/>
+    <row r="142" spans="14:15">
       <c r="N142" s="27"/>
       <c r="O142" s="27"/>
     </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="33"/>
-      <c r="B143" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="52"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="50"/>
-      <c r="L143" s="52"/>
-      <c r="M143" s="27"/>
+    <row r="143" spans="14:15">
       <c r="N143" s="27"/>
       <c r="O143" s="27"/>
     </row>
-    <row r="144" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A144" s="33"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="53"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="53"/>
-      <c r="L144" s="55"/>
-      <c r="M144" s="27"/>
+    <row r="144" spans="14:15">
       <c r="N144" s="27"/>
       <c r="O144" s="27"/>
     </row>
-    <row r="145" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A145" s="35"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
-      <c r="L145" s="36"/>
-      <c r="M145" s="36"/>
+    <row r="145" spans="14:15" ht="15.75" thickBot="1">
       <c r="N145" s="36"/>
       <c r="O145" s="36"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="14:15">
       <c r="O147" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
-      <c r="A148" t="s">
-        <v>703</v>
-      </c>
+    <row r="148" spans="14:15">
       <c r="O148" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
-      <c r="B149" t="s">
-        <v>704</v>
-      </c>
-      <c r="G149" t="s">
-        <v>706</v>
-      </c>
+    <row r="149" spans="14:15">
       <c r="O149" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
-      <c r="C150" t="s">
-        <v>710</v>
-      </c>
-      <c r="H150" t="s">
-        <v>356</v>
-      </c>
+    <row r="150" spans="14:15">
       <c r="O150" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
-      <c r="C151" t="s">
+    <row r="170" spans="14:14" ht="15.75" thickBot="1"/>
+    <row r="171" spans="14:14">
+      <c r="N171" s="32"/>
+    </row>
+    <row r="172" spans="14:14">
+      <c r="N172" s="34"/>
+    </row>
+    <row r="173" spans="14:14">
+      <c r="N173" s="34"/>
+    </row>
+    <row r="174" spans="14:14">
+      <c r="N174" s="34"/>
+    </row>
+    <row r="175" spans="14:14">
+      <c r="N175" s="34"/>
+    </row>
+    <row r="176" spans="14:14">
+      <c r="N176" s="34"/>
+    </row>
+    <row r="177" spans="14:14">
+      <c r="N177" s="34"/>
+    </row>
+    <row r="178" spans="14:14">
+      <c r="N178" s="34"/>
+    </row>
+    <row r="179" spans="14:14">
+      <c r="N179" s="34"/>
+    </row>
+    <row r="180" spans="14:14">
+      <c r="N180" s="34"/>
+    </row>
+    <row r="181" spans="14:14">
+      <c r="N181" s="34"/>
+    </row>
+    <row r="182" spans="14:14">
+      <c r="N182" s="34"/>
+    </row>
+    <row r="183" spans="14:14" ht="15.75" thickBot="1">
+      <c r="N183" s="37"/>
+    </row>
+    <row r="216" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A216" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B217" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F217" s="47" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G217" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H217" s="48"/>
+      <c r="I217" s="48"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="48"/>
+      <c r="L217" s="49"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="B218" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F218" s="50" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G218" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="H218" s="51"/>
+      <c r="I218" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J218" s="47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K218" s="49" t="s">
+        <v>1848</v>
+      </c>
+      <c r="L218" s="52"/>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="B219" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F219" s="50" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G219" s="51" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H219" s="51"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K219" s="52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L219" s="52"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="B220" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F220" s="50" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G220" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="50" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K220" s="52">
+        <v>4</v>
+      </c>
+      <c r="L220" s="52"/>
+    </row>
+    <row r="221" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F221" s="50"/>
+      <c r="G221" s="51"/>
+      <c r="H221" s="51"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="53" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K221" s="55">
+        <v>1234</v>
+      </c>
+      <c r="L221" s="52"/>
+    </row>
+    <row r="222" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B222" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F222" s="50"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="52"/>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="C223" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F223" s="50"/>
+      <c r="G223" s="51"/>
+      <c r="H223" s="51"/>
+      <c r="I223" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="J223" s="47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K223" s="49" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L223" s="52"/>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="B224" t="s">
+        <v>144</v>
+      </c>
+      <c r="F224" s="50"/>
+      <c r="G224" s="51"/>
+      <c r="H224" s="51"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K224" s="52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L224" s="52"/>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="B225" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F225" s="50"/>
+      <c r="G225" s="51"/>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="50" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K225" s="52">
+        <v>2</v>
+      </c>
+      <c r="L225" s="52"/>
+    </row>
+    <row r="226" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C226" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F226" s="50"/>
+      <c r="G226" s="51"/>
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="53" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K226" s="55">
+        <v>1234</v>
+      </c>
+      <c r="L226" s="52"/>
+    </row>
+    <row r="227" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C227" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F227" s="50"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="51"/>
+      <c r="K227" s="51"/>
+      <c r="L227" s="52"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="B228" t="s">
+        <v>144</v>
+      </c>
+      <c r="F228" s="191" t="s">
+        <v>519</v>
+      </c>
+      <c r="G228" s="47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H228" s="49" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I228" s="51" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J228" s="47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K228" s="49" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L228" s="52"/>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" t="s">
+        <v>144</v>
+      </c>
+      <c r="F229" s="191"/>
+      <c r="G229" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H229" s="52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I229" s="51"/>
+      <c r="J229" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K229" s="52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="L229" s="52"/>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="A230" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F230" s="191"/>
+      <c r="G230" s="50" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H230" s="52">
+        <v>4</v>
+      </c>
+      <c r="I230" s="51"/>
+      <c r="J230" s="50" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K230" s="52">
+        <v>4</v>
+      </c>
+      <c r="L230" s="52"/>
+    </row>
+    <row r="231" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A231" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F231" s="191"/>
+      <c r="G231" s="53" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H231" s="55">
+        <v>1234</v>
+      </c>
+      <c r="I231" s="51"/>
+      <c r="J231" s="53" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K231" s="55">
+        <v>1234</v>
+      </c>
+      <c r="L231" s="52"/>
+    </row>
+    <row r="232" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A232" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F232" s="53"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54"/>
+      <c r="J232" s="54"/>
+      <c r="K232" s="54"/>
+      <c r="L232" s="55"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="A233" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="235" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A235" s="30"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="31"/>
+      <c r="H235" s="31"/>
+      <c r="I235" s="31"/>
+      <c r="J235" s="31"/>
+      <c r="K235" s="31"/>
+      <c r="L235" s="31"/>
+      <c r="M235" s="31"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="33"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G236" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H236" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+      <c r="K236" s="27"/>
+      <c r="L236" s="27"/>
+      <c r="M236" s="27"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="33"/>
+      <c r="B237" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H237" s="52">
+        <v>10</v>
+      </c>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+      <c r="K237" s="27"/>
+      <c r="L237" s="27"/>
+      <c r="M237" s="27"/>
+    </row>
+    <row r="238" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A238" s="33"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
+      <c r="G238" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="H238" s="55">
+        <v>3</v>
+      </c>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
+      <c r="K238" s="27"/>
+      <c r="L238" s="27"/>
+      <c r="M238" s="27"/>
+    </row>
+    <row r="239" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A239" s="33"/>
+      <c r="B239" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="D239" s="27"/>
+      <c r="E239" s="51"/>
+      <c r="F239" s="51"/>
+      <c r="G239" s="51"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="51"/>
+      <c r="K239" s="51"/>
+      <c r="L239" s="27"/>
+      <c r="M239" s="27"/>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="33"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="51"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="47"/>
+      <c r="H240" s="49"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="74"/>
+      <c r="K240" s="47"/>
+      <c r="L240" s="49"/>
+      <c r="M240" s="38"/>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="33"/>
+      <c r="B241" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="D241" s="27"/>
+      <c r="E241" s="51"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="50"/>
+      <c r="H241" s="52"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="27"/>
+      <c r="K241" s="50"/>
+      <c r="L241" s="52"/>
+      <c r="M241" s="27"/>
+    </row>
+    <row r="242" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A242" s="33"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="27"/>
+      <c r="E242" s="27"/>
+      <c r="F242" s="27"/>
+      <c r="G242" s="53"/>
+      <c r="H242" s="55"/>
+      <c r="I242" s="27"/>
+      <c r="J242" s="27"/>
+      <c r="K242" s="53"/>
+      <c r="L242" s="55"/>
+      <c r="M242" s="27"/>
+    </row>
+    <row r="243" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A243" s="35"/>
+      <c r="B243" s="36"/>
+      <c r="C243" s="36"/>
+      <c r="D243" s="36"/>
+      <c r="E243" s="36"/>
+      <c r="F243" s="36"/>
+      <c r="G243" s="36"/>
+      <c r="H243" s="36"/>
+      <c r="I243" s="36"/>
+      <c r="J243" s="36"/>
+      <c r="K243" s="36"/>
+      <c r="L243" s="36"/>
+      <c r="M243" s="36"/>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="B247" t="s">
+        <v>704</v>
+      </c>
+      <c r="G247" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="C248" t="s">
+        <v>710</v>
+      </c>
+      <c r="H248" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="C249" t="s">
         <v>711</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H249" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
-      <c r="C152" t="s">
+    <row r="250" spans="1:13">
+      <c r="C250" t="s">
         <v>712</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H250" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
-      <c r="C153" t="s">
+    <row r="251" spans="1:13">
+      <c r="C251" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
-      <c r="C154" t="s">
+    <row r="252" spans="1:13">
+      <c r="C252" t="s">
         <v>568</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H252" t="s">
         <v>714</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J252" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
-      <c r="C155" t="s">
+    <row r="253" spans="1:13">
+      <c r="C253" t="s">
         <v>705</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I253" t="s">
         <v>716</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J253" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
-      <c r="B156" t="s">
+    <row r="254" spans="1:13">
+      <c r="B254" t="s">
         <v>144</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H254" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
-      <c r="A157" t="s">
+    <row r="255" spans="1:13">
+      <c r="A255" t="s">
         <v>144</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G255" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
-      <c r="A160" t="s">
+    <row r="258" spans="1:13">
+      <c r="A258" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
-      <c r="A161" t="s">
+    <row r="259" spans="1:13">
+      <c r="A259" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
-      <c r="A162" t="s">
+    <row r="260" spans="1:13">
+      <c r="A260" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
-      <c r="G163" t="s">
+    <row r="261" spans="1:13">
+      <c r="G261" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
-      <c r="H164" t="s">
+    <row r="262" spans="1:13">
+      <c r="H262" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
-      <c r="G165" t="s">
+    <row r="263" spans="1:13">
+      <c r="G263" t="s">
         <v>718</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J263" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
-      <c r="J166" t="s">
+    <row r="264" spans="1:13">
+      <c r="J264" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
-      <c r="I167" t="s">
+    <row r="265" spans="1:13">
+      <c r="I265" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
-      <c r="I168" t="s">
+    <row r="266" spans="1:13">
+      <c r="I266" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="171" spans="1:14">
-      <c r="A171" t="s">
+    <row r="268" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="269" spans="1:13">
+      <c r="A269" t="s">
         <v>1845</v>
       </c>
-      <c r="G171" s="47"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="48"/>
-      <c r="N171" s="32"/>
-    </row>
-    <row r="172" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A172" t="s">
+      <c r="G269" s="47"/>
+      <c r="H269" s="48"/>
+      <c r="I269" s="48"/>
+      <c r="J269" s="48"/>
+      <c r="K269" s="48"/>
+      <c r="L269" s="48"/>
+      <c r="M269" s="48"/>
+    </row>
+    <row r="270" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A270" t="s">
         <v>1846</v>
       </c>
-      <c r="G172" s="50" t="s">
+      <c r="G270" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H172" s="51" t="s">
+      <c r="H270" s="51" t="s">
         <v>1432</v>
       </c>
-      <c r="I172" s="51"/>
-      <c r="J172" s="51"/>
-      <c r="K172" s="51"/>
-      <c r="L172" s="51"/>
-      <c r="M172" s="51"/>
-      <c r="N172" s="34"/>
-    </row>
-    <row r="173" spans="1:14">
-      <c r="G173" s="50" t="s">
+      <c r="I270" s="51"/>
+      <c r="J270" s="51"/>
+      <c r="K270" s="51"/>
+      <c r="L270" s="51"/>
+      <c r="M270" s="51"/>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="G271" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="H173" s="51" t="s">
+      <c r="H271" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="I173" s="51"/>
-      <c r="J173" s="51" t="s">
+      <c r="I271" s="51"/>
+      <c r="J271" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="K173" s="47" t="s">
+      <c r="K271" s="47" t="s">
         <v>1694</v>
       </c>
-      <c r="L173" s="49" t="s">
+      <c r="L271" s="49" t="s">
         <v>1695</v>
       </c>
-      <c r="M173" s="51"/>
-      <c r="N173" s="34"/>
-    </row>
-    <row r="174" spans="1:14">
-      <c r="A174" t="s">
+      <c r="M271" s="51"/>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" t="s">
         <v>1692</v>
       </c>
-      <c r="G174" s="50"/>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
-      <c r="J174" s="51" t="s">
+      <c r="G272" s="50"/>
+      <c r="H272" s="51"/>
+      <c r="I272" s="51"/>
+      <c r="J272" s="51" t="s">
         <v>1851</v>
       </c>
-      <c r="K174" s="50" t="s">
+      <c r="K272" s="50" t="s">
         <v>1697</v>
       </c>
-      <c r="L174" s="52">
+      <c r="L272" s="52">
         <v>123</v>
       </c>
-      <c r="M174" s="51"/>
-      <c r="N174" s="34"/>
-    </row>
-    <row r="175" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A175" t="s">
+      <c r="M272" s="51"/>
+    </row>
+    <row r="273" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A273" t="s">
         <v>1693</v>
       </c>
-      <c r="G175" s="50"/>
-      <c r="H175" s="51"/>
-      <c r="I175" s="51"/>
-      <c r="J175" s="51"/>
-      <c r="K175" s="53" t="s">
+      <c r="G273" s="50"/>
+      <c r="H273" s="51"/>
+      <c r="I273" s="51"/>
+      <c r="J273" s="51"/>
+      <c r="K273" s="53" t="s">
         <v>1698</v>
       </c>
-      <c r="L175" s="55" t="s">
+      <c r="L273" s="55" t="s">
         <v>1696</v>
       </c>
-      <c r="M175" s="51"/>
-      <c r="N175" s="34"/>
-    </row>
-    <row r="176" spans="1:14">
-      <c r="G176" s="50"/>
-      <c r="H176" s="51"/>
-      <c r="I176" s="51"/>
-      <c r="J176" s="51"/>
-      <c r="K176" s="51"/>
-      <c r="L176" s="51"/>
-      <c r="M176" s="51"/>
-      <c r="N176" s="34"/>
-    </row>
-    <row r="177" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A177" t="s">
+      <c r="M273" s="51"/>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="G274" s="50"/>
+      <c r="H274" s="51"/>
+      <c r="I274" s="51"/>
+      <c r="J274" s="51"/>
+      <c r="K274" s="51"/>
+      <c r="L274" s="51"/>
+      <c r="M274" s="51"/>
+    </row>
+    <row r="275" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A275" t="s">
         <v>1688</v>
       </c>
-      <c r="G177" s="50"/>
-      <c r="H177" s="51"/>
-      <c r="I177" s="51"/>
-      <c r="J177" s="51"/>
-      <c r="K177" s="51"/>
-      <c r="L177" s="51"/>
-      <c r="M177" s="51"/>
-      <c r="N177" s="34"/>
-    </row>
-    <row r="178" spans="1:14">
-      <c r="B178" t="s">
+      <c r="G275" s="50"/>
+      <c r="H275" s="51"/>
+      <c r="I275" s="51"/>
+      <c r="J275" s="51"/>
+      <c r="K275" s="51"/>
+      <c r="L275" s="51"/>
+      <c r="M275" s="51"/>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="B276" t="s">
         <v>1689</v>
       </c>
-      <c r="G178" s="50"/>
-      <c r="H178" s="51"/>
-      <c r="I178" s="51"/>
-      <c r="J178" s="51" t="s">
+      <c r="G276" s="50"/>
+      <c r="H276" s="51"/>
+      <c r="I276" s="51"/>
+      <c r="J276" s="51" t="s">
         <v>1844</v>
       </c>
-      <c r="K178" s="47" t="s">
+      <c r="K276" s="47" t="s">
         <v>1694</v>
       </c>
-      <c r="L178" s="49" t="s">
+      <c r="L276" s="49" t="s">
         <v>1848</v>
       </c>
-      <c r="M178" s="51"/>
-      <c r="N178" s="34"/>
-    </row>
-    <row r="179" spans="1:14">
-      <c r="B179" t="s">
+      <c r="M276" s="51"/>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="B277" t="s">
         <v>1690</v>
       </c>
-      <c r="G179" s="50"/>
-      <c r="H179" s="51"/>
-      <c r="I179" s="51"/>
-      <c r="J179" s="51"/>
-      <c r="K179" s="50" t="s">
+      <c r="G277" s="50"/>
+      <c r="H277" s="51"/>
+      <c r="I277" s="51"/>
+      <c r="J277" s="51"/>
+      <c r="K277" s="50" t="s">
         <v>1697</v>
       </c>
-      <c r="L179" s="52">
+      <c r="L277" s="52">
         <v>223</v>
       </c>
-      <c r="M179" s="51"/>
-      <c r="N179" s="34"/>
-    </row>
-    <row r="180" spans="1:14" ht="15.75" thickBot="1">
-      <c r="B180" t="s">
+      <c r="M277" s="51"/>
+    </row>
+    <row r="278" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B278" t="s">
         <v>1691</v>
       </c>
-      <c r="G180" s="50"/>
-      <c r="H180" s="51"/>
-      <c r="I180" s="51"/>
-      <c r="J180" s="51"/>
-      <c r="K180" s="53" t="s">
+      <c r="G278" s="50"/>
+      <c r="H278" s="51"/>
+      <c r="I278" s="51"/>
+      <c r="J278" s="51"/>
+      <c r="K278" s="53" t="s">
         <v>1698</v>
       </c>
-      <c r="L180" s="55" t="s">
+      <c r="L278" s="55" t="s">
         <v>1696</v>
       </c>
-      <c r="M180" s="51"/>
-      <c r="N180" s="34"/>
-    </row>
-    <row r="181" spans="1:14">
-      <c r="G181" s="50"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="51"/>
-      <c r="J181" s="51"/>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="51"/>
-      <c r="N181" s="34"/>
-    </row>
-    <row r="182" spans="1:14">
-      <c r="B182" t="s">
+      <c r="M278" s="51"/>
+    </row>
+    <row r="279" spans="1:13">
+      <c r="G279" s="50"/>
+      <c r="H279" s="51"/>
+      <c r="I279" s="51"/>
+      <c r="J279" s="51"/>
+      <c r="K279" s="51"/>
+      <c r="L279" s="51"/>
+      <c r="M279" s="51"/>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="B280" t="s">
         <v>1849</v>
       </c>
-      <c r="G182" s="33"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="34"/>
-    </row>
-    <row r="183" spans="1:14" ht="15.75" thickBot="1">
-      <c r="C183" t="s">
+      <c r="G280" s="33"/>
+      <c r="H280" s="27"/>
+      <c r="I280" s="27"/>
+      <c r="J280" s="27"/>
+      <c r="K280" s="27"/>
+      <c r="L280" s="27"/>
+      <c r="M280" s="27"/>
+    </row>
+    <row r="281" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C281" t="s">
         <v>1850</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D281" t="s">
         <v>1852</v>
       </c>
-      <c r="G183" s="35"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
-      <c r="L183" s="36"/>
-      <c r="M183" s="36"/>
-      <c r="N183" s="37"/>
-    </row>
-    <row r="184" spans="1:14">
-      <c r="C184" t="s">
+      <c r="G281" s="35"/>
+      <c r="H281" s="36"/>
+      <c r="I281" s="36"/>
+      <c r="J281" s="36"/>
+      <c r="K281" s="36"/>
+      <c r="L281" s="36"/>
+      <c r="M281" s="36"/>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="C282" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
-      <c r="B185" t="s">
+    <row r="283" spans="1:13">
+      <c r="B283" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
-      <c r="A187" t="s">
+    <row r="285" spans="1:13">
+      <c r="A285" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
-      <c r="F188" s="29" t="s">
+    <row r="286" spans="1:13">
+      <c r="F286" s="29" t="s">
         <v>1853</v>
       </c>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29" t="s">
+      <c r="G286" s="29"/>
+      <c r="H286" s="29" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
-      <c r="G189" s="29" t="s">
+    <row r="287" spans="1:13">
+      <c r="G287" s="29" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="191" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A191" t="s">
+    <row r="288" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="289" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A289" t="s">
         <v>1856</v>
       </c>
-      <c r="G191" s="30" t="s">
+      <c r="G289" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="H191" s="31" t="s">
+      <c r="H289" s="31" t="s">
         <v>1432</v>
       </c>
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="31"/>
-      <c r="L191" s="31"/>
-      <c r="M191" s="32"/>
-    </row>
-    <row r="192" spans="1:14">
-      <c r="B192" t="s">
+      <c r="I289" s="31"/>
+      <c r="J289" s="31"/>
+      <c r="K289" s="31"/>
+      <c r="L289" s="31"/>
+      <c r="M289" s="32"/>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="B290" t="s">
         <v>1857</v>
       </c>
-      <c r="G192" s="33" t="s">
+      <c r="G290" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="27" t="s">
+      <c r="H290" s="27"/>
+      <c r="I290" s="27"/>
+      <c r="J290" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="K192" s="30" t="s">
+      <c r="K290" s="30" t="s">
         <v>1862</v>
       </c>
-      <c r="L192" s="32">
+      <c r="L290" s="32">
         <v>150</v>
       </c>
-      <c r="M192" s="34"/>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="G193" s="33"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="33"/>
-      <c r="L193" s="34"/>
-      <c r="M193" s="34"/>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="B194" t="s">
+      <c r="M290" s="34"/>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="G291" s="33"/>
+      <c r="H291" s="27"/>
+      <c r="I291" s="27"/>
+      <c r="J291" s="27"/>
+      <c r="K291" s="33"/>
+      <c r="L291" s="34"/>
+      <c r="M291" s="34"/>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="B292" t="s">
         <v>1860</v>
       </c>
-      <c r="G194" s="33"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="33"/>
-      <c r="L194" s="34"/>
-      <c r="M194" s="34"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="C195" t="s">
+      <c r="G292" s="33"/>
+      <c r="H292" s="27"/>
+      <c r="I292" s="27"/>
+      <c r="J292" s="27"/>
+      <c r="K292" s="33"/>
+      <c r="L292" s="34"/>
+      <c r="M292" s="34"/>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="C293" t="s">
         <v>1861</v>
       </c>
-      <c r="G195" s="33"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
-      <c r="K195" s="33"/>
-      <c r="L195" s="34"/>
-      <c r="M195" s="34"/>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B196" t="s">
+      <c r="G293" s="33"/>
+      <c r="H293" s="27"/>
+      <c r="I293" s="27"/>
+      <c r="J293" s="27"/>
+      <c r="K293" s="33"/>
+      <c r="L293" s="34"/>
+      <c r="M293" s="34"/>
+    </row>
+    <row r="294" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B294" t="s">
         <v>144</v>
       </c>
-      <c r="G196" s="33"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="35"/>
-      <c r="L196" s="37"/>
-      <c r="M196" s="34"/>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" t="s">
+      <c r="G294" s="33"/>
+      <c r="H294" s="27"/>
+      <c r="I294" s="27"/>
+      <c r="J294" s="27"/>
+      <c r="K294" s="35"/>
+      <c r="L294" s="37"/>
+      <c r="M294" s="34"/>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" t="s">
         <v>144</v>
       </c>
-      <c r="G197" s="33"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="34"/>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="G198" s="33"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="34"/>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" t="s">
+      <c r="G295" s="33"/>
+      <c r="H295" s="27"/>
+      <c r="I295" s="27"/>
+      <c r="J295" s="27"/>
+      <c r="K295" s="27"/>
+      <c r="L295" s="27"/>
+      <c r="M295" s="34"/>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="G296" s="33"/>
+      <c r="H296" s="27"/>
+      <c r="I296" s="27"/>
+      <c r="J296" s="27"/>
+      <c r="K296" s="27"/>
+      <c r="L296" s="27"/>
+      <c r="M296" s="34"/>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" t="s">
         <v>1855</v>
       </c>
-      <c r="G199" s="33"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
-      <c r="L199" s="27"/>
-      <c r="M199" s="34"/>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="B200" t="s">
+      <c r="G297" s="33"/>
+      <c r="H297" s="27"/>
+      <c r="I297" s="27"/>
+      <c r="J297" s="27"/>
+      <c r="K297" s="27"/>
+      <c r="L297" s="27"/>
+      <c r="M297" s="34"/>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="B298" t="s">
         <v>356</v>
       </c>
-      <c r="G200" s="33"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
-      <c r="M200" s="34"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="B201" t="s">
+      <c r="G298" s="33"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27"/>
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="27"/>
+      <c r="M298" s="34"/>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="B299" t="s">
         <v>1858</v>
       </c>
-      <c r="G201" s="33"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
-      <c r="M201" s="34"/>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="C202" t="s">
+      <c r="G299" s="33"/>
+      <c r="H299" s="27"/>
+      <c r="I299" s="27"/>
+      <c r="J299" s="27"/>
+      <c r="K299" s="27"/>
+      <c r="L299" s="27"/>
+      <c r="M299" s="34"/>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="C300" t="s">
         <v>1859</v>
       </c>
-      <c r="G202" s="33"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="27"/>
-      <c r="L202" s="27"/>
-      <c r="M202" s="34"/>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="B203" t="s">
+      <c r="G300" s="33"/>
+      <c r="H300" s="27"/>
+      <c r="I300" s="27"/>
+      <c r="J300" s="27"/>
+      <c r="K300" s="27"/>
+      <c r="L300" s="27"/>
+      <c r="M300" s="34"/>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="B301" t="s">
         <v>144</v>
       </c>
-      <c r="G203" s="33"/>
-      <c r="H203" s="27" t="s">
+      <c r="G301" s="33"/>
+      <c r="H301" s="27" t="s">
         <v>1853</v>
       </c>
-      <c r="I203" s="27" t="s">
+      <c r="I301" s="27" t="s">
         <v>1863</v>
       </c>
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
-      <c r="L203" s="27"/>
-      <c r="M203" s="34"/>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" t="s">
+      <c r="J301" s="27"/>
+      <c r="K301" s="27"/>
+      <c r="L301" s="27"/>
+      <c r="M301" s="34"/>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" t="s">
         <v>144</v>
       </c>
-      <c r="G204" s="33"/>
-      <c r="H204" s="27" t="s">
+      <c r="G302" s="33"/>
+      <c r="H302" s="27" t="s">
         <v>1853</v>
       </c>
-      <c r="I204" s="27" t="s">
+      <c r="I302" s="27" t="s">
         <v>1864</v>
       </c>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="27"/>
-      <c r="M204" s="34"/>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="G205" s="33"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="27"/>
-      <c r="M205" s="34"/>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" t="s">
+      <c r="J302" s="27"/>
+      <c r="K302" s="27"/>
+      <c r="L302" s="27"/>
+      <c r="M302" s="34"/>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="G303" s="33"/>
+      <c r="H303" s="27"/>
+      <c r="I303" s="27"/>
+      <c r="J303" s="27"/>
+      <c r="K303" s="27"/>
+      <c r="L303" s="27"/>
+      <c r="M303" s="34"/>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="A304" t="s">
         <v>729</v>
       </c>
-      <c r="G206" s="33"/>
-      <c r="H206" s="27" t="s">
+      <c r="G304" s="33"/>
+      <c r="H304" s="27" t="s">
         <v>728</v>
       </c>
-      <c r="I206" s="27" t="s">
+      <c r="I304" s="27" t="s">
         <v>1863</v>
       </c>
-      <c r="J206" s="27"/>
-      <c r="K206" s="27"/>
-      <c r="L206" s="27"/>
-      <c r="M206" s="34"/>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" thickBot="1">
-      <c r="G207" s="35"/>
-      <c r="H207" s="36" t="s">
+      <c r="J304" s="27"/>
+      <c r="K304" s="27"/>
+      <c r="L304" s="27"/>
+      <c r="M304" s="34"/>
+    </row>
+    <row r="305" spans="1:13" ht="15.75" thickBot="1">
+      <c r="G305" s="35"/>
+      <c r="H305" s="36" t="s">
         <v>728</v>
       </c>
-      <c r="I207" s="27" t="s">
+      <c r="I305" s="27" t="s">
         <v>1864</v>
       </c>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
-      <c r="L207" s="36"/>
-      <c r="M207" s="37"/>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" t="s">
+      <c r="J305" s="36"/>
+      <c r="K305" s="36"/>
+      <c r="L305" s="36"/>
+      <c r="M305" s="37"/>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="A307" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="212" spans="1:13">
-      <c r="A212" t="s">
+    <row r="309" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="310" spans="1:13">
+      <c r="A310" t="s">
         <v>1865</v>
       </c>
-      <c r="G212" s="30"/>
-      <c r="H212" s="31"/>
-      <c r="I212" s="31"/>
-      <c r="J212" s="31"/>
-      <c r="K212" s="31"/>
-      <c r="L212" s="31"/>
-      <c r="M212" s="32"/>
-    </row>
-    <row r="213" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B213" t="s">
+      <c r="G310" s="30"/>
+      <c r="H310" s="31"/>
+      <c r="I310" s="31"/>
+      <c r="J310" s="31"/>
+      <c r="K310" s="31"/>
+      <c r="L310" s="31"/>
+      <c r="M310" s="32"/>
+    </row>
+    <row r="311" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B311" t="s">
         <v>1866</v>
       </c>
-      <c r="G213" s="33"/>
-      <c r="H213" s="38" t="s">
+      <c r="G311" s="33"/>
+      <c r="H311" s="38" t="s">
         <v>760</v>
       </c>
-      <c r="I213" s="39"/>
-      <c r="J213" s="39"/>
-      <c r="K213" s="39"/>
-      <c r="L213" s="39"/>
-      <c r="M213" s="34"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="B214" t="s">
+      <c r="I311" s="39"/>
+      <c r="J311" s="39"/>
+      <c r="K311" s="39"/>
+      <c r="L311" s="39"/>
+      <c r="M311" s="34"/>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="B312" t="s">
         <v>1867</v>
       </c>
-      <c r="G214" s="33"/>
-      <c r="H214" s="38"/>
-      <c r="I214" s="30" t="s">
+      <c r="G312" s="33"/>
+      <c r="H312" s="38"/>
+      <c r="I312" s="30" t="s">
         <v>1880</v>
       </c>
-      <c r="J214" s="31"/>
-      <c r="K214" s="32"/>
-      <c r="L214" s="39"/>
-      <c r="M214" s="34"/>
-    </row>
-    <row r="215" spans="1:13">
-      <c r="C215" t="s">
+      <c r="J312" s="31"/>
+      <c r="K312" s="32"/>
+      <c r="L312" s="39"/>
+      <c r="M312" s="34"/>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="C313" t="s">
         <v>1868</v>
       </c>
-      <c r="G215" s="33"/>
-      <c r="H215" s="131"/>
-      <c r="I215" s="166" t="s">
+      <c r="G313" s="33"/>
+      <c r="H313" s="131"/>
+      <c r="I313" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="J215" s="27"/>
-      <c r="K215" s="34"/>
-      <c r="L215" s="39"/>
-      <c r="M215" s="34"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="B216" t="s">
+      <c r="J313" s="27"/>
+      <c r="K313" s="34"/>
+      <c r="L313" s="39"/>
+      <c r="M313" s="34"/>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="B314" t="s">
         <v>144</v>
       </c>
-      <c r="G216" s="33"/>
-      <c r="H216" s="131"/>
-      <c r="I216" s="43" t="s">
+      <c r="G314" s="33"/>
+      <c r="H314" s="131"/>
+      <c r="I314" s="43" t="s">
         <v>1876</v>
       </c>
-      <c r="J216" s="27"/>
-      <c r="K216" s="34"/>
-      <c r="L216" s="39"/>
-      <c r="M216" s="34"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="B217" t="s">
+      <c r="J314" s="27"/>
+      <c r="K314" s="34"/>
+      <c r="L314" s="39"/>
+      <c r="M314" s="34"/>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="B315" t="s">
         <v>1869</v>
       </c>
-      <c r="G217" s="33"/>
-      <c r="H217" s="38"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="34"/>
-      <c r="L217" s="39"/>
-      <c r="M217" s="34"/>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="C218" t="s">
+      <c r="G315" s="33"/>
+      <c r="H315" s="38"/>
+      <c r="I315" s="33"/>
+      <c r="J315" s="27"/>
+      <c r="K315" s="34"/>
+      <c r="L315" s="39"/>
+      <c r="M315" s="34"/>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="C316" t="s">
         <v>1870</v>
       </c>
-      <c r="G218" s="33"/>
-      <c r="H218" s="131"/>
-      <c r="I218" s="166" t="s">
+      <c r="G316" s="33"/>
+      <c r="H316" s="131"/>
+      <c r="I316" s="166" t="s">
         <v>1877</v>
       </c>
-      <c r="J218" s="27"/>
-      <c r="K218" s="34"/>
-      <c r="L218" s="39"/>
-      <c r="M218" s="34"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="B219" t="s">
+      <c r="J316" s="27"/>
+      <c r="K316" s="34"/>
+      <c r="L316" s="39"/>
+      <c r="M316" s="34"/>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="B317" t="s">
         <v>144</v>
       </c>
-      <c r="G219" s="33"/>
-      <c r="H219" s="131"/>
-      <c r="I219" s="166" t="s">
+      <c r="G317" s="33"/>
+      <c r="H317" s="131"/>
+      <c r="I317" s="166" t="s">
         <v>1879</v>
       </c>
-      <c r="J219" s="27"/>
-      <c r="K219" s="34"/>
-      <c r="L219" s="39"/>
-      <c r="M219" s="34"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" t="s">
+      <c r="J317" s="27"/>
+      <c r="K317" s="34"/>
+      <c r="L317" s="39"/>
+      <c r="M317" s="34"/>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" t="s">
         <v>144</v>
       </c>
-      <c r="G220" s="33"/>
-      <c r="H220" s="131"/>
-      <c r="I220" s="43" t="s">
+      <c r="G318" s="33"/>
+      <c r="H318" s="131"/>
+      <c r="I318" s="43" t="s">
         <v>1878</v>
       </c>
-      <c r="J220" s="27"/>
-      <c r="K220" s="34"/>
-      <c r="L220" s="39"/>
-      <c r="M220" s="34"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="G221" s="33"/>
-      <c r="H221" s="38"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="34"/>
-      <c r="L221" s="39"/>
-      <c r="M221" s="34"/>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A222" t="s">
+      <c r="J318" s="27"/>
+      <c r="K318" s="34"/>
+      <c r="L318" s="39"/>
+      <c r="M318" s="34"/>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="G319" s="33"/>
+      <c r="H319" s="38"/>
+      <c r="I319" s="33"/>
+      <c r="J319" s="27"/>
+      <c r="K319" s="34"/>
+      <c r="L319" s="39"/>
+      <c r="M319" s="34"/>
+    </row>
+    <row r="320" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A320" t="s">
         <v>1871</v>
       </c>
-      <c r="G222" s="33"/>
-      <c r="H222" s="38"/>
-      <c r="I222" s="35"/>
-      <c r="J222" s="36"/>
-      <c r="K222" s="37"/>
-      <c r="L222" s="39"/>
-      <c r="M222" s="34"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="B223" t="s">
+      <c r="G320" s="33"/>
+      <c r="H320" s="38"/>
+      <c r="I320" s="35"/>
+      <c r="J320" s="36"/>
+      <c r="K320" s="37"/>
+      <c r="L320" s="39"/>
+      <c r="M320" s="34"/>
+    </row>
+    <row r="321" spans="1:13">
+      <c r="B321" t="s">
         <v>1872</v>
       </c>
-      <c r="G223" s="33"/>
-      <c r="H223" s="38"/>
-      <c r="I223" s="39"/>
-      <c r="J223" s="39"/>
-      <c r="K223" s="39"/>
-      <c r="L223" s="39"/>
-      <c r="M223" s="34"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="B224" t="s">
+      <c r="G321" s="33"/>
+      <c r="H321" s="38"/>
+      <c r="I321" s="39"/>
+      <c r="J321" s="39"/>
+      <c r="K321" s="39"/>
+      <c r="L321" s="39"/>
+      <c r="M321" s="34"/>
+    </row>
+    <row r="322" spans="1:13">
+      <c r="B322" t="s">
         <v>1873</v>
       </c>
-      <c r="G224" s="33"/>
-      <c r="H224" s="38"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
-      <c r="K224" s="27"/>
-      <c r="L224" s="27"/>
-      <c r="M224" s="34"/>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="C225" t="s">
+      <c r="G322" s="33"/>
+      <c r="H322" s="38"/>
+      <c r="I322" s="27"/>
+      <c r="J322" s="27"/>
+      <c r="K322" s="27"/>
+      <c r="L322" s="27"/>
+      <c r="M322" s="34"/>
+    </row>
+    <row r="323" spans="1:13">
+      <c r="C323" t="s">
         <v>1874</v>
       </c>
-      <c r="G225" s="33"/>
-      <c r="H225" s="27" t="s">
+      <c r="G323" s="33"/>
+      <c r="H323" s="27" t="s">
         <v>1881</v>
       </c>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
-      <c r="L225" s="27"/>
-      <c r="M225" s="34"/>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="B226" t="s">
+      <c r="I323" s="27"/>
+      <c r="J323" s="27"/>
+      <c r="K323" s="27"/>
+      <c r="L323" s="27"/>
+      <c r="M323" s="34"/>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="B324" t="s">
         <v>144</v>
       </c>
-      <c r="G226" s="33"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
-      <c r="J226" s="27"/>
-      <c r="K226" s="27"/>
-      <c r="L226" s="27"/>
-      <c r="M226" s="34"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" t="s">
+      <c r="G324" s="33"/>
+      <c r="H324" s="27"/>
+      <c r="I324" s="27"/>
+      <c r="J324" s="27"/>
+      <c r="K324" s="27"/>
+      <c r="L324" s="27"/>
+      <c r="M324" s="34"/>
+    </row>
+    <row r="325" spans="1:13">
+      <c r="A325" t="s">
         <v>144</v>
       </c>
-      <c r="G227" s="33"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
-      <c r="L227" s="27"/>
-      <c r="M227" s="34"/>
-    </row>
-    <row r="228" spans="1:13" ht="15.75" thickBot="1">
-      <c r="G228" s="35"/>
-      <c r="H228" s="36"/>
-      <c r="I228" s="36"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
-      <c r="L228" s="36"/>
-      <c r="M228" s="37"/>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="165" t="s">
+      <c r="G325" s="33"/>
+      <c r="H325" s="27"/>
+      <c r="I325" s="27"/>
+      <c r="J325" s="27"/>
+      <c r="K325" s="27"/>
+      <c r="L325" s="27"/>
+      <c r="M325" s="34"/>
+    </row>
+    <row r="326" spans="1:13" ht="15.75" thickBot="1">
+      <c r="G326" s="35"/>
+      <c r="H326" s="36"/>
+      <c r="I326" s="36"/>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
+      <c r="L326" s="36"/>
+      <c r="M326" s="37"/>
+    </row>
+    <row r="327" spans="1:13">
+      <c r="A327" s="165" t="s">
         <v>1875</v>
       </c>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
+      <c r="B327" s="29"/>
+      <c r="C327" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51354,7 +51711,7 @@
   <dimension ref="A1:V411"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:P9"/>
+      <selection activeCell="N9" sqref="N9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="3270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6306" uniqueCount="3288">
   <si>
     <t>USER</t>
   </si>
@@ -10116,6 +10116,60 @@
   </si>
   <si>
     <t>Student s3=new Student("mike",12);</t>
+  </si>
+  <si>
+    <t>public String color="red";</t>
+  </si>
+  <si>
+    <t>public int door=4;</t>
+  </si>
+  <si>
+    <t>public String musicSystem="dolby";</t>
+  </si>
+  <si>
+    <t>public Car(String c) {</t>
+  </si>
+  <si>
+    <t>public Car(String c,int d) {</t>
+  </si>
+  <si>
+    <t>public Car(String c,int d,String m) {</t>
+  </si>
+  <si>
+    <t>musicSystem=m;</t>
+  </si>
+  <si>
+    <t>Car customer1=new Car("black");</t>
+  </si>
+  <si>
+    <t>Car customer2=new Car("green",2);</t>
+  </si>
+  <si>
+    <t>Car customer3=new Car("white",2,"DTS");</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>// RHS value transferred to LHS variable</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>sysout(customer1.door)</t>
+  </si>
+  <si>
+    <t>sysout(customer2.color)</t>
+  </si>
+  <si>
+    <t>sysout(customer3.music);</t>
+  </si>
+  <si>
+    <t>inherit father and mother</t>
+  </si>
+  <si>
+    <t>confusion/ambiguity</t>
   </si>
 </sst>
 </file>
@@ -20683,8 +20737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20955,7 +21009,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="34"/>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="1:16">
       <c r="E17" s="33"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -20966,7 +21020,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1">
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -20977,33 +21031,383 @@
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="5:16" ht="15.75" thickBot="1"/>
-    <row r="20" spans="5:16">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:16">
       <c r="P20" s="32"/>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A21" t="s">
+        <v>2045</v>
+      </c>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B22" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="1:16">
+      <c r="B23" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="1:16">
+      <c r="B24" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>2629</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51" t="s">
+        <v>1694</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>2058</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="1:16">
+      <c r="F25" s="33" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M25" s="52">
+        <v>4</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B26" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54" t="s">
+        <v>3280</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="1:16">
+      <c r="C27" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="5:16" ht="15.75" thickBot="1">
+    <row r="28" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="34"/>
       <c r="P28" s="37"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="C30" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F30" s="33">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3283</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51" t="s">
+        <v>1694</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>2059</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="C31" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3284</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M31" s="52">
+        <v>2</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54" t="s">
+        <v>3280</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N32" s="27"/>
+      <c r="O32" s="34"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="B33" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="34"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C34" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="34"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="C35" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27" t="s">
+        <v>2630</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="C36" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51" t="s">
+        <v>1694</v>
+      </c>
+      <c r="M36" s="52" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N36" s="27"/>
+      <c r="O36" s="34"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M37" s="52">
+        <v>2</v>
+      </c>
+      <c r="N37" s="27"/>
+      <c r="O37" s="34"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1">
+      <c r="F38" s="33"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54" t="s">
+        <v>3280</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>3282</v>
+      </c>
+      <c r="N38" s="27"/>
+      <c r="O38" s="34"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>3277</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="34"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A41" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="100" spans="1:13" ht="15.75" thickBot="1">
@@ -22582,8 +22986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22860,6 +23264,9 @@
       <c r="H55" t="s">
         <v>728</v>
       </c>
+      <c r="I55" t="s">
+        <v>3286</v>
+      </c>
     </row>
     <row r="56" spans="2:22">
       <c r="H56" s="30"/>
@@ -22882,6 +23289,9 @@
         <v>730</v>
       </c>
       <c r="J58" s="34"/>
+      <c r="K58" t="s">
+        <v>3287</v>
+      </c>
     </row>
     <row r="59" spans="2:22">
       <c r="H59" s="33"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6306" uniqueCount="3288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="3290">
   <si>
     <t>USER</t>
   </si>
@@ -9154,15 +9154,6 @@
     <t>Iphone6 &gt;</t>
   </si>
   <si>
-    <t>Iphone i1=new Iphone();</t>
-  </si>
-  <si>
-    <t>Iphone i2=new Iphone6();</t>
-  </si>
-  <si>
-    <t>Iphone i3=new IphoneX();</t>
-  </si>
-  <si>
     <t>Phone Calls</t>
   </si>
   <si>
@@ -9238,15 +9229,6 @@
     <t>cust2</t>
   </si>
   <si>
-    <t>static String bankName="Chase";</t>
-  </si>
-  <si>
-    <t>not shared</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
     <t>cust1.bankName="abcd";</t>
   </si>
   <si>
@@ -9256,13 +9238,6 @@
     <t>sysout( cust2.bankname);</t>
   </si>
   <si>
-    <t>bankName
-abcd</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
     <t>cust1.name="mike";</t>
   </si>
   <si>
@@ -10169,7 +10144,37 @@
     <t>inherit father and mother</t>
   </si>
   <si>
-    <t>confusion/ambiguity</t>
+    <t>Iphone i=new IphoneX();</t>
+  </si>
+  <si>
+    <t>new Iphonex();</t>
+  </si>
+  <si>
+    <t>Typecasting = unlock the disabled/hidden feature underneath</t>
+  </si>
+  <si>
+    <t>(IphoneX) I ).faceRecog();</t>
+  </si>
+  <si>
+    <t>Interface parent</t>
+  </si>
+  <si>
+    <t>Liberal</t>
+  </si>
+  <si>
+    <t>public default void occupation(){</t>
+  </si>
+  <si>
+    <t>sysout(it);</t>
+  </si>
+  <si>
+    <t>sysout(doctor);</t>
+  </si>
+  <si>
+    <t>String bankName="Chase";</t>
+  </si>
+  <si>
+    <t>Chase</t>
   </si>
 </sst>
 </file>
@@ -10763,7 +10768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11469,15 +11474,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11490,6 +11486,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11805,13 +11807,13 @@
         <v>1904</v>
       </c>
       <c r="E1" t="s">
-        <v>3233</v>
+        <v>3225</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>3239</v>
+        <v>3231</v>
       </c>
       <c r="K1" t="s">
-        <v>3240</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
@@ -11895,7 +11897,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" t="s">
-        <v>3237</v>
+        <v>3229</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="27"/>
@@ -11912,7 +11914,7 @@
         <v>1512</v>
       </c>
       <c r="D7" t="s">
-        <v>3236</v>
+        <v>3228</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -11982,7 +11984,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>3232</v>
+        <v>3224</v>
       </c>
       <c r="E11" s="179" t="s">
         <v>178</v>
@@ -12020,7 +12022,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>3238</v>
+        <v>3230</v>
       </c>
       <c r="E13" s="205"/>
       <c r="F13" s="174"/>
@@ -12038,7 +12040,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="E14" s="205"/>
       <c r="F14" s="174"/>
@@ -12086,7 +12088,7 @@
         <v>2764</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>3234</v>
+        <v>3226</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -12111,7 +12113,7 @@
         <v>192</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>3235</v>
+        <v>3227</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -19420,7 +19422,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>3258</v>
+        <v>3250</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -19440,7 +19442,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="A2" s="96" t="s">
-        <v>3259</v>
+        <v>3251</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -19812,7 +19814,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="125"/>
       <c r="G18" s="147" t="s">
-        <v>3260</v>
+        <v>3252</v>
       </c>
       <c r="H18" s="149" t="s">
         <v>1657</v>
@@ -19842,7 +19844,7 @@
       </c>
       <c r="F19" s="96"/>
       <c r="G19" s="146" t="s">
-        <v>3261</v>
+        <v>3253</v>
       </c>
       <c r="H19" s="149"/>
       <c r="I19" s="288"/>
@@ -19869,7 +19871,7 @@
         <v>584</v>
       </c>
       <c r="F20" s="288" t="s">
-        <v>3262</v>
+        <v>3254</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="64" t="s">
@@ -20749,7 +20751,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="165" t="s">
-        <v>3263</v>
+        <v>3255</v>
       </c>
       <c r="B1" s="165"/>
       <c r="E1" s="78" t="s">
@@ -20832,7 +20834,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="B5" t="s">
-        <v>3264</v>
+        <v>3256</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="51"/>
@@ -20862,7 +20864,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>3265</v>
+        <v>3257</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -20940,7 +20942,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>3266</v>
+        <v>3258</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
@@ -20958,7 +20960,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>3267</v>
+        <v>3259</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
@@ -20972,7 +20974,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>3268</v>
+        <v>3260</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -20986,7 +20988,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>3269</v>
+        <v>3261</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="27"/>
@@ -21043,7 +21045,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1">
       <c r="B22" t="s">
-        <v>3270</v>
+        <v>3262</v>
       </c>
       <c r="F22" s="78" t="s">
         <v>1620</v>
@@ -21063,7 +21065,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
-        <v>3271</v>
+        <v>3263</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>1939</v>
@@ -21085,7 +21087,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="B24" t="s">
-        <v>3272</v>
+        <v>3264</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>1940</v>
@@ -21130,7 +21132,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="B26" t="s">
-        <v>3273</v>
+        <v>3265</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="27"/>
@@ -21139,7 +21141,7 @@
       <c r="J26" s="27"/>
       <c r="K26" s="53"/>
       <c r="L26" s="54" t="s">
-        <v>3280</v>
+        <v>3272</v>
       </c>
       <c r="M26" s="55" t="s">
         <v>2050</v>
@@ -21153,7 +21155,7 @@
         <v>2053</v>
       </c>
       <c r="D27" t="s">
-        <v>3281</v>
+        <v>3273</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="27"/>
@@ -21185,7 +21187,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="B29" t="s">
-        <v>3274</v>
+        <v>3266</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="27"/>
@@ -21208,7 +21210,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>3283</v>
+        <v>3275</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="50"/>
@@ -21229,7 +21231,7 @@
         <v>2059</v>
       </c>
       <c r="G31" t="s">
-        <v>3284</v>
+        <v>3276</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="50"/>
@@ -21247,15 +21249,15 @@
         <v>144</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>3282</v>
+        <v>3274</v>
       </c>
       <c r="G32" t="s">
-        <v>3285</v>
+        <v>3277</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="53"/>
       <c r="L32" s="54" t="s">
-        <v>3280</v>
+        <v>3272</v>
       </c>
       <c r="M32" s="55" t="s">
         <v>2050</v>
@@ -21265,7 +21267,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="B33" t="s">
-        <v>3275</v>
+        <v>3267</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="27"/>
@@ -21312,7 +21314,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="C36" t="s">
-        <v>3276</v>
+        <v>3268</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="27"/>
@@ -21356,17 +21358,17 @@
       <c r="J38" s="27"/>
       <c r="K38" s="53"/>
       <c r="L38" s="54" t="s">
-        <v>3280</v>
+        <v>3272</v>
       </c>
       <c r="M38" s="55" t="s">
-        <v>3282</v>
+        <v>3274</v>
       </c>
       <c r="N38" s="27"/>
       <c r="O38" s="34"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>3277</v>
+        <v>3269</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="27"/>
@@ -21381,7 +21383,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>3278</v>
+        <v>3270</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="27"/>
@@ -21396,7 +21398,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1">
       <c r="A41" t="s">
-        <v>3279</v>
+        <v>3271</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
@@ -22986,8 +22988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23003,19 +23005,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="H4" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="H5" t="s">
-        <v>2950</v>
-      </c>
-    </row>
     <row r="6" spans="2:13">
       <c r="H6" s="56" t="s">
-        <v>2951</v>
+        <v>3279</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -23074,13 +23066,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="289" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -23088,25 +23080,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="33" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -23123,17 +23115,17 @@
     <row r="16" spans="2:13">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -23167,6 +23159,19 @@
         <v>760</v>
       </c>
     </row>
+    <row r="20" spans="2:13">
+      <c r="K20" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="F21" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3282</v>
+      </c>
+    </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>2063</v>
@@ -23197,7 +23202,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="49" spans="2:22">
+    <row r="49" spans="1:22">
       <c r="E49" s="30"/>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
@@ -23205,34 +23210,34 @@
       <c r="L49" s="31"/>
       <c r="M49" s="32"/>
     </row>
-    <row r="50" spans="2:22">
+    <row r="50" spans="1:22">
       <c r="E50" s="33" t="s">
-        <v>725</v>
+        <v>3285</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="34"/>
       <c r="K50" s="33" t="s">
-        <v>725</v>
+        <v>3285</v>
       </c>
       <c r="L50" s="27"/>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="2:22">
+    <row r="51" spans="1:22">
       <c r="B51" t="s">
         <v>2945</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="27" t="s">
-        <v>727</v>
+        <v>3286</v>
       </c>
       <c r="G51" s="34"/>
       <c r="K51" s="33"/>
       <c r="L51" s="27" t="s">
-        <v>726</v>
+        <v>3287</v>
       </c>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="2:22" ht="15.75" thickBot="1">
+    <row r="52" spans="1:22" ht="15.75" thickBot="1">
       <c r="E52" s="35" t="s">
         <v>144</v>
       </c>
@@ -23244,7 +23249,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="2:22">
+    <row r="53" spans="1:22">
       <c r="B53" t="s">
         <v>2454</v>
       </c>
@@ -23252,12 +23257,12 @@
         <v>733</v>
       </c>
     </row>
-    <row r="54" spans="2:22">
+    <row r="54" spans="1:22">
       <c r="P54" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="15.75" thickBot="1">
+    <row r="55" spans="1:22" ht="15.75" thickBot="1">
       <c r="B55" t="s">
         <v>728</v>
       </c>
@@ -23265,35 +23270,32 @@
         <v>728</v>
       </c>
       <c r="I55" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="H56" s="30"/>
       <c r="I56" s="31"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="2:22">
+    <row r="57" spans="1:22">
       <c r="H57" s="33"/>
-      <c r="I57" t="s">
-        <v>729</v>
-      </c>
       <c r="J57" s="34"/>
       <c r="P57" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="58" spans="2:22">
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3284</v>
+      </c>
       <c r="H58" s="33"/>
-      <c r="I58" t="s">
-        <v>730</v>
-      </c>
       <c r="J58" s="34"/>
-      <c r="K58" t="s">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22">
+    </row>
+    <row r="59" spans="1:22">
       <c r="H59" s="33"/>
       <c r="I59" s="27"/>
       <c r="J59" s="34"/>
@@ -23304,12 +23306,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="60" spans="2:22">
+    <row r="60" spans="1:22">
       <c r="H60" s="33"/>
       <c r="I60" s="27"/>
       <c r="J60" s="34"/>
     </row>
-    <row r="61" spans="2:22" ht="15.75" thickBot="1">
+    <row r="61" spans="1:22" ht="15.75" thickBot="1">
       <c r="H61" s="35"/>
       <c r="I61" s="36"/>
       <c r="J61" s="37"/>
@@ -23323,7 +23325,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="63" spans="2:22">
+    <row r="63" spans="1:22">
       <c r="B63" t="s">
         <v>731</v>
       </c>
@@ -23508,16 +23510,16 @@
     </row>
     <row r="78" spans="2:21">
       <c r="B78" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="C78" t="s">
         <v>2790</v>
       </c>
       <c r="D78" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="E78" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="F78" t="s">
         <v>223</v>
@@ -23534,7 +23536,7 @@
     </row>
     <row r="79" spans="2:21">
       <c r="F79" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="I79" t="s">
         <v>144</v>
@@ -23545,16 +23547,16 @@
     </row>
     <row r="80" spans="2:21">
       <c r="B80" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="C80" t="s">
         <v>2790</v>
       </c>
       <c r="D80" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="E80" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="N80" t="s">
         <v>144</v>
@@ -23562,12 +23564,12 @@
     </row>
     <row r="81" spans="2:10">
       <c r="F81" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="F82" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="J82" t="s">
         <v>747</v>
@@ -23575,31 +23577,31 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="C83" t="s">
         <v>2790</v>
       </c>
       <c r="D83" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="E83" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="F84" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="F85" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="J87" t="s">
         <v>750</v>
@@ -25999,10 +26001,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
       <c r="P5" t="s">
-        <v>3164</v>
+        <v>3156</v>
       </c>
       <c r="Q5" t="s">
-        <v>3165</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
@@ -26025,7 +26027,7 @@
         <v>411</v>
       </c>
       <c r="Q6" t="s">
-        <v>3163</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
@@ -26042,10 +26044,10 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="P7" t="s">
-        <v>3161</v>
+        <v>3153</v>
       </c>
       <c r="Q7" t="s">
-        <v>3162</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -26065,15 +26067,15 @@
       </c>
       <c r="N8" s="337"/>
       <c r="P8" t="s">
-        <v>3147</v>
+        <v>3139</v>
       </c>
       <c r="Q8" s="142" t="s">
-        <v>3160</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
-        <v>3140</v>
+        <v>3132</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="253"/>
@@ -26102,10 +26104,10 @@
       <c r="M10" s="253"/>
       <c r="N10" s="253"/>
       <c r="P10" t="s">
-        <v>3145</v>
+        <v>3137</v>
       </c>
       <c r="Q10" s="142" t="s">
-        <v>3146</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -26122,7 +26124,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" t="s">
-        <v>3141</v>
+        <v>3133</v>
       </c>
       <c r="F12" s="327" t="s">
         <v>2659</v>
@@ -26148,7 +26150,7 @@
       <c r="M13" s="330"/>
       <c r="N13" s="330"/>
       <c r="P13" t="s">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -26192,7 +26194,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="12"/>
       <c r="P15" t="s">
-        <v>3142</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -26232,7 +26234,7 @@
       <c r="M17" s="136"/>
       <c r="N17" s="18"/>
       <c r="Q17" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
@@ -26272,7 +26274,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13" t="s">
-        <v>3181</v>
+        <v>3173</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>524</v>
@@ -26283,7 +26285,7 @@
       </c>
       <c r="N20" s="18"/>
       <c r="Q20" s="142" t="s">
-        <v>3144</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -26327,7 +26329,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="13" t="s">
-        <v>3181</v>
+        <v>3173</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>412</v>
@@ -26360,7 +26362,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="317"/>
       <c r="K25" s="22" t="s">
-        <v>3182</v>
+        <v>3174</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -26368,43 +26370,43 @@
     </row>
     <row r="27" spans="1:17">
       <c r="H27" t="s">
-        <v>3192</v>
+        <v>3184</v>
       </c>
       <c r="O27" t="s">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="P27" t="s">
-        <v>3154</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="O28" t="s">
-        <v>3155</v>
+        <v>3147</v>
       </c>
       <c r="P28" t="s">
-        <v>3150</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="O29" t="s">
-        <v>3158</v>
+        <v>3150</v>
       </c>
       <c r="P29" t="s">
-        <v>3151</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="G30" s="26"/>
       <c r="O30" t="s">
-        <v>3159</v>
+        <v>3151</v>
       </c>
       <c r="P30" t="s">
-        <v>3152</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="G31" s="326" t="s">
-        <v>3149</v>
+        <v>3141</v>
       </c>
       <c r="H31" s="326"/>
       <c r="I31" s="326"/>
@@ -26414,7 +26416,7 @@
       <c r="M31" s="326"/>
       <c r="N31" s="326"/>
       <c r="P31" t="s">
-        <v>3153</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -26592,7 +26594,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="57" t="s">
-        <v>3257</v>
+        <v>3249</v>
       </c>
       <c r="P37" s="57">
         <v>15</v>
@@ -26688,7 +26690,7 @@
       <c r="N42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" t="s">
-        <v>3157</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="43" spans="1:17 16384:16384">
@@ -26707,7 +26709,7 @@
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" t="s">
-        <v>3156</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="44" spans="1:17 16384:16384">
@@ -27220,7 +27222,7 @@
         <v>47</v>
       </c>
       <c r="J126" t="s">
-        <v>3166</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -27228,13 +27230,13 @@
         <v>1819</v>
       </c>
       <c r="J129" t="s">
-        <v>3166</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="133" spans="1:18">
       <c r="F133" s="30" t="s">
-        <v>3167</v>
+        <v>3159</v>
       </c>
       <c r="G133" s="31"/>
       <c r="H133" s="32"/>
@@ -27256,7 +27258,7 @@
         <v>2651</v>
       </c>
       <c r="G134" s="27" t="s">
-        <v>3177</v>
+        <v>3169</v>
       </c>
       <c r="H134" s="34"/>
       <c r="J134" s="33"/>
@@ -27264,21 +27266,21 @@
         <v>2214</v>
       </c>
       <c r="L134" s="27" t="s">
-        <v>3179</v>
+        <v>3171</v>
       </c>
       <c r="M134" s="34"/>
       <c r="O134" s="33" t="s">
         <v>1583</v>
       </c>
       <c r="P134" s="27" t="s">
-        <v>3180</v>
+        <v>3172</v>
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="34"/>
     </row>
     <row r="135" spans="1:18">
       <c r="A135" t="s">
-        <v>3183</v>
+        <v>3175</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="27"/>
@@ -27310,13 +27312,13 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" t="s">
-        <v>3184</v>
+        <v>3176</v>
       </c>
       <c r="E137" t="s">
-        <v>3169</v>
+        <v>3161</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>3168</v>
+        <v>3160</v>
       </c>
       <c r="G137" s="27"/>
       <c r="H137" s="34" t="s">
@@ -27387,30 +27389,30 @@
     </row>
     <row r="142" spans="1:18">
       <c r="E142" t="s">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>3170</v>
+        <v>3162</v>
       </c>
       <c r="G142" s="27"/>
       <c r="H142" s="34" t="s">
         <v>1603</v>
       </c>
       <c r="J142" s="33" t="s">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="K142" s="27" t="s">
-        <v>3170</v>
+        <v>3162</v>
       </c>
       <c r="L142" s="27"/>
       <c r="M142" s="34" t="s">
         <v>1603</v>
       </c>
       <c r="O142" s="33" t="s">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="P142" s="27" t="s">
-        <v>3170</v>
+        <v>3162</v>
       </c>
       <c r="Q142" s="27"/>
       <c r="R142" s="34" t="s">
@@ -27419,45 +27421,45 @@
     </row>
     <row r="143" spans="1:18">
       <c r="E143" t="s">
-        <v>3173</v>
+        <v>3165</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="G143" s="27"/>
       <c r="H143" s="34"/>
       <c r="J143" s="33" t="s">
-        <v>3173</v>
+        <v>3165</v>
       </c>
       <c r="K143" s="27" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="L143" s="27"/>
       <c r="M143" s="34"/>
       <c r="O143" s="33" t="s">
-        <v>3173</v>
+        <v>3165</v>
       </c>
       <c r="P143" s="27" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="Q143" s="27"/>
       <c r="R143" s="34"/>
     </row>
     <row r="144" spans="1:18">
       <c r="E144" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="27"/>
       <c r="H144" s="34"/>
       <c r="J144" s="33" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="K144" s="27"/>
       <c r="L144" s="27"/>
       <c r="M144" s="34"/>
       <c r="O144" s="33" t="s">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
@@ -27478,19 +27480,19 @@
     </row>
     <row r="146" spans="5:18">
       <c r="F146" s="80" t="s">
-        <v>3166</v>
+        <v>3158</v>
       </c>
       <c r="G146" s="27"/>
       <c r="H146" s="34"/>
       <c r="J146" s="33"/>
       <c r="K146" s="39" t="s">
-        <v>3186</v>
+        <v>3178</v>
       </c>
       <c r="L146" s="27"/>
       <c r="M146" s="34"/>
       <c r="O146" s="33"/>
       <c r="P146" s="39" t="s">
-        <v>3186</v>
+        <v>3178</v>
       </c>
       <c r="Q146" s="27"/>
       <c r="R146" s="34"/>
@@ -27510,26 +27512,26 @@
     </row>
     <row r="148" spans="5:18">
       <c r="E148" t="s">
-        <v>3176</v>
+        <v>3168</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>3175</v>
+        <v>3167</v>
       </c>
       <c r="G148" s="27"/>
       <c r="H148" s="34"/>
       <c r="J148" s="33" t="s">
-        <v>3176</v>
+        <v>3168</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>3175</v>
+        <v>3167</v>
       </c>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
       <c r="O148" s="33" t="s">
-        <v>3176</v>
+        <v>3168</v>
       </c>
       <c r="P148" s="27" t="s">
-        <v>3175</v>
+        <v>3167</v>
       </c>
       <c r="Q148" s="27"/>
       <c r="R148" s="34"/>
@@ -27562,19 +27564,19 @@
     </row>
     <row r="151" spans="5:18">
       <c r="F151" s="33" t="s">
-        <v>3174</v>
+        <v>3166</v>
       </c>
       <c r="G151" s="27"/>
       <c r="H151" s="34"/>
       <c r="J151" s="33"/>
       <c r="K151" s="27" t="s">
-        <v>3178</v>
+        <v>3170</v>
       </c>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
       <c r="O151" s="33"/>
       <c r="P151" s="27" t="s">
-        <v>3185</v>
+        <v>3177</v>
       </c>
       <c r="Q151" s="27"/>
       <c r="R151" s="34"/>
@@ -27607,7 +27609,7 @@
     </row>
     <row r="160" spans="5:18">
       <c r="F160" t="s">
-        <v>3187</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="162" spans="9:12">
@@ -27620,18 +27622,18 @@
     </row>
     <row r="163" spans="9:12">
       <c r="I163" t="s">
-        <v>3190</v>
+        <v>3182</v>
       </c>
       <c r="L163" t="s">
-        <v>3191</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="164" spans="9:12">
       <c r="I164" t="s">
-        <v>3188</v>
+        <v>3180</v>
       </c>
       <c r="L164" t="s">
-        <v>3189</v>
+        <v>3181</v>
       </c>
     </row>
   </sheetData>
@@ -27655,8 +27657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R293"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27672,20 +27674,15 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="96" t="s">
-        <v>2979</v>
-      </c>
+      <c r="A2" s="96"/>
       <c r="B2" s="96" t="s">
-        <v>2977</v>
+        <v>3288</v>
       </c>
       <c r="C2" s="96"/>
-      <c r="E2" s="57" t="s">
-        <v>1003</v>
-      </c>
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
@@ -27698,17 +27695,12 @@
       <c r="P2" s="48"/>
       <c r="Q2" s="49"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="96" t="s">
-        <v>2978</v>
-      </c>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="A3" s="96"/>
       <c r="B3" s="96" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="96"/>
-      <c r="E3" s="57" t="s">
-        <v>2984</v>
-      </c>
       <c r="G3" s="50"/>
       <c r="H3" s="51" t="s">
         <v>204</v>
@@ -27721,37 +27713,34 @@
         <v>413</v>
       </c>
       <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="343" t="s">
-        <v>2983</v>
-      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="348"/>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="96" t="s">
-        <v>2978</v>
-      </c>
+      <c r="A4" s="96"/>
       <c r="B4" s="96" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="C4" s="96"/>
-      <c r="E4" s="57" t="s">
-        <v>2984</v>
-      </c>
       <c r="G4" s="50"/>
       <c r="H4" s="51" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>413</v>
       </c>
       <c r="J4" s="51"/>
       <c r="K4" s="51"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="344"/>
+      <c r="L4" s="50" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>3289</v>
+      </c>
+      <c r="N4" s="349"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -27759,12 +27748,12 @@
     <row r="5" spans="1:17">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="C5" s="96"/>
       <c r="G5" s="50"/>
       <c r="H5" s="51" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>1951</v>
@@ -27774,10 +27763,10 @@
       <c r="L5" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="52" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="344"/>
+      <c r="N5" s="349"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -27794,12 +27783,12 @@
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
       <c r="L6" s="53" t="s">
-        <v>2975</v>
-      </c>
-      <c r="M6" s="54">
+        <v>2972</v>
+      </c>
+      <c r="M6" s="55">
         <v>12345</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="349"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -27808,7 +27797,7 @@
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="51"/>
@@ -27817,7 +27806,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="344"/>
+      <c r="N7" s="349"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -27836,8 +27825,8 @@
         <v>1951</v>
       </c>
       <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="344"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="349"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -27853,9 +27842,13 @@
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="344"/>
+      <c r="L9" s="50" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>3289</v>
+      </c>
+      <c r="N9" s="349"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -27869,17 +27862,17 @@
       <c r="L10" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="52" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="344"/>
+      <c r="N10" s="349"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="C11" s="57" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="51"/>
@@ -27887,19 +27880,19 @@
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="53" t="s">
-        <v>2975</v>
-      </c>
-      <c r="M11" s="54">
+        <v>2972</v>
+      </c>
+      <c r="M11" s="55">
         <v>12346</v>
       </c>
-      <c r="N11" s="345"/>
+      <c r="N11" s="349"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="57" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
@@ -27915,7 +27908,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="57" t="s">
-        <v>2980</v>
+        <v>2974</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
@@ -27931,7 +27924,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="57" t="s">
-        <v>2981</v>
+        <v>2975</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>2816</v>
@@ -27950,7 +27943,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="57" t="s">
-        <v>2982</v>
+        <v>2976</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>2816</v>
@@ -27982,7 +27975,7 @@
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="57" t="s">
-        <v>2985</v>
+        <v>2977</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="51"/>
@@ -27998,7 +27991,7 @@
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="57" t="s">
-        <v>2986</v>
+        <v>2978</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>559</v>
@@ -28017,7 +28010,7 @@
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="57" t="s">
-        <v>2987</v>
+        <v>2979</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>524</v>
@@ -31208,9 +31201,6 @@
       <c r="Q293" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N3:N11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31232,10 +31222,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>2988</v>
+        <v>2980</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>2992</v>
+        <v>2984</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>413</v>
@@ -31250,10 +31240,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>2989</v>
+        <v>2981</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>2993</v>
+        <v>2985</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>1951</v>
@@ -31270,10 +31260,10 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" t="s">
-        <v>2990</v>
+        <v>2982</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>2994</v>
+        <v>2986</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>2629</v>
@@ -31286,7 +31276,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>2997</v>
+        <v>2989</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>417</v>
@@ -31314,7 +31304,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="G6" s="33" t="s">
-        <v>2995</v>
+        <v>2987</v>
       </c>
       <c r="H6" s="301">
         <v>0</v>
@@ -31329,7 +31319,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2991</v>
+        <v>2983</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="301">
@@ -31347,10 +31337,10 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>2998</v>
+        <v>2990</v>
       </c>
       <c r="D8" t="s">
-        <v>3004</v>
+        <v>2996</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="301">
@@ -31370,7 +31360,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2999</v>
+        <v>2991</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="301">
@@ -31386,7 +31376,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>3000</v>
+        <v>2992</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="301">
@@ -31402,7 +31392,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>3001</v>
+        <v>2993</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
@@ -31414,7 +31404,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2996</v>
+        <v>2988</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
@@ -31435,7 +31425,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>3002</v>
+        <v>2994</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
@@ -31447,7 +31437,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>3003</v>
+        <v>2995</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -31486,7 +31476,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>3005</v>
+        <v>2997</v>
       </c>
       <c r="E22" t="s">
         <v>1914</v>
@@ -31494,7 +31484,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>3006</v>
+        <v>2998</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -31536,10 +31526,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>3007</v>
+        <v>2999</v>
       </c>
       <c r="D29" t="s">
-        <v>3014</v>
+        <v>3006</v>
       </c>
       <c r="E29" s="129">
         <v>0</v>
@@ -31548,7 +31538,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>3015</v>
+        <v>3007</v>
       </c>
       <c r="I29" s="129">
         <v>0</v>
@@ -31559,7 +31549,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>3008</v>
+        <v>3000</v>
       </c>
       <c r="E30" s="129">
         <v>1</v>
@@ -31576,7 +31566,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>3009</v>
+        <v>3001</v>
       </c>
       <c r="E31" s="129">
         <v>2</v>
@@ -31593,7 +31583,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>3010</v>
+        <v>3002</v>
       </c>
       <c r="E32" s="129">
         <v>3</v>
@@ -31610,7 +31600,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>3011</v>
+        <v>3003</v>
       </c>
       <c r="E33" s="129">
         <v>4</v>
@@ -31627,15 +31617,15 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>3013</v>
+        <v>3005</v>
       </c>
       <c r="E35" t="s">
-        <v>3016</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1"/>
@@ -34276,7 +34266,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>3020</v>
+        <v>3012</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>549</v>
@@ -34294,7 +34284,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>3021</v>
+        <v>3013</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>550</v>
@@ -34334,7 +34324,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>3023</v>
+        <v>3015</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>1140</v>
@@ -34369,10 +34359,10 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>3046</v>
+        <v>3038</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>2767</v>
@@ -34435,7 +34425,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="33"/>
       <c r="L12" s="38" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -34472,18 +34462,18 @@
     </row>
     <row r="17" spans="1:15">
       <c r="G17" t="s">
-        <v>3022</v>
+        <v>3014</v>
       </c>
       <c r="I17" t="s">
-        <v>3025</v>
+        <v>3017</v>
       </c>
       <c r="K17" t="s">
-        <v>3026</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="K18" s="56" t="s">
-        <v>3027</v>
+        <v>3019</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -34492,7 +34482,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>3033</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
@@ -34510,7 +34500,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="27"/>
@@ -34518,7 +34508,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="303" t="s">
-        <v>3039</v>
+        <v>3031</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
@@ -34526,13 +34516,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>3032</v>
+        <v>3024</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>549</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>3036</v>
+        <v>3028</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -34541,14 +34531,14 @@
         <v>1908</v>
       </c>
       <c r="I23" s="247" t="s">
-        <v>3034</v>
+        <v>3026</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>3030</v>
+        <v>3022</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>2168</v>
@@ -34570,7 +34560,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="38"/>
@@ -34593,7 +34583,7 @@
         <v>413</v>
       </c>
       <c r="F26" s="307" t="s">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="304" t="s">
@@ -34615,14 +34605,14 @@
         <v>2631</v>
       </c>
       <c r="I27" s="247" t="s">
-        <v>3040</v>
+        <v>3032</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>3044</v>
+        <v>3036</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="38"/>
@@ -34630,27 +34620,27 @@
       <c r="F28" s="38"/>
       <c r="G28" s="27"/>
       <c r="H28" s="304" t="s">
-        <v>3035</v>
+        <v>3027</v>
       </c>
       <c r="I28" s="246" t="s">
-        <v>3041</v>
+        <v>3033</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>3045</v>
+        <v>3037</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
       <c r="H29" s="304" t="s">
-        <v>3036</v>
+        <v>3028</v>
       </c>
       <c r="I29" s="247" t="s">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -34665,7 +34655,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="27"/>
       <c r="H30" s="304" t="s">
-        <v>3037</v>
+        <v>3029</v>
       </c>
       <c r="I30" s="247"/>
       <c r="J30" s="34"/>
@@ -34679,7 +34669,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="27"/>
       <c r="H31" s="304" t="s">
-        <v>3038</v>
+        <v>3030</v>
       </c>
       <c r="I31" s="246"/>
       <c r="J31" s="34"/>
@@ -34714,7 +34704,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>3043</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -39940,7 +39930,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="B333" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="27" t="s">
@@ -40023,7 +40013,7 @@
     </row>
     <row r="340" spans="2:12">
       <c r="B340" t="s">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="D340" t="s">
         <v>412</v>
@@ -40038,7 +40028,7 @@
     </row>
     <row r="341" spans="2:12">
       <c r="B341" t="s">
-        <v>3019</v>
+        <v>3011</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="27"/>
@@ -40108,59 +40098,59 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>3056</v>
+        <v>3048</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>3050</v>
+        <v>3042</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>3051</v>
+        <v>3043</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>3048</v>
+        <v>3040</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>3049</v>
+        <v>3041</v>
       </c>
       <c r="I4" t="s">
-        <v>3063</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>3057</v>
+        <v>3049</v>
       </c>
       <c r="I5" t="s">
-        <v>3064</v>
+        <v>3056</v>
       </c>
       <c r="K5" t="s">
-        <v>3054</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="G6" t="s">
-        <v>3062</v>
+        <v>3054</v>
       </c>
       <c r="K6" t="s">
-        <v>3061</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="G7" s="43"/>
       <c r="I7" s="43" t="s">
-        <v>3052</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="C8" t="s">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="G8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>3053</v>
+        <v>3045</v>
       </c>
       <c r="K8" t="s">
-        <v>3059</v>
+        <v>3051</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -40172,7 +40162,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>3060</v>
+        <v>3052</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -40193,7 +40183,7 @@
     <row r="11" spans="2:13">
       <c r="G11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>3047</v>
+        <v>3039</v>
       </c>
       <c r="K11" t="s">
         <v>2187</v>
@@ -40216,30 +40206,30 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>3055</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="346" t="s">
+      <c r="B22" s="343" t="s">
         <v>1250</v>
       </c>
-      <c r="C22" s="346"/>
+      <c r="C22" s="343"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="346" t="s">
+      <c r="F22" s="343" t="s">
         <v>1354</v>
       </c>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="343"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="346" t="s">
+      <c r="K22" s="343" t="s">
         <v>1252</v>
       </c>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
+      <c r="L22" s="343"/>
+      <c r="M22" s="343"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -40261,7 +40251,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
-        <v>3065</v>
+        <v>3057</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
@@ -40319,7 +40309,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="84"/>
       <c r="L26" s="175" t="s">
-        <v>3066</v>
+        <v>3058</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="106"/>
@@ -40327,7 +40317,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
       <c r="B27" s="84" t="s">
-        <v>3065</v>
+        <v>3057</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
@@ -40341,7 +40331,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="84"/>
       <c r="L27" s="175" t="s">
-        <v>3067</v>
+        <v>3059</v>
       </c>
       <c r="M27" s="75"/>
       <c r="N27" s="106"/>
@@ -40349,7 +40339,7 @@
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
       <c r="B28" s="309" t="s">
-        <v>3067</v>
+        <v>3059</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
@@ -40363,7 +40353,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="84"/>
       <c r="L28" s="175" t="s">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="106"/>
@@ -40371,7 +40361,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
       <c r="B29" s="309" t="s">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
@@ -40407,7 +40397,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="84"/>
       <c r="L30" s="246" t="s">
-        <v>3066</v>
+        <v>3058</v>
       </c>
       <c r="M30" s="75"/>
       <c r="N30" s="106"/>
@@ -40415,7 +40405,7 @@
     <row r="31" spans="1:14" s="108" customFormat="1">
       <c r="A31" s="106"/>
       <c r="B31" s="84" t="s">
-        <v>3065</v>
+        <v>3057</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
@@ -40445,7 +40435,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="84"/>
       <c r="L32" s="246" t="s">
-        <v>3066</v>
+        <v>3058</v>
       </c>
       <c r="M32" s="75"/>
       <c r="N32" s="106"/>
@@ -40481,7 +40471,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="84"/>
       <c r="L34" s="175" t="s">
-        <v>3067</v>
+        <v>3059</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="106"/>
@@ -40499,7 +40489,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="84"/>
       <c r="L35" s="175" t="s">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="106"/>
@@ -40555,10 +40545,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="F40" t="s">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="H40" t="s">
-        <v>3070</v>
+        <v>3062</v>
       </c>
       <c r="L40" s="244"/>
       <c r="P40" t="s">
@@ -42644,13 +42634,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>3072</v>
+        <v>3064</v>
       </c>
       <c r="C1" t="s">
         <v>2337</v>
       </c>
       <c r="F1" t="s">
-        <v>3072</v>
+        <v>3064</v>
       </c>
       <c r="G1" t="s">
         <v>2337</v>
@@ -42664,7 +42654,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B2" s="302">
         <v>0</v>
@@ -42790,84 +42780,84 @@
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="248" t="s">
-        <v>3130</v>
+        <v>3122</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="348" t="s">
-        <v>3073</v>
-      </c>
-      <c r="C8" s="348"/>
-      <c r="F8" s="348" t="s">
-        <v>3074</v>
-      </c>
-      <c r="G8" s="348"/>
-      <c r="I8" s="348" t="s">
-        <v>3074</v>
-      </c>
-      <c r="J8" s="348"/>
+      <c r="B8" s="345" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C8" s="345"/>
+      <c r="F8" s="345" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G8" s="345"/>
+      <c r="I8" s="345" t="s">
+        <v>3066</v>
+      </c>
+      <c r="J8" s="345"/>
       <c r="M8" s="248" t="s">
-        <v>3131</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="348" t="s">
-        <v>3075</v>
-      </c>
-      <c r="G9" s="348"/>
-      <c r="I9" s="348" t="s">
-        <v>3076</v>
-      </c>
-      <c r="J9" s="348"/>
-      <c r="M9" s="349" t="s">
-        <v>3074</v>
-      </c>
-      <c r="N9" s="349"/>
+      <c r="F9" s="345" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G9" s="345"/>
+      <c r="I9" s="345" t="s">
+        <v>3068</v>
+      </c>
+      <c r="J9" s="345"/>
+      <c r="M9" s="346" t="s">
+        <v>3066</v>
+      </c>
+      <c r="N9" s="346"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="314" t="s">
-        <v>3077</v>
+        <v>3069</v>
       </c>
       <c r="N10" s="314"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="347" t="s">
-        <v>3078</v>
-      </c>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="347"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="347"/>
+      <c r="E11" s="344" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F11" s="344"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+      <c r="N11" s="344"/>
+      <c r="O11" s="344"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>3079</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>3080</v>
+        <v>3072</v>
       </c>
       <c r="F13" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="H13" t="s">
-        <v>3082</v>
+        <v>3074</v>
       </c>
       <c r="J13" t="s">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="L13" t="s">
-        <v>3084</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -42999,10 +42989,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
-        <v>3085</v>
+        <v>3077</v>
       </c>
       <c r="F19" t="s">
-        <v>3086</v>
+        <v>3078</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
@@ -43041,7 +43031,7 @@
         <v>412</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>3087</v>
+        <v>3079</v>
       </c>
       <c r="M20" s="174"/>
       <c r="N20" s="27"/>
@@ -43210,7 +43200,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="F26" s="56" t="s">
-        <v>3088</v>
+        <v>3080</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
@@ -43235,7 +43225,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="H27" t="s">
-        <v>3102</v>
+        <v>3094</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -43259,10 +43249,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>3089</v>
+        <v>3081</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>3090</v>
+        <v>3082</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -43286,7 +43276,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -43310,16 +43300,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>3100</v>
+        <v>3092</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>3092</v>
+        <v>3084</v>
       </c>
       <c r="I30" t="s">
-        <v>3099</v>
+        <v>3091</v>
       </c>
       <c r="K30" t="s">
-        <v>3098</v>
+        <v>3090</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -43344,7 +43334,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>3093</v>
+        <v>3085</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -43370,13 +43360,13 @@
     </row>
     <row r="32" spans="1:32">
       <c r="E32" s="312" t="s">
-        <v>3092</v>
+        <v>3084</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>3094</v>
+        <v>3086</v>
       </c>
       <c r="I32" s="312" t="s">
-        <v>3092</v>
+        <v>3084</v>
       </c>
       <c r="K32" s="312"/>
       <c r="M32" s="27"/>
@@ -43405,7 +43395,7 @@
     <row r="33" spans="1:32">
       <c r="E33" s="312"/>
       <c r="G33" s="43" t="s">
-        <v>3095</v>
+        <v>3087</v>
       </c>
       <c r="I33" s="312"/>
       <c r="K33" s="312"/>
@@ -43435,7 +43425,7 @@
     <row r="34" spans="1:32">
       <c r="E34" s="312"/>
       <c r="G34" s="43" t="s">
-        <v>3096</v>
+        <v>3088</v>
       </c>
       <c r="I34" s="312"/>
       <c r="K34" s="312"/>
@@ -43462,7 +43452,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="212"/>
       <c r="G35" s="43" t="s">
-        <v>3097</v>
+        <v>3089</v>
       </c>
       <c r="I35" s="212"/>
       <c r="K35" s="212"/>
@@ -43509,7 +43499,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>3101</v>
+        <v>3093</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -43533,12 +43523,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>3103</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>3109</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -43616,7 +43606,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>3106</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -43656,7 +43646,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -43676,7 +43666,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -43685,7 +43675,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="131" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -43696,15 +43686,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="131" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>3086</v>
+        <v>3078</v>
       </c>
       <c r="H48" t="s">
-        <v>3105</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -43868,7 +43858,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="56" t="s">
-        <v>3107</v>
+        <v>3099</v>
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
@@ -43990,7 +43980,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="56" t="s">
-        <v>3108</v>
+        <v>3100</v>
       </c>
       <c r="B69" s="56"/>
       <c r="N69" s="27"/>
@@ -44065,10 +44055,10 @@
         <v>1908</v>
       </c>
       <c r="C72" s="196" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="E72" s="196" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="F72" t="s">
         <v>2505</v>
@@ -44111,7 +44101,7 @@
         <v>1908</v>
       </c>
       <c r="D75" t="s">
-        <v>3028</v>
+        <v>3020</v>
       </c>
       <c r="E75" s="196" t="s">
         <v>2505</v>
@@ -44119,7 +44109,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="B77" t="s">
-        <v>3132</v>
+        <v>3124</v>
       </c>
       <c r="C77" t="s">
         <v>2330</v>
@@ -44133,7 +44123,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>3133</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -44144,7 +44134,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>3134</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -44155,7 +44145,7 @@
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>3139</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -44169,7 +44159,7 @@
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>3135</v>
+        <v>3127</v>
       </c>
       <c r="K81" t="s">
         <v>48</v>
@@ -44182,7 +44172,7 @@
       <c r="B82" s="308"/>
       <c r="C82" s="308"/>
       <c r="F82" t="s">
-        <v>3136</v>
+        <v>3128</v>
       </c>
       <c r="L82" s="308" t="s">
         <v>524</v>
@@ -44198,7 +44188,7 @@
     </row>
     <row r="84" spans="2:12">
       <c r="G84" t="s">
-        <v>3137</v>
+        <v>3129</v>
       </c>
       <c r="L84" s="308" t="s">
         <v>1758</v>
@@ -44209,7 +44199,7 @@
         <v>49</v>
       </c>
       <c r="G85" t="s">
-        <v>3138</v>
+        <v>3130</v>
       </c>
       <c r="L85">
         <v>50</v>
@@ -46165,7 +46155,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>3110</v>
+        <v>3102</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>549</v>
@@ -46181,7 +46171,7 @@
         <v>413</v>
       </c>
       <c r="L2" s="121" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="M2" s="122" t="s">
         <v>1152</v>
@@ -46189,7 +46179,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="E3" s="185" t="s">
         <v>550</v>
@@ -46207,7 +46197,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="E4" s="185" t="s">
         <v>709</v>
@@ -46220,7 +46210,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="117" t="s">
-        <v>3113</v>
+        <v>3105</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="185" t="s">
@@ -46235,10 +46225,10 @@
         <v>1951</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="M5" s="122" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -46260,7 +46250,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>3117</v>
+        <v>3109</v>
       </c>
       <c r="E7" s="185"/>
       <c r="K7" s="117"/>
@@ -46278,10 +46268,10 @@
         <v>2630</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="M8" s="122" t="s">
-        <v>3116</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -46320,7 +46310,7 @@
         <v>2629</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>1152</v>
@@ -46329,7 +46319,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="185"/>
       <c r="G12" s="27" t="s">
-        <v>3120</v>
+        <v>3112</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="123" t="s">
@@ -46341,45 +46331,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>3119</v>
+        <v>3111</v>
       </c>
       <c r="E13" s="185" t="s">
         <v>2427</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>3118</v>
+        <v>3110</v>
       </c>
       <c r="G13" s="132">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>3127</v>
+        <v>3119</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>3128</v>
+        <v>3120</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>3122</v>
+        <v>3114</v>
       </c>
       <c r="C14" s="276" t="s">
-        <v>3121</v>
+        <v>3113</v>
       </c>
       <c r="E14" s="185"/>
       <c r="G14" s="132">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>3129</v>
+        <v>3121</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>3123</v>
+        <v>3115</v>
       </c>
       <c r="E15" s="185"/>
       <c r="G15" s="132"/>
@@ -46389,7 +46379,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>3124</v>
+        <v>3116</v>
       </c>
       <c r="E16" s="123"/>
       <c r="F16" s="256"/>
@@ -46403,7 +46393,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -46412,7 +46402,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>3126</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -46606,11 +46596,11 @@
       <c r="L6" s="43" t="s">
         <v>1526</v>
       </c>
-      <c r="M6" s="350" t="s">
+      <c r="M6" s="347" t="s">
         <v>1527</v>
       </c>
-      <c r="N6" s="350"/>
-      <c r="O6" s="350"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -50364,31 +50354,31 @@
     </row>
     <row r="298" spans="3:14">
       <c r="C298" t="s">
-        <v>3193</v>
+        <v>3185</v>
       </c>
       <c r="D298" t="s">
-        <v>3194</v>
+        <v>3186</v>
       </c>
       <c r="E298" t="s">
-        <v>3195</v>
+        <v>3187</v>
       </c>
       <c r="F298" t="s">
-        <v>3196</v>
+        <v>3188</v>
       </c>
       <c r="G298" t="s">
-        <v>3197</v>
+        <v>3189</v>
       </c>
       <c r="H298" t="s">
-        <v>3198</v>
+        <v>3190</v>
       </c>
       <c r="I298" t="s">
-        <v>3199</v>
+        <v>3191</v>
       </c>
       <c r="J298" t="s">
-        <v>3200</v>
+        <v>3192</v>
       </c>
       <c r="L298" t="s">
-        <v>3149</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="299" spans="3:14">
@@ -50487,7 +50477,7 @@
     </row>
     <row r="303" spans="3:14">
       <c r="C303" t="s">
-        <v>3202</v>
+        <v>3194</v>
       </c>
       <c r="D303" s="57"/>
       <c r="E303" s="57"/>
@@ -50499,49 +50489,49 @@
     </row>
     <row r="304" spans="3:14">
       <c r="C304" t="s">
-        <v>3201</v>
+        <v>3193</v>
       </c>
       <c r="G304" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H304" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J304" s="163" t="s">
         <v>3203</v>
-      </c>
-      <c r="H304" t="s">
-        <v>3204</v>
-      </c>
-      <c r="J304" s="163" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="305" spans="1:10">
       <c r="G305" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="H305" t="s">
-        <v>3206</v>
+        <v>3198</v>
       </c>
       <c r="J305" s="163" t="s">
-        <v>3212</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="306" spans="1:10">
       <c r="G306" t="s">
-        <v>3207</v>
+        <v>3199</v>
       </c>
       <c r="H306" t="s">
-        <v>3208</v>
+        <v>3200</v>
       </c>
       <c r="J306" s="163" t="s">
-        <v>3213</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="307" spans="1:10">
       <c r="G307" t="s">
-        <v>3209</v>
+        <v>3201</v>
       </c>
       <c r="H307" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="J307" s="163" t="s">
-        <v>3214</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -50551,12 +50541,12 @@
     </row>
     <row r="312" spans="1:10">
       <c r="B312" t="s">
-        <v>3215</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="163" t="s">
-        <v>3216</v>
+        <v>3208</v>
       </c>
     </row>
   </sheetData>
@@ -50586,27 +50576,27 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="F1" t="s">
-        <v>3225</v>
+        <v>3217</v>
       </c>
       <c r="J1" t="s">
-        <v>3225</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="30" t="s">
-        <v>3217</v>
+        <v>3209</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>3218</v>
+        <v>3210</v>
       </c>
       <c r="D2" s="32"/>
       <c r="F2" s="30" t="s">
-        <v>3228</v>
+        <v>3220</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="J2" s="30" t="s">
-        <v>3223</v>
+        <v>3215</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="32"/>
@@ -50637,14 +50627,14 @@
     <row r="4" spans="1:13">
       <c r="B4" s="33"/>
       <c r="C4" s="27" t="s">
-        <v>3228</v>
+        <v>3220</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>199</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="27" t="s">
-        <v>3223</v>
+        <v>3215</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>183</v>
@@ -50660,14 +50650,14 @@
     <row r="5" spans="1:13">
       <c r="B5" s="33"/>
       <c r="C5" s="38" t="s">
-        <v>3229</v>
+        <v>3221</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>2186</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="27" t="s">
-        <v>3226</v>
+        <v>3218</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>2673</v>
@@ -50683,7 +50673,7 @@
     <row r="6" spans="1:13">
       <c r="B6" s="33"/>
       <c r="C6" s="38" t="s">
-        <v>3223</v>
+        <v>3215</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>183</v>
@@ -50739,24 +50729,24 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" s="29" t="s">
-        <v>3224</v>
+        <v>3216</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="F11" s="30" t="s">
-        <v>3229</v>
+        <v>3221</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="J11" s="30" t="s">
-        <v>3226</v>
+        <v>3218</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="30" t="s">
-        <v>3219</v>
+        <v>3211</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
@@ -50777,7 +50767,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="33" t="s">
-        <v>3220</v>
+        <v>3212</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="34"/>
@@ -50793,7 +50783,7 @@
         <v>180</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>3227</v>
+        <v>3219</v>
       </c>
       <c r="M13" s="40">
         <v>44916</v>
@@ -50801,7 +50791,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="33" t="s">
-        <v>3221</v>
+        <v>3213</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="34"/>
@@ -50810,7 +50800,7 @@
         <v>180</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>3230</v>
+        <v>3222</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="27" t="s">
@@ -50848,7 +50838,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>3222</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1"/>
@@ -53440,7 +53430,7 @@
         <v>413</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>3250</v>
+        <v>3242</v>
       </c>
       <c r="I65" s="27"/>
       <c r="J65" s="27" t="s">
@@ -53545,10 +53535,10 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>3241</v>
+        <v>3233</v>
       </c>
       <c r="D69" t="s">
-        <v>3251</v>
+        <v>3243</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>2603</v>
@@ -53574,7 +53564,7 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>3254</v>
+        <v>3246</v>
       </c>
       <c r="F70" s="50" t="s">
         <v>1790</v>
@@ -53600,10 +53590,10 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>3255</v>
+        <v>3247</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>3253</v>
+        <v>3245</v>
       </c>
       <c r="G71" s="51">
         <v>30</v>
@@ -53626,7 +53616,7 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>3242</v>
+        <v>3234</v>
       </c>
       <c r="F72" s="50" t="s">
         <v>2363</v>
@@ -53652,10 +53642,10 @@
     </row>
     <row r="73" spans="1:22">
       <c r="B73" t="s">
-        <v>3243</v>
+        <v>3235</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>3252</v>
+        <v>3244</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -53698,7 +53688,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="B75" t="s">
-        <v>3244</v>
+        <v>3236</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="27"/>
@@ -53744,10 +53734,10 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>3245</v>
+        <v>3237</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -53768,10 +53758,10 @@
     </row>
     <row r="78" spans="1:22">
       <c r="B78" t="s">
-        <v>3246</v>
+        <v>3238</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -53795,7 +53785,7 @@
         <v>1780</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -53816,10 +53806,10 @@
     </row>
     <row r="80" spans="1:22">
       <c r="B80" t="s">
-        <v>3247</v>
+        <v>3239</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
@@ -53843,7 +53833,7 @@
         <v>144</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>3256</v>
+        <v>3248</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -53864,10 +53854,10 @@
     </row>
     <row r="82" spans="1:22" ht="15.75" thickBot="1">
       <c r="A82" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F82" s="33" t="s">
         <v>3248</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>3256</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="36"/>
@@ -53888,7 +53878,7 @@
     </row>
     <row r="83" spans="1:22">
       <c r="B83" t="s">
-        <v>3249</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="84" spans="1:22">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="references-latest" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6283" uniqueCount="3286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6309" uniqueCount="3297">
   <si>
     <t>USER</t>
   </si>
@@ -10165,6 +10165,39 @@
   </si>
   <si>
     <t>destination</t>
+  </si>
+  <si>
+    <t>FacebookAccount cus1=new FacebookAccount ();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FacebookAccount cus2;</t>
+  </si>
+  <si>
+    <t>public class FacebookAccount {</t>
+  </si>
+  <si>
+    <t>String status="online";</t>
+  </si>
+  <si>
+    <t>cus1</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>cus2</t>
+  </si>
+  <si>
+    <t>sysout(cus1.name);</t>
+  </si>
+  <si>
+    <t>sysout(cus2.name);</t>
+  </si>
+  <si>
+    <t>IF you apply . (dot) in front of null variable</t>
+  </si>
+  <si>
+    <t>Arthmetic exception</t>
   </si>
 </sst>
 </file>
@@ -10769,7 +10802,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11427,6 +11460,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11478,6 +11518,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11489,19 +11538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -25991,13 +26027,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="332" t="s">
+      <c r="H3" s="335" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="334"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="337"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -26021,20 +26057,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="338" t="s">
         <v>1577</v>
       </c>
-      <c r="H6" s="336"/>
+      <c r="H6" s="339"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="335" t="s">
+      <c r="J6" s="338" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="336"/>
+      <c r="K6" s="339"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="335" t="s">
+      <c r="M6" s="338" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="336"/>
+      <c r="N6" s="339"/>
       <c r="P6" t="s">
         <v>411</v>
       </c>
@@ -26064,20 +26100,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="337" t="s">
+      <c r="G8" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="338"/>
+      <c r="H8" s="341"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="337" t="s">
+      <c r="J8" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="338"/>
+      <c r="K8" s="341"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="337" t="s">
+      <c r="M8" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="338"/>
+      <c r="N8" s="341"/>
       <c r="P8" t="s">
         <v>3107</v>
       </c>
@@ -26138,29 +26174,29 @@
       <c r="B12" t="s">
         <v>3101</v>
       </c>
-      <c r="F12" s="328" t="s">
+      <c r="F12" s="331" t="s">
         <v>2647</v>
       </c>
-      <c r="G12" s="329"/>
-      <c r="H12" s="329"/>
-      <c r="I12" s="329"/>
-      <c r="J12" s="329"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329"/>
-      <c r="N12" s="329"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="332"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
       <c r="Q12" s="142"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="330"/>
-      <c r="G13" s="331"/>
-      <c r="H13" s="331"/>
-      <c r="I13" s="331"/>
-      <c r="J13" s="331"/>
-      <c r="K13" s="331"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
+      <c r="F13" s="333"/>
+      <c r="G13" s="334"/>
+      <c r="H13" s="334"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="334"/>
+      <c r="K13" s="334"/>
+      <c r="L13" s="334"/>
+      <c r="M13" s="334"/>
+      <c r="N13" s="334"/>
       <c r="P13" t="s">
         <v>3108</v>
       </c>
@@ -26417,16 +26453,16 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="G31" s="327" t="s">
+      <c r="G31" s="330" t="s">
         <v>3109</v>
       </c>
-      <c r="H31" s="327"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
-      <c r="K31" s="327"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="327"/>
-      <c r="N31" s="327"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
+      <c r="K31" s="330"/>
+      <c r="L31" s="330"/>
+      <c r="M31" s="330"/>
+      <c r="N31" s="330"/>
       <c r="P31" t="s">
         <v>3113</v>
       </c>
@@ -27732,7 +27768,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="349" t="s">
+      <c r="N3" s="347" t="s">
         <v>3258</v>
       </c>
       <c r="O3" s="51"/>
@@ -27758,7 +27794,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="350"/>
+      <c r="N4" s="348"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -27784,7 +27820,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="350"/>
+      <c r="N5" s="348"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -27806,7 +27842,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="350"/>
+      <c r="N6" s="348"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -27824,7 +27860,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="350"/>
+      <c r="N7" s="348"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -27842,7 +27878,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="350"/>
+      <c r="N8" s="348"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -27860,7 +27896,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="350"/>
+      <c r="N9" s="348"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -27873,7 +27909,7 @@
       <c r="K10" s="51"/>
       <c r="L10" s="50"/>
       <c r="M10" s="51"/>
-      <c r="N10" s="350"/>
+      <c r="N10" s="348"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -27889,7 +27925,7 @@
       <c r="K11" s="51"/>
       <c r="L11" s="53"/>
       <c r="M11" s="54"/>
-      <c r="N11" s="351"/>
+      <c r="N11" s="349"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -31216,7 +31252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B39" sqref="B39:E39"/>
     </sheetView>
   </sheetViews>
@@ -31276,7 +31312,7 @@
       <c r="A3" t="s">
         <v>3269</v>
       </c>
-      <c r="C3" s="352" t="s">
+      <c r="C3" s="328" t="s">
         <v>3270</v>
       </c>
       <c r="G3" s="33"/>
@@ -31783,7 +31819,7 @@
       <c r="I33" s="74">
         <v>0</v>
       </c>
-      <c r="J33" s="353">
+      <c r="J33" s="329">
         <v>567</v>
       </c>
       <c r="K33" s="38"/>
@@ -31820,7 +31856,7 @@
       <c r="F35" s="74">
         <v>2</v>
       </c>
-      <c r="G35" s="353">
+      <c r="G35" s="329">
         <v>567</v>
       </c>
       <c r="H35" s="38"/>
@@ -38125,10 +38161,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W353"/>
+  <dimension ref="A1:X408"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F343" sqref="F343"/>
+    <sheetView topLeftCell="C55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38137,2198 +38173,2353 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="L1" s="111"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="L2" s="111"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="C3" s="111"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="29"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="C4" s="111"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="C5" s="111"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="C6" s="111"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="C7" s="111"/>
-      <c r="F7" s="29"/>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="C8" s="111"/>
-      <c r="F8" s="29"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="C9" s="111"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="C10" s="111"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="10" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="F3" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>3292</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="F8" s="33"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="35" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="33"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13" s="33"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="56" spans="4:21">
+      <c r="M56" s="111"/>
+    </row>
+    <row r="57" spans="4:21">
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="M57" s="111"/>
+    </row>
+    <row r="58" spans="4:21">
+      <c r="D58" s="111"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
+      <c r="U58" s="29"/>
+    </row>
+    <row r="59" spans="4:21">
+      <c r="D59" s="111"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="111"/>
+      <c r="O59" s="111"/>
+      <c r="P59" s="111"/>
+      <c r="Q59" s="111"/>
+      <c r="R59" s="111"/>
+      <c r="S59" s="111"/>
+      <c r="T59" s="111"/>
+      <c r="U59" s="29"/>
+    </row>
+    <row r="60" spans="4:21">
+      <c r="D60" s="111"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+    </row>
+    <row r="61" spans="4:21">
+      <c r="D61" s="111"/>
+    </row>
+    <row r="62" spans="4:21">
+      <c r="D62" s="111"/>
+      <c r="G62" s="29"/>
+      <c r="S62" s="29"/>
+    </row>
+    <row r="63" spans="4:21">
+      <c r="D63" s="111"/>
+      <c r="G63" s="29"/>
+      <c r="S63" s="29"/>
+    </row>
+    <row r="64" spans="4:21">
+      <c r="D64" s="111"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="D65" s="111"/>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="B66" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="J11" s="29"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="J12" s="29"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="L15" s="29"/>
-      <c r="N15" s="29"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="L16" s="29"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="29"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="106"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="L19" s="106"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="106"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="29"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="D23" s="106"/>
-      <c r="F23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="59" t="s">
+      <c r="D66" s="111"/>
+      <c r="K66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="K67" s="29"/>
+      <c r="Q67" s="29"/>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="70" spans="2:24">
+      <c r="M70" s="29"/>
+      <c r="O70" s="29"/>
+    </row>
+    <row r="71" spans="2:24">
+      <c r="M71" s="29"/>
+      <c r="N71" s="327" t="s">
+        <v>3296</v>
+      </c>
+      <c r="O71" s="29"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="M72" s="106"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="106"/>
+    </row>
+    <row r="73" spans="2:24">
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="108"/>
+      <c r="T73" s="108"/>
+      <c r="U73" s="108"/>
+      <c r="V73" s="108"/>
+      <c r="W73" s="108"/>
+      <c r="X73" s="108"/>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="M74" s="106"/>
+      <c r="N74" s="161"/>
+      <c r="O74" s="106"/>
+    </row>
+    <row r="75" spans="2:24">
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="152"/>
+    </row>
+    <row r="76" spans="2:24">
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="152"/>
+      <c r="O76" s="29"/>
+      <c r="Q76" s="106"/>
+      <c r="R76" s="106"/>
+      <c r="S76" s="106"/>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="S77" s="106"/>
+      <c r="T77" s="106"/>
+      <c r="U77" s="106"/>
+    </row>
+    <row r="78" spans="2:24">
+      <c r="E78" s="106"/>
+      <c r="G78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="59" t="s">
         <v>1797</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="T23" s="106"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="10" t="s">
+      <c r="O78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="U78" s="106"/>
+    </row>
+    <row r="79" spans="2:24">
+      <c r="B79" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="152"/>
-      <c r="P24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="T24" s="29"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="D25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29" t="s">
+      <c r="E79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="152"/>
+      <c r="Q79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="U79" s="29"/>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="E80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29" t="s">
         <v>1124</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="T25" s="29"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="D26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="T26" s="29"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="D27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29" t="s">
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="U80" s="29"/>
+    </row>
+    <row r="81" spans="2:21">
+      <c r="E81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="U81" s="29"/>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="E82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29" t="s">
         <v>1125</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="T27" s="29"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="D28" s="29"/>
-      <c r="T28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29" t="s">
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="U82" s="29"/>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="E83" s="29"/>
+      <c r="U83" s="29"/>
+    </row>
+    <row r="84" spans="2:21">
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29" t="s">
         <v>1796</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+    </row>
+    <row r="90" spans="2:21">
+      <c r="B90" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="92" spans="2:21">
+      <c r="B92" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="93" spans="2:21">
+      <c r="B93" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="94" spans="2:21">
+      <c r="B94" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="95" spans="2:21">
+      <c r="C95" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="96" spans="2:21">
+      <c r="B96" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
+    <row r="99" spans="2:3">
+      <c r="C99" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
+    <row r="100" spans="2:3">
+      <c r="C100" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
+    <row r="108" spans="2:3">
+      <c r="C108" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
+    <row r="115" spans="2:3">
+      <c r="C115" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
+    <row r="116" spans="2:3">
+      <c r="C116" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="B62" t="s">
+    <row r="117" spans="2:3">
+      <c r="C117" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
+    <row r="121" spans="2:3">
+      <c r="C121" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
+    <row r="126" spans="2:3">
+      <c r="C126" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
+    <row r="130" spans="2:3">
+      <c r="C130" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="B86" t="s">
+    <row r="141" spans="2:3">
+      <c r="C141" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="B87" t="s">
+    <row r="142" spans="2:3">
+      <c r="C142" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="143" spans="2:3">
+      <c r="B143" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="144" spans="2:3">
+      <c r="B144" t="s">
         <v>1233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="B97" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="B103" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="B110" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="B115" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="B116" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="B118" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="B123" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="B124" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="B125" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="B126" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="B127" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="B128" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="B130" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="B131" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="B132" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="B133" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="E134" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="B136" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="D137" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="B139" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="B140" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="B141" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="B144" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>1294</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="C147" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="C148" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="C149" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="C150" t="s">
-        <v>1298</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="C151" t="s">
-        <v>144</v>
+      <c r="B151" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" t="s">
-        <v>1299</v>
+      <c r="C152" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" t="s">
-        <v>1300</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="C155" t="s">
-        <v>1301</v>
+      <c r="B155" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="C156" t="s">
-        <v>1302</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="C157" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="C158" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="C159" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="C162" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="D163" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="D164" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="C165" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="D166" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="D167" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="C170" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="C171" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="C172" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="C173" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="C178" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="C179" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="C180" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="C181" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="C182" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="C183" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="C185" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="C186" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="C187" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="C188" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="F189" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="C191" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="E192" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="C194" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="C195" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="C196" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="C199" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="C200" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="C201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="D202" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="D203" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="D204" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="D205" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="D206" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="C207" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="C208" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="209" spans="3:21">
+      <c r="C209" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="210" spans="3:21">
+      <c r="D210" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="211" spans="3:21">
+      <c r="D211" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="212" spans="3:21">
+      <c r="D212" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
-      <c r="B159" t="s">
+    <row r="214" spans="3:21">
+      <c r="C214" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
-      <c r="B161" t="s">
+    <row r="216" spans="3:21">
+      <c r="C216" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
-      <c r="C162" t="s">
+    <row r="217" spans="3:21">
+      <c r="D217" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
-      <c r="C163" t="s">
+    <row r="218" spans="3:21">
+      <c r="D218" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
-      <c r="C164" t="s">
+    <row r="219" spans="3:21">
+      <c r="D219" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B165" t="s">
+    <row r="220" spans="3:21" ht="15.75" thickBot="1">
+      <c r="C220" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
-      <c r="K166" s="30"/>
-      <c r="L166" s="31"/>
-      <c r="M166" s="31"/>
-      <c r="N166" s="31"/>
-      <c r="O166" s="31"/>
-      <c r="P166" s="31"/>
-      <c r="Q166" s="31"/>
-      <c r="R166" s="31"/>
-      <c r="S166" s="31"/>
-      <c r="T166" s="32"/>
-    </row>
-    <row r="167" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K167" s="33"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="27"/>
-      <c r="P167" s="27"/>
-      <c r="Q167" s="27"/>
-      <c r="R167" s="27"/>
-      <c r="S167" s="27"/>
-      <c r="T167" s="34"/>
-    </row>
-    <row r="168" spans="1:20">
-      <c r="K168" s="33"/>
-      <c r="L168" s="27" t="s">
+    <row r="221" spans="3:21">
+      <c r="L221" s="30"/>
+      <c r="M221" s="31"/>
+      <c r="N221" s="31"/>
+      <c r="O221" s="31"/>
+      <c r="P221" s="31"/>
+      <c r="Q221" s="31"/>
+      <c r="R221" s="31"/>
+      <c r="S221" s="31"/>
+      <c r="T221" s="31"/>
+      <c r="U221" s="32"/>
+    </row>
+    <row r="222" spans="3:21" ht="15.75" thickBot="1">
+      <c r="L222" s="33"/>
+      <c r="M222" s="27"/>
+      <c r="N222" s="27"/>
+      <c r="O222" s="27"/>
+      <c r="P222" s="27"/>
+      <c r="Q222" s="27"/>
+      <c r="R222" s="27"/>
+      <c r="S222" s="27"/>
+      <c r="T222" s="27"/>
+      <c r="U222" s="34"/>
+    </row>
+    <row r="223" spans="3:21">
+      <c r="L223" s="33"/>
+      <c r="M223" s="27" t="s">
         <v>1792</v>
       </c>
-      <c r="M168" s="27" t="s">
+      <c r="N223" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="N168" s="27"/>
-      <c r="O168" s="27"/>
-      <c r="P168" s="27" t="s">
+      <c r="O223" s="27"/>
+      <c r="P223" s="27"/>
+      <c r="Q223" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="Q168" s="30"/>
-      <c r="R168" s="32"/>
-      <c r="S168" s="27"/>
-      <c r="T168" s="34"/>
-    </row>
-    <row r="169" spans="1:20">
-      <c r="K169" s="33"/>
-      <c r="L169" s="27" t="s">
+      <c r="R223" s="30"/>
+      <c r="S223" s="32"/>
+      <c r="T223" s="27"/>
+      <c r="U223" s="34"/>
+    </row>
+    <row r="224" spans="3:21">
+      <c r="L224" s="33"/>
+      <c r="M224" s="27" t="s">
         <v>1778</v>
       </c>
-      <c r="M169" s="27" t="s">
+      <c r="N224" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="N169" s="27"/>
-      <c r="O169" s="27"/>
-      <c r="P169" s="27"/>
-      <c r="Q169" s="33" t="s">
+      <c r="O224" s="27"/>
+      <c r="P224" s="27"/>
+      <c r="Q224" s="27"/>
+      <c r="R224" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="R169" s="34" t="s">
+      <c r="S224" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="S169" s="27"/>
-      <c r="T169" s="34"/>
-    </row>
-    <row r="170" spans="1:20">
-      <c r="A170" t="s">
+      <c r="T224" s="27"/>
+      <c r="U224" s="34"/>
+    </row>
+    <row r="225" spans="2:21">
+      <c r="B225" t="s">
         <v>1769</v>
       </c>
-      <c r="K170" s="33"/>
-      <c r="L170" s="27"/>
-      <c r="M170" s="27"/>
-      <c r="N170" s="27"/>
-      <c r="O170" s="27"/>
-      <c r="P170" s="27"/>
-      <c r="Q170" s="33" t="s">
+      <c r="L225" s="33"/>
+      <c r="M225" s="27"/>
+      <c r="N225" s="27"/>
+      <c r="O225" s="27"/>
+      <c r="P225" s="27"/>
+      <c r="Q225" s="27"/>
+      <c r="R225" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="R170" s="34">
+      <c r="S225" s="34">
         <v>0</v>
       </c>
-      <c r="S170" s="27"/>
-      <c r="T170" s="34"/>
-    </row>
-    <row r="171" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B171" t="s">
+      <c r="T225" s="27"/>
+      <c r="U225" s="34"/>
+    </row>
+    <row r="226" spans="2:21" ht="15.75" thickBot="1">
+      <c r="C226" t="s">
         <v>460</v>
       </c>
-      <c r="K171" s="33"/>
-      <c r="L171" s="27"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="27"/>
-      <c r="O171" s="27"/>
-      <c r="P171" s="27"/>
-      <c r="Q171" s="35" t="s">
+      <c r="L226" s="33"/>
+      <c r="M226" s="27"/>
+      <c r="N226" s="27"/>
+      <c r="O226" s="27"/>
+      <c r="P226" s="27"/>
+      <c r="Q226" s="27"/>
+      <c r="R226" s="35" t="s">
         <v>1794</v>
       </c>
-      <c r="R171" s="37" t="s">
+      <c r="S226" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="S171" s="27"/>
-      <c r="T171" s="34"/>
-    </row>
-    <row r="172" spans="1:20">
-      <c r="B172" t="s">
+      <c r="T226" s="27"/>
+      <c r="U226" s="34"/>
+    </row>
+    <row r="227" spans="2:21">
+      <c r="C227" t="s">
         <v>1770</v>
       </c>
-      <c r="K172" s="33"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
-      <c r="R172" s="27"/>
-      <c r="S172" s="27"/>
-      <c r="T172" s="34"/>
-    </row>
-    <row r="173" spans="1:20">
-      <c r="B173" t="s">
+      <c r="L227" s="33"/>
+      <c r="M227" s="27"/>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
+      <c r="P227" s="27"/>
+      <c r="Q227" s="27"/>
+      <c r="R227" s="27"/>
+      <c r="S227" s="27"/>
+      <c r="T227" s="27"/>
+      <c r="U227" s="34"/>
+    </row>
+    <row r="228" spans="2:21">
+      <c r="C228" t="s">
         <v>1771</v>
       </c>
-      <c r="K173" s="33"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
-      <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
-      <c r="T173" s="34"/>
-    </row>
-    <row r="174" spans="1:20">
-      <c r="A174" t="s">
+      <c r="L228" s="33"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
+      <c r="P228" s="27"/>
+      <c r="Q228" s="27"/>
+      <c r="R228" s="27"/>
+      <c r="S228" s="27"/>
+      <c r="T228" s="27"/>
+      <c r="U228" s="34"/>
+    </row>
+    <row r="229" spans="2:21">
+      <c r="B229" t="s">
         <v>144</v>
       </c>
-      <c r="K174" s="33"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
-      <c r="R174" s="27"/>
-      <c r="S174" s="27"/>
-      <c r="T174" s="34"/>
-    </row>
-    <row r="175" spans="1:20">
-      <c r="K175" s="33"/>
-      <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="27"/>
-      <c r="P175" s="27"/>
-      <c r="Q175" s="27"/>
-      <c r="R175" s="27"/>
-      <c r="S175" s="27"/>
-      <c r="T175" s="34"/>
-    </row>
-    <row r="176" spans="1:20">
-      <c r="K176" s="33"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="27"/>
-      <c r="P176" s="27"/>
-      <c r="Q176" s="27"/>
-      <c r="R176" s="27"/>
-      <c r="S176" s="27"/>
-      <c r="T176" s="34"/>
-    </row>
-    <row r="177" spans="1:20">
-      <c r="A177" t="s">
+      <c r="L229" s="33"/>
+      <c r="M229" s="27"/>
+      <c r="N229" s="27"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="27"/>
+      <c r="Q229" s="27"/>
+      <c r="R229" s="27"/>
+      <c r="S229" s="27"/>
+      <c r="T229" s="27"/>
+      <c r="U229" s="34"/>
+    </row>
+    <row r="230" spans="2:21">
+      <c r="L230" s="33"/>
+      <c r="M230" s="27"/>
+      <c r="N230" s="27"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="27"/>
+      <c r="Q230" s="27"/>
+      <c r="R230" s="27"/>
+      <c r="S230" s="27"/>
+      <c r="T230" s="27"/>
+      <c r="U230" s="34"/>
+    </row>
+    <row r="231" spans="2:21">
+      <c r="L231" s="33"/>
+      <c r="M231" s="27"/>
+      <c r="N231" s="27"/>
+      <c r="O231" s="27"/>
+      <c r="P231" s="27"/>
+      <c r="Q231" s="27"/>
+      <c r="R231" s="27"/>
+      <c r="S231" s="27"/>
+      <c r="T231" s="27"/>
+      <c r="U231" s="34"/>
+    </row>
+    <row r="232" spans="2:21">
+      <c r="B232" t="s">
         <v>1607</v>
       </c>
-      <c r="K177" s="33"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
-      <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
-      <c r="T177" s="34"/>
-    </row>
-    <row r="178" spans="1:20">
-      <c r="A178" t="s">
+      <c r="L232" s="33"/>
+      <c r="M232" s="27"/>
+      <c r="N232" s="27"/>
+      <c r="O232" s="27"/>
+      <c r="P232" s="27"/>
+      <c r="Q232" s="27"/>
+      <c r="R232" s="27"/>
+      <c r="S232" s="27"/>
+      <c r="T232" s="27"/>
+      <c r="U232" s="34"/>
+    </row>
+    <row r="233" spans="2:21">
+      <c r="B233" t="s">
         <v>1793</v>
       </c>
-      <c r="K178" s="33"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="27"/>
-      <c r="P178" s="27"/>
-      <c r="Q178" s="27"/>
-      <c r="R178" s="27"/>
-      <c r="S178" s="27"/>
-      <c r="T178" s="34"/>
-    </row>
-    <row r="179" spans="1:20">
-      <c r="K179" s="33"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
-      <c r="R179" s="27"/>
-      <c r="S179" s="27"/>
-      <c r="T179" s="34"/>
-    </row>
-    <row r="180" spans="1:20">
-      <c r="A180" t="s">
+      <c r="L233" s="33"/>
+      <c r="M233" s="27"/>
+      <c r="N233" s="27"/>
+      <c r="O233" s="27"/>
+      <c r="P233" s="27"/>
+      <c r="Q233" s="27"/>
+      <c r="R233" s="27"/>
+      <c r="S233" s="27"/>
+      <c r="T233" s="27"/>
+      <c r="U233" s="34"/>
+    </row>
+    <row r="234" spans="2:21">
+      <c r="L234" s="33"/>
+      <c r="M234" s="27"/>
+      <c r="N234" s="27"/>
+      <c r="O234" s="27"/>
+      <c r="P234" s="27"/>
+      <c r="Q234" s="27"/>
+      <c r="R234" s="27"/>
+      <c r="S234" s="27"/>
+      <c r="T234" s="27"/>
+      <c r="U234" s="34"/>
+    </row>
+    <row r="235" spans="2:21">
+      <c r="B235" t="s">
         <v>1597</v>
       </c>
-      <c r="C180">
+      <c r="D235">
         <v>0</v>
       </c>
-      <c r="K180" s="33"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="34"/>
-    </row>
-    <row r="181" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A181" t="s">
+      <c r="L235" s="33"/>
+      <c r="M235" s="27"/>
+      <c r="N235" s="27"/>
+      <c r="O235" s="27"/>
+      <c r="P235" s="27"/>
+      <c r="Q235" s="27"/>
+      <c r="R235" s="27"/>
+      <c r="S235" s="27"/>
+      <c r="T235" s="27"/>
+      <c r="U235" s="34"/>
+    </row>
+    <row r="236" spans="2:21" ht="15.75" thickBot="1">
+      <c r="B236" t="s">
         <v>1596</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D236" t="s">
         <v>1795</v>
       </c>
-      <c r="K181" s="35"/>
-      <c r="L181" s="36"/>
-      <c r="M181" s="36"/>
-      <c r="N181" s="36"/>
-      <c r="O181" s="36"/>
-      <c r="P181" s="36"/>
-      <c r="Q181" s="36"/>
-      <c r="R181" s="36"/>
-      <c r="S181" s="36"/>
-      <c r="T181" s="37"/>
-    </row>
-    <row r="184" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="185" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A185" t="s">
+      <c r="L236" s="35"/>
+      <c r="M236" s="36"/>
+      <c r="N236" s="36"/>
+      <c r="O236" s="36"/>
+      <c r="P236" s="36"/>
+      <c r="Q236" s="36"/>
+      <c r="R236" s="36"/>
+      <c r="S236" s="36"/>
+      <c r="T236" s="36"/>
+      <c r="U236" s="37"/>
+    </row>
+    <row r="239" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="240" spans="2:21" ht="15.75" thickBot="1">
+      <c r="B240" t="s">
         <v>1769</v>
       </c>
-      <c r="K185" s="30"/>
-      <c r="L185" s="31"/>
-      <c r="M185" s="31"/>
-      <c r="N185" s="31"/>
-      <c r="O185" s="31"/>
-      <c r="P185" s="31"/>
-      <c r="Q185" s="31"/>
-      <c r="R185" s="31"/>
-      <c r="S185" s="31"/>
-      <c r="T185" s="32"/>
-    </row>
-    <row r="186" spans="1:20">
-      <c r="B186" t="s">
+      <c r="L240" s="30"/>
+      <c r="M240" s="31"/>
+      <c r="N240" s="31"/>
+      <c r="O240" s="31"/>
+      <c r="P240" s="31"/>
+      <c r="Q240" s="31"/>
+      <c r="R240" s="31"/>
+      <c r="S240" s="31"/>
+      <c r="T240" s="31"/>
+      <c r="U240" s="32"/>
+    </row>
+    <row r="241" spans="2:21">
+      <c r="C241" t="s">
         <v>1912</v>
       </c>
-      <c r="K186" s="33" t="s">
+      <c r="L241" s="33" t="s">
         <v>1247</v>
       </c>
-      <c r="L186" s="27" t="s">
+      <c r="M241" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="M186" s="27"/>
-      <c r="N186" s="27"/>
-      <c r="O186" s="27"/>
-      <c r="P186" s="27" t="s">
+      <c r="N241" s="27"/>
+      <c r="O241" s="27"/>
+      <c r="P241" s="27"/>
+      <c r="Q241" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="Q186" s="30"/>
-      <c r="R186" s="31"/>
-      <c r="S186" s="32"/>
-      <c r="T186" s="34"/>
-    </row>
-    <row r="187" spans="1:20">
-      <c r="B187" t="s">
+      <c r="R241" s="30"/>
+      <c r="S241" s="31"/>
+      <c r="T241" s="32"/>
+      <c r="U241" s="34"/>
+    </row>
+    <row r="242" spans="2:21">
+      <c r="C242" t="s">
         <v>1913</v>
       </c>
-      <c r="K187" s="33" t="s">
+      <c r="L242" s="33" t="s">
         <v>1778</v>
       </c>
-      <c r="L187" s="27" t="s">
+      <c r="M242" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
-      <c r="P187" s="27"/>
-      <c r="Q187" s="33" t="s">
+      <c r="N242" s="27"/>
+      <c r="O242" s="27"/>
+      <c r="P242" s="27"/>
+      <c r="Q242" s="27"/>
+      <c r="R242" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="R187" s="27" t="s">
+      <c r="S242" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="S187" s="34"/>
-      <c r="T187" s="34"/>
-    </row>
-    <row r="188" spans="1:20">
-      <c r="B188" t="s">
+      <c r="T242" s="34"/>
+      <c r="U242" s="34"/>
+    </row>
+    <row r="243" spans="2:21">
+      <c r="C243" t="s">
         <v>1914</v>
       </c>
-      <c r="K188" s="33"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27"/>
-      <c r="P188" s="27"/>
-      <c r="Q188" s="33" t="s">
+      <c r="L243" s="33"/>
+      <c r="M243" s="27"/>
+      <c r="N243" s="27"/>
+      <c r="O243" s="27"/>
+      <c r="P243" s="27"/>
+      <c r="Q243" s="27"/>
+      <c r="R243" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="R188" s="27">
+      <c r="S243" s="27">
         <v>10</v>
       </c>
-      <c r="S188" s="34"/>
-      <c r="T188" s="34"/>
-    </row>
-    <row r="189" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A189" t="s">
+      <c r="T243" s="34"/>
+      <c r="U243" s="34"/>
+    </row>
+    <row r="244" spans="2:21" ht="15.75" thickBot="1">
+      <c r="B244" t="s">
         <v>144</v>
       </c>
-      <c r="K189" s="33"/>
-      <c r="L189" s="27"/>
-      <c r="M189" s="27"/>
-      <c r="N189" s="27"/>
-      <c r="O189" s="27"/>
-      <c r="P189" s="27"/>
-      <c r="Q189" s="35" t="s">
+      <c r="L244" s="33"/>
+      <c r="M244" s="27"/>
+      <c r="N244" s="27"/>
+      <c r="O244" s="27"/>
+      <c r="P244" s="27"/>
+      <c r="Q244" s="27"/>
+      <c r="R244" s="35" t="s">
         <v>1773</v>
       </c>
-      <c r="R189" s="36" t="s">
+      <c r="S244" s="36" t="s">
         <v>1915</v>
       </c>
-      <c r="S189" s="37"/>
-      <c r="T189" s="34"/>
-    </row>
-    <row r="190" spans="1:20">
-      <c r="K190" s="33"/>
-      <c r="L190" s="27"/>
-      <c r="M190" s="27"/>
-      <c r="N190" s="27"/>
-      <c r="O190" s="27"/>
-      <c r="P190" s="27"/>
-      <c r="Q190" s="27"/>
-      <c r="R190" s="27"/>
-      <c r="S190" s="27"/>
-      <c r="T190" s="34"/>
-    </row>
-    <row r="191" spans="1:20">
-      <c r="K191" s="33"/>
-      <c r="L191" s="27"/>
-      <c r="M191" s="27"/>
-      <c r="N191" s="27"/>
-      <c r="O191" s="27"/>
-      <c r="P191" s="27"/>
-      <c r="Q191" s="27"/>
-      <c r="R191" s="27"/>
-      <c r="S191" s="27"/>
-      <c r="T191" s="34"/>
-    </row>
-    <row r="192" spans="1:20">
-      <c r="A192" t="s">
+      <c r="T244" s="37"/>
+      <c r="U244" s="34"/>
+    </row>
+    <row r="245" spans="2:21">
+      <c r="L245" s="33"/>
+      <c r="M245" s="27"/>
+      <c r="N245" s="27"/>
+      <c r="O245" s="27"/>
+      <c r="P245" s="27"/>
+      <c r="Q245" s="27"/>
+      <c r="R245" s="27"/>
+      <c r="S245" s="27"/>
+      <c r="T245" s="27"/>
+      <c r="U245" s="34"/>
+    </row>
+    <row r="246" spans="2:21">
+      <c r="L246" s="33"/>
+      <c r="M246" s="27"/>
+      <c r="N246" s="27"/>
+      <c r="O246" s="27"/>
+      <c r="P246" s="27"/>
+      <c r="Q246" s="27"/>
+      <c r="R246" s="27"/>
+      <c r="S246" s="27"/>
+      <c r="T246" s="27"/>
+      <c r="U246" s="34"/>
+    </row>
+    <row r="247" spans="2:21">
+      <c r="B247" t="s">
         <v>342</v>
       </c>
-      <c r="K192" s="33"/>
-      <c r="L192" s="27"/>
-      <c r="M192" s="27"/>
-      <c r="N192" s="27"/>
-      <c r="O192" s="27"/>
-      <c r="P192" s="27"/>
-      <c r="Q192" s="27"/>
-      <c r="R192" s="27"/>
-      <c r="S192" s="27"/>
-      <c r="T192" s="34"/>
-    </row>
-    <row r="193" spans="1:20">
-      <c r="A193" t="s">
+      <c r="L247" s="33"/>
+      <c r="M247" s="27"/>
+      <c r="N247" s="27"/>
+      <c r="O247" s="27"/>
+      <c r="P247" s="27"/>
+      <c r="Q247" s="27"/>
+      <c r="R247" s="27"/>
+      <c r="S247" s="27"/>
+      <c r="T247" s="27"/>
+      <c r="U247" s="34"/>
+    </row>
+    <row r="248" spans="2:21">
+      <c r="B248" t="s">
         <v>1793</v>
       </c>
-      <c r="K193" s="33"/>
-      <c r="L193" s="27"/>
-      <c r="M193" s="27"/>
-      <c r="N193" s="27"/>
-      <c r="O193" s="27"/>
-      <c r="P193" s="27"/>
-      <c r="Q193" s="27"/>
-      <c r="R193" s="27"/>
-      <c r="S193" s="27"/>
-      <c r="T193" s="34"/>
-    </row>
-    <row r="194" spans="1:20">
-      <c r="K194" s="33"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
-      <c r="Q194" s="27"/>
-      <c r="R194" s="27"/>
-      <c r="S194" s="27"/>
-      <c r="T194" s="34"/>
-    </row>
-    <row r="195" spans="1:20">
-      <c r="B195" t="s">
+      <c r="L248" s="33"/>
+      <c r="M248" s="27"/>
+      <c r="N248" s="27"/>
+      <c r="O248" s="27"/>
+      <c r="P248" s="27"/>
+      <c r="Q248" s="27"/>
+      <c r="R248" s="27"/>
+      <c r="S248" s="27"/>
+      <c r="T248" s="27"/>
+      <c r="U248" s="34"/>
+    </row>
+    <row r="249" spans="2:21">
+      <c r="L249" s="33"/>
+      <c r="M249" s="27"/>
+      <c r="N249" s="27"/>
+      <c r="O249" s="27"/>
+      <c r="P249" s="27"/>
+      <c r="Q249" s="27"/>
+      <c r="R249" s="27"/>
+      <c r="S249" s="27"/>
+      <c r="T249" s="27"/>
+      <c r="U249" s="34"/>
+    </row>
+    <row r="250" spans="2:21">
+      <c r="C250" t="s">
         <v>1916</v>
       </c>
-      <c r="K195" s="33"/>
-      <c r="L195" s="27"/>
-      <c r="M195" s="27"/>
-      <c r="N195" s="27"/>
-      <c r="O195" s="27"/>
-      <c r="P195" s="27"/>
-      <c r="Q195" s="27"/>
-      <c r="R195" s="27"/>
-      <c r="S195" s="27"/>
-      <c r="T195" s="34"/>
-    </row>
-    <row r="196" spans="1:20">
-      <c r="K196" s="33"/>
-      <c r="L196" s="27"/>
-      <c r="M196" s="27"/>
-      <c r="N196" s="27"/>
-      <c r="O196" s="27"/>
-      <c r="P196" s="27"/>
-      <c r="Q196" s="27"/>
-      <c r="R196" s="27"/>
-      <c r="S196" s="27"/>
-      <c r="T196" s="34"/>
-    </row>
-    <row r="197" spans="1:20">
-      <c r="B197" t="s">
+      <c r="L250" s="33"/>
+      <c r="M250" s="27"/>
+      <c r="N250" s="27"/>
+      <c r="O250" s="27"/>
+      <c r="P250" s="27"/>
+      <c r="Q250" s="27"/>
+      <c r="R250" s="27"/>
+      <c r="S250" s="27"/>
+      <c r="T250" s="27"/>
+      <c r="U250" s="34"/>
+    </row>
+    <row r="251" spans="2:21">
+      <c r="L251" s="33"/>
+      <c r="M251" s="27"/>
+      <c r="N251" s="27"/>
+      <c r="O251" s="27"/>
+      <c r="P251" s="27"/>
+      <c r="Q251" s="27"/>
+      <c r="R251" s="27"/>
+      <c r="S251" s="27"/>
+      <c r="T251" s="27"/>
+      <c r="U251" s="34"/>
+    </row>
+    <row r="252" spans="2:21">
+      <c r="C252" t="s">
         <v>1917</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F252" t="s">
         <v>1795</v>
       </c>
-      <c r="K197" s="33"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="27"/>
-      <c r="N197" s="27"/>
-      <c r="O197" s="27"/>
-      <c r="P197" s="27"/>
-      <c r="Q197" s="27"/>
-      <c r="R197" s="27"/>
-      <c r="S197" s="27"/>
-      <c r="T197" s="34"/>
-    </row>
-    <row r="198" spans="1:20">
-      <c r="K198" s="33"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="27"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
-      <c r="P198" s="27"/>
-      <c r="Q198" s="27"/>
-      <c r="R198" s="27"/>
-      <c r="S198" s="27"/>
-      <c r="T198" s="34"/>
-    </row>
-    <row r="199" spans="1:20" ht="15.75" thickBot="1">
-      <c r="K199" s="35"/>
-      <c r="L199" s="36"/>
-      <c r="M199" s="36"/>
-      <c r="N199" s="36"/>
-      <c r="O199" s="36"/>
-      <c r="P199" s="36"/>
-      <c r="Q199" s="36"/>
-      <c r="R199" s="36"/>
-      <c r="S199" s="36"/>
-      <c r="T199" s="37"/>
-    </row>
-    <row r="223" spans="7:7">
-      <c r="G223" t="s">
+      <c r="L252" s="33"/>
+      <c r="M252" s="27"/>
+      <c r="N252" s="27"/>
+      <c r="O252" s="27"/>
+      <c r="P252" s="27"/>
+      <c r="Q252" s="27"/>
+      <c r="R252" s="27"/>
+      <c r="S252" s="27"/>
+      <c r="T252" s="27"/>
+      <c r="U252" s="34"/>
+    </row>
+    <row r="253" spans="2:21">
+      <c r="L253" s="33"/>
+      <c r="M253" s="27"/>
+      <c r="N253" s="27"/>
+      <c r="O253" s="27"/>
+      <c r="P253" s="27"/>
+      <c r="Q253" s="27"/>
+      <c r="R253" s="27"/>
+      <c r="S253" s="27"/>
+      <c r="T253" s="27"/>
+      <c r="U253" s="34"/>
+    </row>
+    <row r="254" spans="2:21" ht="15.75" thickBot="1">
+      <c r="L254" s="35"/>
+      <c r="M254" s="36"/>
+      <c r="N254" s="36"/>
+      <c r="O254" s="36"/>
+      <c r="P254" s="36"/>
+      <c r="Q254" s="36"/>
+      <c r="R254" s="36"/>
+      <c r="S254" s="36"/>
+      <c r="T254" s="36"/>
+      <c r="U254" s="37"/>
+    </row>
+    <row r="278" spans="4:12">
+      <c r="H278" t="s">
         <v>2097</v>
       </c>
     </row>
-    <row r="225" spans="2:13">
-      <c r="G225" s="43"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-    </row>
-    <row r="226" spans="2:13">
-      <c r="C226" t="s">
+    <row r="280" spans="4:12">
+      <c r="H280" s="43"/>
+      <c r="I280" s="27"/>
+      <c r="J280" s="27"/>
+    </row>
+    <row r="281" spans="4:12">
+      <c r="D281" t="s">
         <v>280</v>
       </c>
-      <c r="G226" s="43" t="s">
+      <c r="H281" s="43" t="s">
         <v>2109</v>
       </c>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
-    </row>
-    <row r="227" spans="2:13">
-      <c r="C227" t="s">
+      <c r="I281" s="27"/>
+      <c r="J281" s="27"/>
+    </row>
+    <row r="282" spans="4:12">
+      <c r="D282" t="s">
         <v>2103</v>
       </c>
-      <c r="G227" s="43" t="s">
+      <c r="H282" s="43" t="s">
         <v>2108</v>
       </c>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-    </row>
-    <row r="228" spans="2:13">
-      <c r="G228" s="43" t="s">
+      <c r="I282" s="27"/>
+      <c r="J282" s="27"/>
+    </row>
+    <row r="283" spans="4:12">
+      <c r="H283" s="43" t="s">
         <v>2107</v>
       </c>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="K228" t="s">
+      <c r="I283" s="27"/>
+      <c r="J283" s="27"/>
+      <c r="L283" t="s">
         <v>2098</v>
       </c>
     </row>
-    <row r="229" spans="2:13">
-      <c r="G229" s="43" t="s">
+    <row r="284" spans="4:12">
+      <c r="H284" s="43" t="s">
         <v>2096</v>
       </c>
-      <c r="H229" s="27"/>
-      <c r="I229" s="27"/>
-      <c r="K229" t="s">
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+      <c r="L284" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="230" spans="2:13">
-      <c r="K230" t="s">
+    <row r="285" spans="4:12">
+      <c r="L285" t="s">
         <v>2100</v>
       </c>
     </row>
-    <row r="231" spans="2:13">
-      <c r="K231" t="s">
+    <row r="286" spans="4:12">
+      <c r="L286" t="s">
         <v>2101</v>
       </c>
     </row>
-    <row r="232" spans="2:13">
-      <c r="K232" t="s">
+    <row r="287" spans="4:12">
+      <c r="L287" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="233" spans="2:13">
-      <c r="K233" t="s">
+    <row r="288" spans="4:12">
+      <c r="L288" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="234" spans="2:13">
-      <c r="K234" t="s">
+    <row r="289" spans="3:14">
+      <c r="L289" t="s">
         <v>2105</v>
       </c>
     </row>
-    <row r="235" spans="2:13">
-      <c r="K235" t="s">
+    <row r="290" spans="3:14">
+      <c r="L290" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="239" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="240" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B240" t="s">
+    <row r="294" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="295" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C295" t="s">
         <v>2110</v>
       </c>
-      <c r="F240" s="30"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="31"/>
-      <c r="I240" s="31"/>
-      <c r="J240" s="31"/>
-      <c r="K240" s="31" t="s">
+      <c r="G295" s="30"/>
+      <c r="H295" s="31"/>
+      <c r="I295" s="31"/>
+      <c r="J295" s="31"/>
+      <c r="K295" s="31"/>
+      <c r="L295" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="L240" s="31"/>
-      <c r="M240" s="32"/>
-    </row>
-    <row r="241" spans="2:13">
-      <c r="B241" t="s">
+      <c r="M295" s="31"/>
+      <c r="N295" s="32"/>
+    </row>
+    <row r="296" spans="3:14">
+      <c r="C296" t="s">
         <v>2111</v>
       </c>
-      <c r="F241" s="33" t="s">
+      <c r="G296" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="G241" s="27" t="s">
+      <c r="H296" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
-      <c r="K241" s="47" t="s">
+      <c r="I296" s="27"/>
+      <c r="J296" s="27"/>
+      <c r="K296" s="27"/>
+      <c r="L296" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="L241" s="49" t="s">
+      <c r="M296" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="M241" s="34"/>
-    </row>
-    <row r="242" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B242" t="s">
+      <c r="N296" s="34"/>
+    </row>
+    <row r="297" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C297" t="s">
         <v>2112</v>
       </c>
-      <c r="F242" s="33" t="s">
+      <c r="G297" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="G242" s="27" t="s">
+      <c r="H297" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="H242" s="27"/>
-      <c r="I242" s="27"/>
-      <c r="J242" s="27"/>
-      <c r="K242" s="53" t="s">
+      <c r="I297" s="27"/>
+      <c r="J297" s="27"/>
+      <c r="K297" s="27"/>
+      <c r="L297" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="L242" s="55">
+      <c r="M297" s="55">
         <v>10</v>
       </c>
-      <c r="M242" s="34"/>
-    </row>
-    <row r="243" spans="2:13">
-      <c r="B243" s="29" t="s">
+      <c r="N297" s="34"/>
+    </row>
+    <row r="298" spans="3:14">
+      <c r="C298" s="29" t="s">
         <v>2113</v>
       </c>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="27"/>
-      <c r="L243" s="27"/>
-      <c r="M243" s="34"/>
-    </row>
-    <row r="244" spans="2:13">
-      <c r="F244" s="33"/>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
-      <c r="I244" s="27"/>
-      <c r="J244" s="27"/>
-      <c r="K244" s="27"/>
-      <c r="L244" s="27"/>
-      <c r="M244" s="34"/>
-    </row>
-    <row r="245" spans="2:13">
-      <c r="B245" t="s">
+      <c r="D298" s="29"/>
+      <c r="E298" s="29"/>
+      <c r="G298" s="33"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27"/>
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="27"/>
+      <c r="M298" s="27"/>
+      <c r="N298" s="34"/>
+    </row>
+    <row r="299" spans="3:14">
+      <c r="G299" s="33"/>
+      <c r="H299" s="27"/>
+      <c r="I299" s="27"/>
+      <c r="J299" s="27"/>
+      <c r="K299" s="27"/>
+      <c r="L299" s="27"/>
+      <c r="M299" s="27"/>
+      <c r="N299" s="34"/>
+    </row>
+    <row r="300" spans="3:14">
+      <c r="C300" t="s">
         <v>1769</v>
       </c>
-      <c r="F245" s="33"/>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
-      <c r="K245" s="27"/>
-      <c r="L245" s="27"/>
-      <c r="M245" s="34"/>
-    </row>
-    <row r="246" spans="2:13">
-      <c r="C246" t="s">
+      <c r="G300" s="33"/>
+      <c r="H300" s="27"/>
+      <c r="I300" s="27"/>
+      <c r="J300" s="27"/>
+      <c r="K300" s="27"/>
+      <c r="L300" s="27"/>
+      <c r="M300" s="27"/>
+      <c r="N300" s="34"/>
+    </row>
+    <row r="301" spans="3:14">
+      <c r="D301" t="s">
         <v>2114</v>
       </c>
-      <c r="F246" s="33"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
-      <c r="I246" s="27"/>
-      <c r="J246" s="27"/>
-      <c r="K246" s="27"/>
-      <c r="L246" s="27"/>
-      <c r="M246" s="34"/>
-    </row>
-    <row r="247" spans="2:13">
-      <c r="C247" t="s">
+      <c r="G301" s="33"/>
+      <c r="H301" s="27"/>
+      <c r="I301" s="27"/>
+      <c r="J301" s="27"/>
+      <c r="K301" s="27"/>
+      <c r="L301" s="27"/>
+      <c r="M301" s="27"/>
+      <c r="N301" s="34"/>
+    </row>
+    <row r="302" spans="3:14">
+      <c r="D302" t="s">
         <v>2115</v>
       </c>
-      <c r="F247" s="33"/>
-      <c r="G247" s="27"/>
-      <c r="H247" s="27"/>
-      <c r="I247" s="27"/>
-      <c r="J247" s="27"/>
-      <c r="K247" s="27"/>
-      <c r="L247" s="27"/>
-      <c r="M247" s="34"/>
-    </row>
-    <row r="248" spans="2:13">
-      <c r="B248" t="s">
+      <c r="G302" s="33"/>
+      <c r="H302" s="27"/>
+      <c r="I302" s="27"/>
+      <c r="J302" s="27"/>
+      <c r="K302" s="27"/>
+      <c r="L302" s="27"/>
+      <c r="M302" s="27"/>
+      <c r="N302" s="34"/>
+    </row>
+    <row r="303" spans="3:14">
+      <c r="C303" t="s">
         <v>144</v>
       </c>
-      <c r="F248" s="33"/>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="27"/>
-      <c r="M248" s="34"/>
-    </row>
-    <row r="249" spans="2:13">
-      <c r="F249" s="33"/>
-      <c r="G249" s="27"/>
-      <c r="H249" s="27"/>
-      <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
-      <c r="K249" s="27"/>
-      <c r="L249" s="27"/>
-      <c r="M249" s="34"/>
-    </row>
-    <row r="250" spans="2:13">
-      <c r="F250" s="33"/>
-      <c r="G250" s="27"/>
-      <c r="H250" s="27"/>
-      <c r="I250" s="27"/>
-      <c r="J250" s="27"/>
-      <c r="K250" s="27"/>
-      <c r="L250" s="27"/>
-      <c r="M250" s="34"/>
-    </row>
-    <row r="251" spans="2:13" ht="15.75" thickBot="1">
-      <c r="F251" s="35"/>
-      <c r="G251" s="36"/>
-      <c r="H251" s="36"/>
-      <c r="I251" s="36"/>
-      <c r="J251" s="36"/>
-      <c r="K251" s="36"/>
-      <c r="L251" s="36"/>
-      <c r="M251" s="37"/>
-    </row>
-    <row r="253" spans="2:13">
-      <c r="E253" s="194"/>
-      <c r="F253" s="194"/>
-      <c r="G253" s="194"/>
-      <c r="H253" s="194"/>
-    </row>
-    <row r="254" spans="2:13">
-      <c r="H254" s="194"/>
-    </row>
-    <row r="255" spans="2:13">
-      <c r="H255" s="194"/>
-    </row>
-    <row r="256" spans="2:13">
-      <c r="H256" s="194"/>
-    </row>
-    <row r="257" spans="2:13">
-      <c r="D257" s="194"/>
-      <c r="E257" s="194"/>
-      <c r="F257" s="194"/>
-      <c r="H257" s="194"/>
-    </row>
-    <row r="258" spans="2:13">
-      <c r="D258" s="194"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="194"/>
-      <c r="G258" s="194"/>
-      <c r="H258" s="194"/>
-      <c r="I258" s="194"/>
-      <c r="J258" s="194"/>
-      <c r="K258" s="194"/>
-      <c r="L258" s="194"/>
-      <c r="M258" s="29"/>
-    </row>
-    <row r="259" spans="2:13">
-      <c r="D259" s="194"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="194"/>
-      <c r="G259" s="194"/>
-      <c r="H259" s="194"/>
-      <c r="I259" s="194"/>
-      <c r="J259" s="194"/>
-      <c r="K259" s="194"/>
-      <c r="L259" s="194"/>
-      <c r="M259" s="29"/>
-    </row>
-    <row r="260" spans="2:13">
-      <c r="B260" t="s">
+      <c r="G303" s="33"/>
+      <c r="H303" s="27"/>
+      <c r="I303" s="27"/>
+      <c r="J303" s="27"/>
+      <c r="K303" s="27"/>
+      <c r="L303" s="27"/>
+      <c r="M303" s="27"/>
+      <c r="N303" s="34"/>
+    </row>
+    <row r="304" spans="3:14">
+      <c r="G304" s="33"/>
+      <c r="H304" s="27"/>
+      <c r="I304" s="27"/>
+      <c r="J304" s="27"/>
+      <c r="K304" s="27"/>
+      <c r="L304" s="27"/>
+      <c r="M304" s="27"/>
+      <c r="N304" s="34"/>
+    </row>
+    <row r="305" spans="3:14">
+      <c r="G305" s="33"/>
+      <c r="H305" s="27"/>
+      <c r="I305" s="27"/>
+      <c r="J305" s="27"/>
+      <c r="K305" s="27"/>
+      <c r="L305" s="27"/>
+      <c r="M305" s="27"/>
+      <c r="N305" s="34"/>
+    </row>
+    <row r="306" spans="3:14" ht="15.75" thickBot="1">
+      <c r="G306" s="35"/>
+      <c r="H306" s="36"/>
+      <c r="I306" s="36"/>
+      <c r="J306" s="36"/>
+      <c r="K306" s="36"/>
+      <c r="L306" s="36"/>
+      <c r="M306" s="36"/>
+      <c r="N306" s="37"/>
+    </row>
+    <row r="308" spans="3:14">
+      <c r="F308" s="194"/>
+      <c r="G308" s="194"/>
+      <c r="H308" s="194"/>
+      <c r="I308" s="194"/>
+    </row>
+    <row r="309" spans="3:14">
+      <c r="I309" s="194"/>
+    </row>
+    <row r="310" spans="3:14">
+      <c r="I310" s="194"/>
+    </row>
+    <row r="311" spans="3:14">
+      <c r="I311" s="194"/>
+    </row>
+    <row r="312" spans="3:14">
+      <c r="E312" s="194"/>
+      <c r="F312" s="194"/>
+      <c r="G312" s="194"/>
+      <c r="I312" s="194"/>
+    </row>
+    <row r="313" spans="3:14">
+      <c r="E313" s="194"/>
+      <c r="F313" s="29"/>
+      <c r="G313" s="194"/>
+      <c r="H313" s="194"/>
+      <c r="I313" s="194"/>
+      <c r="J313" s="194"/>
+      <c r="K313" s="194"/>
+      <c r="L313" s="194"/>
+      <c r="M313" s="194"/>
+      <c r="N313" s="29"/>
+    </row>
+    <row r="314" spans="3:14">
+      <c r="E314" s="194"/>
+      <c r="F314" s="29"/>
+      <c r="G314" s="194"/>
+      <c r="H314" s="194"/>
+      <c r="I314" s="194"/>
+      <c r="J314" s="194"/>
+      <c r="K314" s="194"/>
+      <c r="L314" s="194"/>
+      <c r="M314" s="194"/>
+      <c r="N314" s="29"/>
+    </row>
+    <row r="315" spans="3:14">
+      <c r="C315" t="s">
         <v>2118</v>
       </c>
-      <c r="D260" s="194"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="29"/>
-      <c r="H260" s="29"/>
-      <c r="I260" s="29" t="s">
+      <c r="E315" s="194"/>
+      <c r="F315" s="29"/>
+      <c r="G315" s="29"/>
+      <c r="H315" s="29"/>
+      <c r="I315" s="29"/>
+      <c r="J315" s="29" t="s">
         <v>2116</v>
       </c>
-      <c r="J260" s="29"/>
-      <c r="K260" s="29"/>
-      <c r="L260" s="29"/>
-      <c r="M260" s="29"/>
-    </row>
-    <row r="261" spans="2:13">
-      <c r="D261" s="194"/>
-    </row>
-    <row r="262" spans="2:13">
-      <c r="D262" s="194"/>
-      <c r="F262" s="29"/>
-      <c r="L262" s="29"/>
-    </row>
-    <row r="263" spans="2:13">
-      <c r="D263" s="194"/>
-      <c r="F263" s="29"/>
-      <c r="L263" s="29"/>
-    </row>
-    <row r="264" spans="2:13">
-      <c r="D264" s="194"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29" t="s">
+      <c r="K315" s="29"/>
+      <c r="L315" s="29"/>
+      <c r="M315" s="29"/>
+      <c r="N315" s="29"/>
+    </row>
+    <row r="316" spans="3:14">
+      <c r="E316" s="194"/>
+    </row>
+    <row r="317" spans="3:14">
+      <c r="E317" s="194"/>
+      <c r="G317" s="29"/>
+      <c r="M317" s="29"/>
+    </row>
+    <row r="318" spans="3:14">
+      <c r="E318" s="194"/>
+      <c r="G318" s="29"/>
+      <c r="M318" s="29"/>
+    </row>
+    <row r="319" spans="3:14">
+      <c r="E319" s="194"/>
+      <c r="G319" s="29"/>
+      <c r="H319" s="29"/>
+      <c r="I319" s="29"/>
+      <c r="J319" s="29" t="s">
         <v>1264</v>
       </c>
-      <c r="J264" s="29"/>
-      <c r="K264" s="29"/>
-      <c r="L264" s="29"/>
-    </row>
-    <row r="265" spans="2:13">
-      <c r="D265" s="194"/>
-    </row>
-    <row r="266" spans="2:13">
-      <c r="D266" s="194"/>
-      <c r="G266" s="29"/>
-      <c r="H266" s="106"/>
-      <c r="I266" s="106"/>
-      <c r="K266" s="29"/>
-    </row>
-    <row r="267" spans="2:13">
-      <c r="D267" s="194"/>
-      <c r="G267" s="29"/>
-      <c r="H267" s="106"/>
-      <c r="I267" s="106"/>
-      <c r="K267" s="29"/>
-    </row>
-    <row r="268" spans="2:13">
-      <c r="D268" s="194"/>
-      <c r="G268" s="29"/>
-      <c r="H268" s="29"/>
-      <c r="I268" s="29" t="s">
+      <c r="K319" s="29"/>
+      <c r="L319" s="29"/>
+      <c r="M319" s="29"/>
+    </row>
+    <row r="320" spans="3:14">
+      <c r="E320" s="194"/>
+    </row>
+    <row r="321" spans="5:12">
+      <c r="E321" s="194"/>
+      <c r="H321" s="29"/>
+      <c r="I321" s="106"/>
+      <c r="J321" s="106"/>
+      <c r="L321" s="29"/>
+    </row>
+    <row r="322" spans="5:12">
+      <c r="E322" s="194"/>
+      <c r="H322" s="29"/>
+      <c r="I322" s="106"/>
+      <c r="J322" s="106"/>
+      <c r="L322" s="29"/>
+    </row>
+    <row r="323" spans="5:12">
+      <c r="E323" s="194"/>
+      <c r="H323" s="29"/>
+      <c r="I323" s="29"/>
+      <c r="J323" s="29" t="s">
         <v>2117</v>
       </c>
-      <c r="J268" s="29"/>
-      <c r="K268" s="29"/>
-    </row>
-    <row r="269" spans="2:13">
-      <c r="D269" s="194"/>
-    </row>
-    <row r="270" spans="2:13">
-      <c r="D270" s="194"/>
-      <c r="H270" s="29"/>
-      <c r="J270" s="29"/>
-    </row>
-    <row r="271" spans="2:13">
-      <c r="D271" s="194"/>
-      <c r="H271" s="29"/>
-      <c r="J271" s="29"/>
-    </row>
-    <row r="272" spans="2:13">
-      <c r="D272" s="194"/>
-      <c r="H272" s="29"/>
-      <c r="I272" s="29" t="s">
+      <c r="K323" s="29"/>
+      <c r="L323" s="29"/>
+    </row>
+    <row r="324" spans="5:12">
+      <c r="E324" s="194"/>
+    </row>
+    <row r="325" spans="5:12">
+      <c r="E325" s="194"/>
+      <c r="I325" s="29"/>
+      <c r="K325" s="29"/>
+    </row>
+    <row r="326" spans="5:12">
+      <c r="E326" s="194"/>
+      <c r="I326" s="29"/>
+      <c r="K326" s="29"/>
+    </row>
+    <row r="327" spans="5:12">
+      <c r="E327" s="194"/>
+      <c r="I327" s="29"/>
+      <c r="J327" s="29" t="s">
         <v>2119</v>
       </c>
-      <c r="J272" s="29"/>
-    </row>
-    <row r="273" spans="4:11">
-      <c r="D273" s="194"/>
-    </row>
-    <row r="277" spans="4:11">
-      <c r="E277" s="194"/>
-      <c r="F277" s="194"/>
-      <c r="G277" s="194"/>
-      <c r="H277" s="194"/>
-    </row>
-    <row r="278" spans="4:11">
-      <c r="H278" s="194"/>
-    </row>
-    <row r="279" spans="4:11">
-      <c r="H279" s="194"/>
-    </row>
-    <row r="280" spans="4:11">
-      <c r="F280" s="194"/>
-      <c r="G280" s="194"/>
-      <c r="H280" s="194"/>
-    </row>
-    <row r="281" spans="4:11">
-      <c r="F281" s="194"/>
-      <c r="G281" s="29"/>
-      <c r="H281" s="194"/>
-      <c r="I281" s="29"/>
-    </row>
-    <row r="282" spans="4:11">
-      <c r="F282" s="194"/>
-      <c r="G282" s="29"/>
-      <c r="H282" s="194"/>
-      <c r="I282" s="29"/>
-    </row>
-    <row r="283" spans="4:11">
-      <c r="F283" s="194"/>
-      <c r="G283" s="29"/>
-      <c r="H283" s="29" t="s">
+      <c r="K327" s="29"/>
+    </row>
+    <row r="328" spans="5:12">
+      <c r="E328" s="194"/>
+    </row>
+    <row r="332" spans="5:12">
+      <c r="F332" s="194"/>
+      <c r="G332" s="194"/>
+      <c r="H332" s="194"/>
+      <c r="I332" s="194"/>
+    </row>
+    <row r="333" spans="5:12">
+      <c r="I333" s="194"/>
+    </row>
+    <row r="334" spans="5:12">
+      <c r="I334" s="194"/>
+    </row>
+    <row r="335" spans="5:12">
+      <c r="G335" s="194"/>
+      <c r="H335" s="194"/>
+      <c r="I335" s="194"/>
+    </row>
+    <row r="336" spans="5:12">
+      <c r="G336" s="194"/>
+      <c r="H336" s="29"/>
+      <c r="I336" s="194"/>
+      <c r="J336" s="29"/>
+    </row>
+    <row r="337" spans="5:13">
+      <c r="G337" s="194"/>
+      <c r="H337" s="29"/>
+      <c r="I337" s="194"/>
+      <c r="J337" s="29"/>
+    </row>
+    <row r="338" spans="5:13">
+      <c r="G338" s="194"/>
+      <c r="H338" s="29"/>
+      <c r="I338" s="29" t="s">
         <v>2119</v>
       </c>
-      <c r="I283" s="29"/>
-    </row>
-    <row r="284" spans="4:11">
-      <c r="F284" s="194"/>
-    </row>
-    <row r="285" spans="4:11">
-      <c r="F285" s="29"/>
-      <c r="G285" s="194"/>
-      <c r="H285" s="194"/>
-      <c r="I285" s="194"/>
-      <c r="J285" s="29"/>
-      <c r="K285" s="194"/>
-    </row>
-    <row r="286" spans="4:11">
-      <c r="F286" s="29"/>
-      <c r="G286" s="194"/>
-      <c r="H286" s="194"/>
-      <c r="I286" s="194"/>
-      <c r="J286" s="29"/>
-      <c r="K286" s="194"/>
-    </row>
-    <row r="287" spans="4:11">
-      <c r="F287" s="29"/>
-      <c r="G287" s="29"/>
-      <c r="H287" s="29" t="s">
+      <c r="J338" s="29"/>
+    </row>
+    <row r="339" spans="5:13">
+      <c r="G339" s="194"/>
+    </row>
+    <row r="340" spans="5:13">
+      <c r="G340" s="29"/>
+      <c r="H340" s="194"/>
+      <c r="I340" s="194"/>
+      <c r="J340" s="194"/>
+      <c r="K340" s="29"/>
+      <c r="L340" s="194"/>
+    </row>
+    <row r="341" spans="5:13">
+      <c r="G341" s="29"/>
+      <c r="H341" s="194"/>
+      <c r="I341" s="194"/>
+      <c r="J341" s="194"/>
+      <c r="K341" s="29"/>
+      <c r="L341" s="194"/>
+    </row>
+    <row r="342" spans="5:13">
+      <c r="G342" s="29"/>
+      <c r="H342" s="29"/>
+      <c r="I342" s="29" t="s">
         <v>2117</v>
       </c>
-      <c r="I287" s="29"/>
-      <c r="J287" s="29"/>
-      <c r="K287" s="194"/>
-    </row>
-    <row r="288" spans="4:11">
-      <c r="K288" s="194"/>
-    </row>
-    <row r="289" spans="4:12">
-      <c r="E289" s="29"/>
-      <c r="F289" s="194"/>
-      <c r="G289" s="194"/>
-      <c r="H289" s="194"/>
-      <c r="I289" s="194"/>
-      <c r="J289" s="194"/>
-      <c r="K289" s="29"/>
-    </row>
-    <row r="290" spans="4:12">
-      <c r="E290" s="29"/>
-      <c r="F290" s="194"/>
-      <c r="G290" s="194"/>
-      <c r="H290" s="194"/>
-      <c r="I290" s="194"/>
-      <c r="J290" s="194"/>
-      <c r="K290" s="29"/>
-    </row>
-    <row r="291" spans="4:12">
-      <c r="E291" s="29"/>
-      <c r="F291" s="29"/>
-      <c r="G291" s="29"/>
-      <c r="H291" s="29" t="s">
+      <c r="J342" s="29"/>
+      <c r="K342" s="29"/>
+      <c r="L342" s="194"/>
+    </row>
+    <row r="343" spans="5:13">
+      <c r="L343" s="194"/>
+    </row>
+    <row r="344" spans="5:13">
+      <c r="F344" s="29"/>
+      <c r="G344" s="194"/>
+      <c r="H344" s="194"/>
+      <c r="I344" s="194"/>
+      <c r="J344" s="194"/>
+      <c r="K344" s="194"/>
+      <c r="L344" s="29"/>
+    </row>
+    <row r="345" spans="5:13">
+      <c r="F345" s="29"/>
+      <c r="G345" s="194"/>
+      <c r="H345" s="194"/>
+      <c r="I345" s="194"/>
+      <c r="J345" s="194"/>
+      <c r="K345" s="194"/>
+      <c r="L345" s="29"/>
+    </row>
+    <row r="346" spans="5:13">
+      <c r="F346" s="29"/>
+      <c r="G346" s="29"/>
+      <c r="H346" s="29"/>
+      <c r="I346" s="29" t="s">
         <v>1264</v>
       </c>
-      <c r="I291" s="29"/>
-      <c r="J291" s="29"/>
-      <c r="K291" s="29"/>
-    </row>
-    <row r="293" spans="4:12">
-      <c r="D293" s="29"/>
-      <c r="E293" s="106"/>
-      <c r="F293" s="106"/>
-      <c r="G293" s="106"/>
-      <c r="H293" s="106"/>
-      <c r="I293" s="106"/>
-      <c r="J293" s="106"/>
-      <c r="K293" s="106"/>
-      <c r="L293" s="29"/>
-    </row>
-    <row r="294" spans="4:12">
-      <c r="D294" s="29"/>
-      <c r="E294" s="106"/>
-      <c r="F294" s="106"/>
-      <c r="G294" s="106"/>
-      <c r="H294" s="106"/>
-      <c r="I294" s="106"/>
-      <c r="J294" s="106"/>
-      <c r="K294" s="106"/>
-      <c r="L294" s="29"/>
-    </row>
-    <row r="295" spans="4:12">
-      <c r="D295" s="29"/>
-      <c r="E295" s="29"/>
-      <c r="F295" s="29"/>
-      <c r="G295" s="29"/>
-      <c r="H295" s="29" t="s">
+      <c r="J346" s="29"/>
+      <c r="K346" s="29"/>
+      <c r="L346" s="29"/>
+    </row>
+    <row r="348" spans="5:13">
+      <c r="E348" s="29"/>
+      <c r="F348" s="106"/>
+      <c r="G348" s="106"/>
+      <c r="H348" s="106"/>
+      <c r="I348" s="106"/>
+      <c r="J348" s="106"/>
+      <c r="K348" s="106"/>
+      <c r="L348" s="106"/>
+      <c r="M348" s="29"/>
+    </row>
+    <row r="349" spans="5:13">
+      <c r="E349" s="29"/>
+      <c r="F349" s="106"/>
+      <c r="G349" s="106"/>
+      <c r="H349" s="106"/>
+      <c r="I349" s="106"/>
+      <c r="J349" s="106"/>
+      <c r="K349" s="106"/>
+      <c r="L349" s="106"/>
+      <c r="M349" s="29"/>
+    </row>
+    <row r="350" spans="5:13">
+      <c r="E350" s="29"/>
+      <c r="F350" s="29"/>
+      <c r="G350" s="29"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="29" t="s">
         <v>2116</v>
       </c>
-      <c r="I295" s="29"/>
-      <c r="J295" s="29"/>
-      <c r="K295" s="29"/>
-      <c r="L295" s="29"/>
-    </row>
-    <row r="296" spans="4:12">
-      <c r="D296" s="106"/>
-    </row>
-    <row r="297" spans="4:12">
-      <c r="D297" s="106"/>
-    </row>
-    <row r="298" spans="4:12">
-      <c r="D298" s="106"/>
-    </row>
-    <row r="299" spans="4:12">
-      <c r="D299" s="106"/>
-    </row>
-    <row r="300" spans="4:12">
-      <c r="D300" s="106"/>
-      <c r="E300" t="s">
+      <c r="J350" s="29"/>
+      <c r="K350" s="29"/>
+      <c r="L350" s="29"/>
+      <c r="M350" s="29"/>
+    </row>
+    <row r="351" spans="5:13">
+      <c r="E351" s="106"/>
+    </row>
+    <row r="352" spans="5:13">
+      <c r="E352" s="106"/>
+    </row>
+    <row r="353" spans="3:14">
+      <c r="E353" s="106"/>
+    </row>
+    <row r="354" spans="3:14">
+      <c r="E354" s="106"/>
+    </row>
+    <row r="355" spans="3:14">
+      <c r="E355" s="106"/>
+      <c r="F355" t="s">
         <v>2444</v>
       </c>
-      <c r="G300" t="s">
+      <c r="H355" t="s">
         <v>1796</v>
       </c>
-      <c r="H300" t="s">
+      <c r="I355" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="302" spans="4:12">
-      <c r="E302" t="s">
+    <row r="357" spans="3:14">
+      <c r="F357" t="s">
         <v>2445</v>
       </c>
-      <c r="G302" t="s">
+      <c r="H357" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="304" spans="4:12">
-      <c r="E304" t="s">
+    <row r="359" spans="3:14">
+      <c r="F359" t="s">
         <v>2446</v>
       </c>
-      <c r="G304" t="s">
+      <c r="H359" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="306" spans="2:13">
-      <c r="C306" t="s">
+    <row r="361" spans="3:14">
+      <c r="D361" t="s">
         <v>2447</v>
       </c>
-      <c r="E306" t="s">
+      <c r="F361" t="s">
         <v>2441</v>
       </c>
-      <c r="H306" t="s">
+      <c r="I361" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="307" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="308" spans="2:13">
-      <c r="B308" t="s">
+    <row r="362" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="363" spans="3:14">
+      <c r="C363" t="s">
         <v>2448</v>
       </c>
-      <c r="G308" s="30"/>
-      <c r="H308" s="31"/>
-      <c r="I308" s="31"/>
-      <c r="J308" s="31"/>
-      <c r="K308" s="31"/>
-      <c r="L308" s="31"/>
-      <c r="M308" s="32"/>
-    </row>
-    <row r="309" spans="2:13">
-      <c r="G309" s="33" t="s">
+      <c r="H363" s="30"/>
+      <c r="I363" s="31"/>
+      <c r="J363" s="31"/>
+      <c r="K363" s="31"/>
+      <c r="L363" s="31"/>
+      <c r="M363" s="31"/>
+      <c r="N363" s="32"/>
+    </row>
+    <row r="364" spans="3:14">
+      <c r="H364" s="33" t="s">
         <v>2451</v>
       </c>
-      <c r="H309" s="27" t="s">
+      <c r="I364" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="I309" s="27"/>
-      <c r="J309" s="27"/>
-      <c r="K309" s="27"/>
-      <c r="L309" s="27"/>
-      <c r="M309" s="34"/>
-    </row>
-    <row r="310" spans="2:13" ht="15.75" thickBot="1">
-      <c r="G310" s="33"/>
-      <c r="H310" s="27"/>
-      <c r="I310" s="27"/>
-      <c r="J310" s="27"/>
-      <c r="K310" s="27"/>
-      <c r="L310" s="27"/>
-      <c r="M310" s="34"/>
-    </row>
-    <row r="311" spans="2:13">
-      <c r="B311" t="s">
+      <c r="J364" s="27"/>
+      <c r="K364" s="27"/>
+      <c r="L364" s="27"/>
+      <c r="M364" s="27"/>
+      <c r="N364" s="34"/>
+    </row>
+    <row r="365" spans="3:14" ht="15.75" thickBot="1">
+      <c r="H365" s="33"/>
+      <c r="I365" s="27"/>
+      <c r="J365" s="27"/>
+      <c r="K365" s="27"/>
+      <c r="L365" s="27"/>
+      <c r="M365" s="27"/>
+      <c r="N365" s="34"/>
+    </row>
+    <row r="366" spans="3:14">
+      <c r="C366" t="s">
         <v>2449</v>
       </c>
-      <c r="G311" s="33"/>
-      <c r="H311" s="27"/>
-      <c r="I311" s="27" t="s">
+      <c r="H366" s="33"/>
+      <c r="I366" s="27"/>
+      <c r="J366" s="27" t="s">
         <v>2453</v>
       </c>
-      <c r="J311" s="47" t="s">
+      <c r="K366" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="K311" s="48">
+      <c r="L366" s="48">
         <v>10</v>
       </c>
-      <c r="L311" s="49"/>
-      <c r="M311" s="34"/>
-    </row>
-    <row r="312" spans="2:13">
-      <c r="G312" s="33"/>
-      <c r="H312" s="27"/>
-      <c r="I312" s="27"/>
-      <c r="J312" s="50" t="s">
+      <c r="M366" s="49"/>
+      <c r="N366" s="34"/>
+    </row>
+    <row r="367" spans="3:14">
+      <c r="H367" s="33"/>
+      <c r="I367" s="27"/>
+      <c r="J367" s="27"/>
+      <c r="K367" s="50" t="s">
         <v>1247</v>
       </c>
-      <c r="K312" s="51" t="s">
+      <c r="L367" s="51" t="s">
         <v>2452</v>
       </c>
-      <c r="L312" s="52"/>
-      <c r="M312" s="34"/>
-    </row>
-    <row r="313" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C313" t="s">
+      <c r="M367" s="52"/>
+      <c r="N367" s="34"/>
+    </row>
+    <row r="368" spans="3:14" ht="15.75" thickBot="1">
+      <c r="D368" t="s">
         <v>342</v>
       </c>
-      <c r="G313" s="33"/>
-      <c r="H313" s="27"/>
-      <c r="I313" s="27"/>
-      <c r="J313" s="53" t="s">
+      <c r="H368" s="33"/>
+      <c r="I368" s="27"/>
+      <c r="J368" s="27"/>
+      <c r="K368" s="53" t="s">
         <v>1792</v>
       </c>
-      <c r="K313" s="54" t="s">
+      <c r="L368" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="L313" s="55"/>
-      <c r="M313" s="34"/>
-    </row>
-    <row r="314" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C314" t="s">
+      <c r="M368" s="55"/>
+      <c r="N368" s="34"/>
+    </row>
+    <row r="369" spans="3:14" ht="15.75" thickBot="1">
+      <c r="D369" t="s">
         <v>2450</v>
       </c>
-      <c r="G314" s="33"/>
-      <c r="H314" s="27"/>
-      <c r="I314" s="27"/>
-      <c r="J314" s="27"/>
-      <c r="K314" s="27"/>
-      <c r="L314" s="27"/>
-      <c r="M314" s="34"/>
-    </row>
-    <row r="315" spans="2:13">
-      <c r="G315" s="33"/>
-      <c r="H315" s="27"/>
-      <c r="I315" s="27" t="s">
+      <c r="H369" s="33"/>
+      <c r="I369" s="27"/>
+      <c r="J369" s="27"/>
+      <c r="K369" s="27"/>
+      <c r="L369" s="27"/>
+      <c r="M369" s="27"/>
+      <c r="N369" s="34"/>
+    </row>
+    <row r="370" spans="3:14">
+      <c r="H370" s="33"/>
+      <c r="I370" s="27"/>
+      <c r="J370" s="27" t="s">
         <v>2452</v>
       </c>
-      <c r="J315" s="47" t="s">
+      <c r="K370" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K315" s="48" t="s">
+      <c r="L370" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="L315" s="49"/>
-      <c r="M315" s="34"/>
-    </row>
-    <row r="316" spans="2:13">
-      <c r="B316" t="s">
+      <c r="M370" s="49"/>
+      <c r="N370" s="34"/>
+    </row>
+    <row r="371" spans="3:14">
+      <c r="C371" t="s">
         <v>2454</v>
       </c>
-      <c r="G316" s="33"/>
-      <c r="H316" s="27"/>
-      <c r="I316" s="27"/>
-      <c r="J316" s="50" t="s">
+      <c r="H371" s="33"/>
+      <c r="I371" s="27"/>
+      <c r="J371" s="27"/>
+      <c r="K371" s="50" t="s">
         <v>2266</v>
       </c>
-      <c r="K316" s="51">
+      <c r="L371" s="51">
         <v>0</v>
       </c>
-      <c r="L316" s="52"/>
-      <c r="M316" s="34"/>
-    </row>
-    <row r="317" spans="2:13" ht="15.75" thickBot="1">
-      <c r="C317" t="s">
+      <c r="M371" s="52"/>
+      <c r="N371" s="34"/>
+    </row>
+    <row r="372" spans="3:14" ht="15.75" thickBot="1">
+      <c r="D372" t="s">
         <v>2455</v>
       </c>
-      <c r="G317" s="33"/>
-      <c r="H317" s="27"/>
-      <c r="I317" s="27"/>
-      <c r="J317" s="53"/>
-      <c r="K317" s="54"/>
-      <c r="L317" s="55"/>
-      <c r="M317" s="34"/>
-    </row>
-    <row r="318" spans="2:13">
-      <c r="B318" t="s">
+      <c r="H372" s="33"/>
+      <c r="I372" s="27"/>
+      <c r="J372" s="27"/>
+      <c r="K372" s="53"/>
+      <c r="L372" s="54"/>
+      <c r="M372" s="55"/>
+      <c r="N372" s="34"/>
+    </row>
+    <row r="373" spans="3:14">
+      <c r="C373" t="s">
         <v>144</v>
       </c>
-      <c r="G318" s="33"/>
-      <c r="H318" s="27"/>
-      <c r="I318" s="27"/>
-      <c r="J318" s="27"/>
-      <c r="K318" s="27"/>
-      <c r="L318" s="27"/>
-      <c r="M318" s="34"/>
-    </row>
-    <row r="319" spans="2:13">
-      <c r="G319" s="33"/>
-      <c r="H319" s="27"/>
-      <c r="I319" s="27"/>
-      <c r="J319" s="27"/>
-      <c r="K319" s="27"/>
-      <c r="L319" s="27"/>
-      <c r="M319" s="34"/>
-    </row>
-    <row r="320" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B320" t="s">
+      <c r="H373" s="33"/>
+      <c r="I373" s="27"/>
+      <c r="J373" s="27"/>
+      <c r="K373" s="27"/>
+      <c r="L373" s="27"/>
+      <c r="M373" s="27"/>
+      <c r="N373" s="34"/>
+    </row>
+    <row r="374" spans="3:14">
+      <c r="H374" s="33"/>
+      <c r="I374" s="27"/>
+      <c r="J374" s="27"/>
+      <c r="K374" s="27"/>
+      <c r="L374" s="27"/>
+      <c r="M374" s="27"/>
+      <c r="N374" s="34"/>
+    </row>
+    <row r="375" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C375" t="s">
         <v>144</v>
       </c>
-      <c r="G320" s="35"/>
-      <c r="H320" s="36"/>
-      <c r="I320" s="36"/>
-      <c r="J320" s="36"/>
-      <c r="K320" s="36"/>
-      <c r="L320" s="36"/>
-      <c r="M320" s="37"/>
-    </row>
-    <row r="329" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="330" spans="1:12">
-      <c r="F330" s="30"/>
-      <c r="G330" s="31"/>
-      <c r="H330" s="31"/>
-      <c r="I330" s="31"/>
-      <c r="J330" s="31"/>
-      <c r="K330" s="31"/>
-      <c r="L330" s="32"/>
-    </row>
-    <row r="331" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A331" t="s">
+      <c r="H375" s="35"/>
+      <c r="I375" s="36"/>
+      <c r="J375" s="36"/>
+      <c r="K375" s="36"/>
+      <c r="L375" s="36"/>
+      <c r="M375" s="36"/>
+      <c r="N375" s="37"/>
+    </row>
+    <row r="384" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="385" spans="2:13">
+      <c r="G385" s="30"/>
+      <c r="H385" s="31"/>
+      <c r="I385" s="31"/>
+      <c r="J385" s="31"/>
+      <c r="K385" s="31"/>
+      <c r="L385" s="31"/>
+      <c r="M385" s="32"/>
+    </row>
+    <row r="386" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B386" t="s">
         <v>479</v>
       </c>
-      <c r="F331" s="33"/>
-      <c r="G331" s="27"/>
-      <c r="H331" s="27"/>
-      <c r="I331" s="27"/>
-      <c r="J331" s="27"/>
-      <c r="K331" s="27"/>
-      <c r="L331" s="34"/>
-    </row>
-    <row r="332" spans="1:12">
-      <c r="F332" s="33"/>
-      <c r="G332" s="27" t="s">
+      <c r="G386" s="33"/>
+      <c r="H386" s="27"/>
+      <c r="I386" s="27"/>
+      <c r="J386" s="27"/>
+      <c r="K386" s="27"/>
+      <c r="L386" s="27"/>
+      <c r="M386" s="34"/>
+    </row>
+    <row r="387" spans="2:13">
+      <c r="G387" s="33"/>
+      <c r="H387" s="27" t="s">
         <v>1792</v>
       </c>
-      <c r="H332" s="27" t="s">
+      <c r="I387" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27" t="s">
+      <c r="J387" s="27"/>
+      <c r="K387" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="K332" s="30"/>
-      <c r="L332" s="32"/>
-    </row>
-    <row r="333" spans="1:12">
-      <c r="B333" t="s">
+      <c r="L387" s="30"/>
+      <c r="M387" s="32"/>
+    </row>
+    <row r="388" spans="2:13">
+      <c r="C388" t="s">
         <v>2977</v>
       </c>
-      <c r="F333" s="33"/>
-      <c r="G333" s="27" t="s">
+      <c r="G388" s="33"/>
+      <c r="H388" s="27" t="s">
         <v>1778</v>
       </c>
-      <c r="H333" s="27" t="s">
+      <c r="I388" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="33" t="s">
+      <c r="J388" s="27"/>
+      <c r="K388" s="27"/>
+      <c r="L388" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L333" s="34" t="s">
+      <c r="M388" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75" thickBot="1">
-      <c r="F334" s="33"/>
-      <c r="G334" s="27"/>
-      <c r="H334" s="27"/>
-      <c r="I334" s="27"/>
-      <c r="J334" s="27"/>
-      <c r="K334" s="35"/>
-      <c r="L334" s="37"/>
-    </row>
-    <row r="335" spans="1:12">
-      <c r="A335" t="s">
+    <row r="389" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G389" s="33"/>
+      <c r="H389" s="27"/>
+      <c r="I389" s="27"/>
+      <c r="J389" s="27"/>
+      <c r="K389" s="27"/>
+      <c r="L389" s="35"/>
+      <c r="M389" s="37"/>
+    </row>
+    <row r="390" spans="2:13">
+      <c r="B390" t="s">
         <v>144</v>
       </c>
-      <c r="F335" s="33"/>
-      <c r="G335" s="27"/>
-      <c r="H335" s="27"/>
-      <c r="I335" s="27"/>
-      <c r="J335" s="27"/>
-      <c r="K335" s="27"/>
-      <c r="L335" s="34"/>
-    </row>
-    <row r="336" spans="1:12">
-      <c r="F336" s="33"/>
-      <c r="G336" s="27"/>
-      <c r="H336" s="27"/>
-      <c r="I336" s="27"/>
-      <c r="J336" s="27"/>
-      <c r="K336" s="27"/>
-      <c r="L336" s="34"/>
-    </row>
-    <row r="337" spans="2:12">
-      <c r="B337" t="s">
+      <c r="G390" s="33"/>
+      <c r="H390" s="27"/>
+      <c r="I390" s="27"/>
+      <c r="J390" s="27"/>
+      <c r="K390" s="27"/>
+      <c r="L390" s="27"/>
+      <c r="M390" s="34"/>
+    </row>
+    <row r="391" spans="2:13">
+      <c r="G391" s="33"/>
+      <c r="H391" s="27"/>
+      <c r="I391" s="27"/>
+      <c r="J391" s="27"/>
+      <c r="K391" s="27"/>
+      <c r="L391" s="27"/>
+      <c r="M391" s="34"/>
+    </row>
+    <row r="392" spans="2:13">
+      <c r="C392" t="s">
         <v>1607</v>
       </c>
-      <c r="F337" s="33"/>
-      <c r="G337" s="27"/>
-      <c r="H337" s="27"/>
-      <c r="I337" s="27"/>
-      <c r="J337" s="27"/>
-      <c r="K337" s="27"/>
-      <c r="L337" s="34"/>
-    </row>
-    <row r="338" spans="2:12">
-      <c r="B338" t="s">
+      <c r="G392" s="33"/>
+      <c r="H392" s="27"/>
+      <c r="I392" s="27"/>
+      <c r="J392" s="27"/>
+      <c r="K392" s="27"/>
+      <c r="L392" s="27"/>
+      <c r="M392" s="34"/>
+    </row>
+    <row r="393" spans="2:13">
+      <c r="C393" t="s">
         <v>1793</v>
       </c>
-      <c r="F338" s="33"/>
-      <c r="G338" s="27"/>
-      <c r="H338" s="27"/>
-      <c r="I338" s="27"/>
-      <c r="J338" s="27"/>
-      <c r="K338" s="27"/>
-      <c r="L338" s="34"/>
-    </row>
-    <row r="339" spans="2:12">
-      <c r="F339" s="33"/>
-      <c r="G339" s="27"/>
-      <c r="H339" s="27"/>
-      <c r="I339" s="27"/>
-      <c r="J339" s="27"/>
-      <c r="K339" s="27"/>
-      <c r="L339" s="34"/>
-    </row>
-    <row r="340" spans="2:12">
-      <c r="B340" t="s">
+      <c r="G393" s="33"/>
+      <c r="H393" s="27"/>
+      <c r="I393" s="27"/>
+      <c r="J393" s="27"/>
+      <c r="K393" s="27"/>
+      <c r="L393" s="27"/>
+      <c r="M393" s="34"/>
+    </row>
+    <row r="394" spans="2:13">
+      <c r="G394" s="33"/>
+      <c r="H394" s="27"/>
+      <c r="I394" s="27"/>
+      <c r="J394" s="27"/>
+      <c r="K394" s="27"/>
+      <c r="L394" s="27"/>
+      <c r="M394" s="34"/>
+    </row>
+    <row r="395" spans="2:13">
+      <c r="C395" t="s">
         <v>2978</v>
       </c>
-      <c r="D340" t="s">
+      <c r="E395" t="s">
         <v>412</v>
       </c>
-      <c r="F340" s="33"/>
-      <c r="G340" s="27"/>
-      <c r="H340" s="27"/>
-      <c r="I340" s="27"/>
-      <c r="J340" s="27"/>
-      <c r="K340" s="27"/>
-      <c r="L340" s="34"/>
-    </row>
-    <row r="341" spans="2:12">
-      <c r="B341" t="s">
+      <c r="G395" s="33"/>
+      <c r="H395" s="27"/>
+      <c r="I395" s="27"/>
+      <c r="J395" s="27"/>
+      <c r="K395" s="27"/>
+      <c r="L395" s="27"/>
+      <c r="M395" s="34"/>
+    </row>
+    <row r="396" spans="2:13">
+      <c r="C396" t="s">
         <v>2979</v>
       </c>
-      <c r="F341" s="33"/>
-      <c r="G341" s="27"/>
-      <c r="H341" s="27"/>
-      <c r="I341" s="27"/>
-      <c r="J341" s="27"/>
-      <c r="K341" s="27"/>
-      <c r="L341" s="34"/>
-    </row>
-    <row r="342" spans="2:12" ht="15.75" thickBot="1">
-      <c r="F342" s="35"/>
-      <c r="G342" s="36"/>
-      <c r="H342" s="36"/>
-      <c r="I342" s="36"/>
-      <c r="J342" s="36"/>
-      <c r="K342" s="36"/>
-      <c r="L342" s="37"/>
-    </row>
-    <row r="352" spans="2:12">
-      <c r="C352" t="s">
+      <c r="G396" s="33"/>
+      <c r="H396" s="27"/>
+      <c r="I396" s="27"/>
+      <c r="J396" s="27"/>
+      <c r="K396" s="27"/>
+      <c r="L396" s="27"/>
+      <c r="M396" s="34"/>
+    </row>
+    <row r="397" spans="2:13" ht="15.75" thickBot="1">
+      <c r="G397" s="35"/>
+      <c r="H397" s="36"/>
+      <c r="I397" s="36"/>
+      <c r="J397" s="36"/>
+      <c r="K397" s="36"/>
+      <c r="L397" s="36"/>
+      <c r="M397" s="37"/>
+    </row>
+    <row r="407" spans="3:4">
+      <c r="D407" t="s">
         <v>2914</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" t="s">
+    <row r="408" spans="3:4">
+      <c r="C408" t="s">
         <v>144</v>
       </c>
     </row>
@@ -40487,24 +40678,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="344" t="s">
+      <c r="B22" s="350" t="s">
         <v>1238</v>
       </c>
-      <c r="C22" s="344"/>
+      <c r="C22" s="350"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="344" t="s">
+      <c r="F22" s="350" t="s">
         <v>1342</v>
       </c>
-      <c r="G22" s="344"/>
-      <c r="H22" s="344"/>
+      <c r="G22" s="350"/>
+      <c r="H22" s="350"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="344" t="s">
+      <c r="K22" s="350" t="s">
         <v>1240</v>
       </c>
-      <c r="L22" s="344"/>
-      <c r="M22" s="344"/>
+      <c r="L22" s="350"/>
+      <c r="M22" s="350"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -43062,35 +43253,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="346" t="s">
+      <c r="B8" s="352" t="s">
         <v>3033</v>
       </c>
-      <c r="C8" s="346"/>
-      <c r="F8" s="346" t="s">
+      <c r="C8" s="352"/>
+      <c r="F8" s="352" t="s">
         <v>3034</v>
       </c>
-      <c r="G8" s="346"/>
-      <c r="I8" s="346" t="s">
+      <c r="G8" s="352"/>
+      <c r="I8" s="352" t="s">
         <v>3034</v>
       </c>
-      <c r="J8" s="346"/>
+      <c r="J8" s="352"/>
       <c r="M8" s="248" t="s">
         <v>3091</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="346" t="s">
+      <c r="F9" s="352" t="s">
         <v>3035</v>
       </c>
-      <c r="G9" s="346"/>
-      <c r="I9" s="346" t="s">
+      <c r="G9" s="352"/>
+      <c r="I9" s="352" t="s">
         <v>3036</v>
       </c>
-      <c r="J9" s="346"/>
-      <c r="M9" s="347" t="s">
+      <c r="J9" s="352"/>
+      <c r="M9" s="353" t="s">
         <v>3034</v>
       </c>
-      <c r="N9" s="347"/>
+      <c r="N9" s="353"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="314" t="s">
@@ -43099,19 +43290,19 @@
       <c r="N10" s="314"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="345" t="s">
+      <c r="E11" s="351" t="s">
         <v>3038</v>
       </c>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="345"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="351"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="351"/>
+      <c r="M11" s="351"/>
+      <c r="N11" s="351"/>
+      <c r="O11" s="351"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -46871,11 +47062,11 @@
       <c r="L6" s="43" t="s">
         <v>1514</v>
       </c>
-      <c r="M6" s="348" t="s">
+      <c r="M6" s="354" t="s">
         <v>1515</v>
       </c>
-      <c r="N6" s="348"/>
-      <c r="O6" s="348"/>
+      <c r="N6" s="354"/>
+      <c r="O6" s="354"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -50315,7 +50506,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="339" t="s">
+      <c r="G269" s="342" t="s">
         <v>2732</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -50336,7 +50527,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="340"/>
+      <c r="G270" s="343"/>
       <c r="I270" s="169" t="s">
         <v>2728</v>
       </c>
@@ -52385,8 +52576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V411"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:P9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52404,23 +52595,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>2811</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="I1" s="343" t="s">
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="I1" s="346" t="s">
         <v>2823</v>
       </c>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
+      <c r="N1" s="346"/>
+      <c r="O1" s="346"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52576,28 +52767,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="338" t="s">
         <v>2825</v>
       </c>
-      <c r="B12" s="342"/>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="336"/>
-      <c r="I12" s="335" t="s">
+      <c r="B12" s="345"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="339"/>
+      <c r="I12" s="338" t="s">
         <v>2825</v>
       </c>
-      <c r="J12" s="342"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="342"/>
-      <c r="M12" s="342"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="342"/>
-      <c r="P12" s="342"/>
-      <c r="Q12" s="342"/>
-      <c r="R12" s="336"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="345"/>
+      <c r="N12" s="345"/>
+      <c r="O12" s="345"/>
+      <c r="P12" s="345"/>
+      <c r="Q12" s="345"/>
+      <c r="R12" s="339"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52825,14 +53016,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="343" t="s">
+      <c r="A24" s="346" t="s">
         <v>2811</v>
       </c>
-      <c r="B24" s="343"/>
-      <c r="C24" s="343"/>
-      <c r="D24" s="343"/>
-      <c r="E24" s="343"/>
-      <c r="F24" s="343"/>
+      <c r="B24" s="346"/>
+      <c r="C24" s="346"/>
+      <c r="D24" s="346"/>
+      <c r="E24" s="346"/>
+      <c r="F24" s="346"/>
       <c r="H24" s="272" t="s">
         <v>2823</v>
       </c>
@@ -52842,11 +53033,11 @@
       <c r="L24" s="272"/>
       <c r="M24" s="272"/>
       <c r="N24" s="272"/>
-      <c r="P24" s="343" t="s">
+      <c r="P24" s="346" t="s">
         <v>2864</v>
       </c>
-      <c r="Q24" s="343"/>
-      <c r="R24" s="343"/>
+      <c r="Q24" s="346"/>
+      <c r="R24" s="346"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -53086,28 +53277,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="335" t="s">
+      <c r="A35" s="338" t="s">
         <v>2865</v>
       </c>
-      <c r="B35" s="342"/>
-      <c r="C35" s="342"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="342"/>
-      <c r="H35" s="336"/>
-      <c r="I35" s="335" t="s">
+      <c r="B35" s="345"/>
+      <c r="C35" s="345"/>
+      <c r="D35" s="345"/>
+      <c r="E35" s="345"/>
+      <c r="F35" s="345"/>
+      <c r="G35" s="345"/>
+      <c r="H35" s="339"/>
+      <c r="I35" s="338" t="s">
         <v>1118</v>
       </c>
-      <c r="J35" s="342"/>
-      <c r="K35" s="342"/>
-      <c r="L35" s="342"/>
-      <c r="M35" s="342"/>
-      <c r="N35" s="342"/>
-      <c r="O35" s="342"/>
-      <c r="P35" s="342"/>
-      <c r="Q35" s="342"/>
-      <c r="R35" s="336"/>
+      <c r="J35" s="345"/>
+      <c r="K35" s="345"/>
+      <c r="L35" s="345"/>
+      <c r="M35" s="345"/>
+      <c r="N35" s="345"/>
+      <c r="O35" s="345"/>
+      <c r="P35" s="345"/>
+      <c r="Q35" s="345"/>
+      <c r="R35" s="339"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
@@ -53987,10 +54178,10 @@
       <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="341" t="s">
+      <c r="F76" s="344" t="s">
         <v>2097</v>
       </c>
-      <c r="G76" s="327"/>
+      <c r="G76" s="330"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="3428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6590" uniqueCount="3435">
   <si>
     <t>USER</t>
   </si>
@@ -10596,12 +10596,33 @@
   <si>
     <t>s   &gt; #abc</t>
   </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>john@gmail.cm</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>java variable</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10723,6 +10744,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -10847,7 +10882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -11198,19 +11233,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11219,7 +11241,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11983,17 +12005,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26450,8 +26469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26773,7 +26792,9 @@
     </row>
     <row r="20" spans="1:17">
       <c r="F20" s="139"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>3434</v>
+      </c>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13" t="s">
@@ -26796,45 +26817,45 @@
       <c r="F21" s="313" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="G21" s="365" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="365" t="s">
+        <v>411</v>
+      </c>
       <c r="I21" s="17"/>
-      <c r="J21" s="371" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="371" t="s">
-        <v>558</v>
-      </c>
+      <c r="J21" s="365"/>
+      <c r="K21" s="365"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1">
       <c r="F22" s="140"/>
-      <c r="G22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="17"/>
+      <c r="G22" s="365" t="s">
+        <v>3432</v>
+      </c>
+      <c r="H22" s="365" t="s">
+        <v>3428</v>
+      </c>
       <c r="I22" s="17"/>
-      <c r="J22" s="372" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="372">
-        <v>21</v>
-      </c>
+      <c r="J22" s="365"/>
+      <c r="K22" s="365"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:17">
       <c r="F23" s="139"/>
-      <c r="G23" s="13" t="s">
-        <v>3427</v>
-      </c>
-      <c r="H23" s="15"/>
+      <c r="G23" s="365" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="365" t="s">
+        <v>2141</v>
+      </c>
       <c r="I23" s="17"/>
       <c r="J23" s="365"/>
-      <c r="K23" s="366"/>
+      <c r="K23" s="365"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="18"/>
@@ -26843,33 +26864,38 @@
       <c r="F24" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="371" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="371" t="s">
-        <v>558</v>
+      <c r="G24" s="365" t="s">
+        <v>3430</v>
+      </c>
+      <c r="H24" s="365">
+        <v>123456</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="367"/>
-      <c r="K24" s="368"/>
+      <c r="J24" s="365"/>
+      <c r="K24" s="365"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1">
       <c r="F25" s="140"/>
-      <c r="G25" s="372" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="372">
-        <v>21</v>
+      <c r="G25" s="365" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H25" s="366" t="s">
+        <v>3429</v>
       </c>
       <c r="I25" s="20"/>
-      <c r="J25" s="369"/>
-      <c r="K25" s="370"/>
+      <c r="J25" s="365"/>
+      <c r="K25" s="366"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="367" t="s">
+        <v>3433</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="H27" t="s">
@@ -28151,8 +28177,11 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="M8:N8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
